--- a/futures.xlsx
+++ b/futures.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssymhoven\Projekte\drawdown-risk\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssymhoven\Projekte\drawdown-rsik\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59A793B0-462B-4591-9B02-BA37FFF7240D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B86D873-C3D2-4B1B-B32F-E5C5821E9A9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-57720" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{6B127A01-C975-41DD-8874-C1A98A2D19D1}"/>
+    <workbookView xWindow="135" yWindow="705" windowWidth="34050" windowHeight="17040" xr2:uid="{6B127A01-C975-41DD-8874-C1A98A2D19D1}"/>
   </bookViews>
   <sheets>
     <sheet name="S&amp;P 500 INDEX" sheetId="1" r:id="rId1"/>
@@ -93,7 +93,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -113,13 +113,13 @@
   <volType type="realTimeData">
     <main first="bofaddin.rtdserver">
       <tp t="s">
-        <v>#N/A Requesting Data...3460740302</v>
+        <v>#N/A Requesting Data...2778220600</v>
         <stp/>
         <stp>BQL|18230993787104937031</stp>
         <tr r="A1" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1052951369</v>
+        <v>#N/A Requesting Data...3016349160</v>
         <stp/>
         <stp>BQL|10757217855212528176</stp>
         <tr r="A1" s="5"/>
@@ -127,7 +127,7 @@
     </main>
     <main first="bofaddin.rtdserver">
       <tp t="s">
-        <v>#N/A Requesting Data...1379079167</v>
+        <v>#N/A Requesting Data...2624428440</v>
         <stp/>
         <stp>BQL|9085533483929508075</stp>
         <tr r="A1" s="3"/>
@@ -138,7 +138,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -456,11 +456,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1534F4BD-378B-4CD6-BA07-EDE391A05EB2}">
   <dimension ref="A1:B261"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.42578125" customWidth="1"/>
     <col min="2" max="2" width="15.85546875" customWidth="1"/>
@@ -486,2026 +486,2026 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>45054</v>
+        <v>45056</v>
       </c>
       <c r="B3">
-        <v>4290</v>
+        <v>4289</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>45055</v>
+        <v>45057</v>
       </c>
       <c r="B4">
-        <v>4272</v>
+        <v>4279</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>45056</v>
+        <v>45058</v>
       </c>
       <c r="B5">
-        <v>4289</v>
+        <v>4275</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>45057</v>
+        <v>45061</v>
       </c>
       <c r="B6">
-        <v>4279</v>
+        <v>4287</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>45058</v>
+        <v>45062</v>
       </c>
       <c r="B7">
-        <v>4275</v>
+        <v>4262</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>45061</v>
+        <v>45063</v>
       </c>
       <c r="B8">
-        <v>4287</v>
+        <v>4312</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>45062</v>
+        <v>45064</v>
       </c>
       <c r="B9">
-        <v>4262</v>
+        <v>4363</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>45063</v>
+        <v>45065</v>
       </c>
       <c r="B10">
-        <v>4312</v>
+        <v>4356</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>45064</v>
+        <v>45068</v>
       </c>
       <c r="B11">
-        <v>4363</v>
+        <v>4358</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>45065</v>
+        <v>45069</v>
       </c>
       <c r="B12">
-        <v>4356</v>
+        <v>4312</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>45068</v>
+        <v>45070</v>
       </c>
       <c r="B13">
-        <v>4358</v>
+        <v>4280</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>45069</v>
+        <v>45071</v>
       </c>
       <c r="B14">
-        <v>4312</v>
+        <v>4320</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>45070</v>
+        <v>45072</v>
       </c>
       <c r="B15">
-        <v>4280</v>
+        <v>4380</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>45071</v>
+        <v>45076</v>
       </c>
       <c r="B16">
-        <v>4320</v>
+        <v>4381</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>45072</v>
+        <v>45077</v>
       </c>
       <c r="B17">
-        <v>4380</v>
+        <v>4352</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>45076</v>
+        <v>45078</v>
       </c>
       <c r="B18">
-        <v>4381</v>
+        <v>4388</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>45077</v>
+        <v>45079</v>
       </c>
       <c r="B19">
-        <v>4352</v>
+        <v>4459.5</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>45078</v>
+        <v>45082</v>
       </c>
       <c r="B20">
-        <v>4388</v>
+        <v>4452</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>45079</v>
+        <v>45083</v>
       </c>
       <c r="B21">
-        <v>4459.5</v>
+        <v>4461</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>45082</v>
+        <v>45084</v>
       </c>
       <c r="B22">
-        <v>4452</v>
+        <v>4448</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>45083</v>
+        <v>45085</v>
       </c>
       <c r="B23">
-        <v>4461</v>
+        <v>4473</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>45084</v>
+        <v>45086</v>
       </c>
       <c r="B24">
-        <v>4448</v>
+        <v>4481</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>45085</v>
+        <v>45089</v>
       </c>
       <c r="B25">
-        <v>4473</v>
+        <v>4520</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>45086</v>
+        <v>45090</v>
       </c>
       <c r="B26">
-        <v>4481</v>
+        <v>4554.5</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>45089</v>
+        <v>45091</v>
       </c>
       <c r="B27">
-        <v>4520</v>
+        <v>4557.5</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>45090</v>
+        <v>45092</v>
       </c>
       <c r="B28">
-        <v>4554.5</v>
+        <v>4613.25</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>45091</v>
+        <v>45093</v>
       </c>
       <c r="B29">
-        <v>4557.5</v>
+        <v>4596</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>45092</v>
+        <v>45097</v>
       </c>
       <c r="B30">
-        <v>4613.25</v>
+        <v>4577</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>45093</v>
+        <v>45098</v>
       </c>
       <c r="B31">
-        <v>4596</v>
+        <v>4551</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>45097</v>
+        <v>45099</v>
       </c>
       <c r="B32">
-        <v>4577</v>
+        <v>4566</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>45098</v>
+        <v>45100</v>
       </c>
       <c r="B33">
-        <v>4551</v>
+        <v>4530</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>45099</v>
+        <v>45103</v>
       </c>
       <c r="B34">
-        <v>4566</v>
+        <v>4510.25</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>45100</v>
+        <v>45104</v>
       </c>
       <c r="B35">
-        <v>4530</v>
+        <v>4563.25</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>45103</v>
+        <v>45105</v>
       </c>
       <c r="B36">
-        <v>4510.25</v>
+        <v>4562</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>45104</v>
+        <v>45106</v>
       </c>
       <c r="B37">
-        <v>4563.25</v>
+        <v>4584.75</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>45105</v>
+        <v>45107</v>
       </c>
       <c r="B38">
-        <v>4562</v>
+        <v>4638.25</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>45106</v>
+        <v>45110</v>
       </c>
       <c r="B39">
-        <v>4584.75</v>
+        <v>4643.5</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>45107</v>
+        <v>45112</v>
       </c>
       <c r="B40">
-        <v>4638.25</v>
+        <v>4634</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>45110</v>
+        <v>45113</v>
       </c>
       <c r="B41">
-        <v>4643.5</v>
+        <v>4597</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>45112</v>
+        <v>45114</v>
       </c>
       <c r="B42">
-        <v>4634</v>
+        <v>4583.75</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>45113</v>
+        <v>45117</v>
       </c>
       <c r="B43">
-        <v>4597</v>
+        <v>4593</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>45114</v>
+        <v>45118</v>
       </c>
       <c r="B44">
-        <v>4583.75</v>
+        <v>4623</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>45117</v>
+        <v>45119</v>
       </c>
       <c r="B45">
-        <v>4593</v>
+        <v>4656.5</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>45118</v>
+        <v>45120</v>
       </c>
       <c r="B46">
-        <v>4623</v>
+        <v>4692</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>45119</v>
+        <v>45121</v>
       </c>
       <c r="B47">
-        <v>4656.5</v>
+        <v>4688</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>45120</v>
+        <v>45124</v>
       </c>
       <c r="B48">
-        <v>4692</v>
+        <v>4704</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>45121</v>
+        <v>45125</v>
       </c>
       <c r="B49">
-        <v>4688</v>
+        <v>4740</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>45124</v>
+        <v>45126</v>
       </c>
       <c r="B50">
-        <v>4704</v>
+        <v>4750.25</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>45125</v>
+        <v>45127</v>
       </c>
       <c r="B51">
-        <v>4740</v>
+        <v>4719</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>45126</v>
+        <v>45128</v>
       </c>
       <c r="B52">
-        <v>4750.25</v>
+        <v>4718.5</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>45127</v>
+        <v>45131</v>
       </c>
       <c r="B53">
-        <v>4719</v>
+        <v>4739</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>45128</v>
+        <v>45132</v>
       </c>
       <c r="B54">
-        <v>4718.5</v>
+        <v>4752</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>45131</v>
+        <v>45133</v>
       </c>
       <c r="B55">
-        <v>4739</v>
+        <v>4751.25</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>45132</v>
+        <v>45134</v>
       </c>
       <c r="B56">
-        <v>4752</v>
+        <v>4721.25</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>45133</v>
+        <v>45135</v>
       </c>
       <c r="B57">
-        <v>4751.25</v>
+        <v>4765.75</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>45134</v>
+        <v>45138</v>
       </c>
       <c r="B58">
-        <v>4721.25</v>
+        <v>4774.5</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>45135</v>
+        <v>45139</v>
       </c>
       <c r="B59">
-        <v>4765.75</v>
+        <v>4761.5</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>45138</v>
+        <v>45140</v>
       </c>
       <c r="B60">
-        <v>4774.5</v>
+        <v>4694.25</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>45139</v>
+        <v>45141</v>
       </c>
       <c r="B61">
-        <v>4761.5</v>
+        <v>4678.75</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>45140</v>
+        <v>45142</v>
       </c>
       <c r="B62">
-        <v>4694.25</v>
+        <v>4652.75</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>45141</v>
+        <v>45145</v>
       </c>
       <c r="B63">
-        <v>4678.75</v>
+        <v>4693.5</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>45142</v>
+        <v>45146</v>
       </c>
       <c r="B64">
-        <v>4652.75</v>
+        <v>4672.5</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>45145</v>
+        <v>45147</v>
       </c>
       <c r="B65">
-        <v>4693.5</v>
+        <v>4639</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>45146</v>
+        <v>45148</v>
       </c>
       <c r="B66">
-        <v>4672.5</v>
+        <v>4638.5</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>45147</v>
+        <v>45149</v>
       </c>
       <c r="B67">
-        <v>4639</v>
+        <v>4633.5</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>45148</v>
+        <v>45152</v>
       </c>
       <c r="B68">
-        <v>4638.5</v>
+        <v>4660.5</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>45149</v>
+        <v>45153</v>
       </c>
       <c r="B69">
-        <v>4633.5</v>
+        <v>4607</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>45152</v>
+        <v>45154</v>
       </c>
       <c r="B70">
-        <v>4660.5</v>
+        <v>4572</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>45153</v>
+        <v>45155</v>
       </c>
       <c r="B71">
-        <v>4607</v>
+        <v>4533.25</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>45154</v>
+        <v>45156</v>
       </c>
       <c r="B72">
-        <v>4572</v>
+        <v>4530.5</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>45155</v>
+        <v>45159</v>
       </c>
       <c r="B73">
-        <v>4533.25</v>
+        <v>4563</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>45156</v>
+        <v>45160</v>
       </c>
       <c r="B74">
-        <v>4530.5</v>
+        <v>4549.5</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>45159</v>
+        <v>45161</v>
       </c>
       <c r="B75">
-        <v>4563</v>
+        <v>4598</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>45160</v>
+        <v>45162</v>
       </c>
       <c r="B76">
-        <v>4549.5</v>
+        <v>4536</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>45161</v>
+        <v>45163</v>
       </c>
       <c r="B77">
-        <v>4598</v>
+        <v>4567.75</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>45162</v>
+        <v>45166</v>
       </c>
       <c r="B78">
-        <v>4536</v>
+        <v>4597</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>45163</v>
+        <v>45167</v>
       </c>
       <c r="B79">
-        <v>4567.75</v>
+        <v>4662.5</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>45166</v>
+        <v>45168</v>
       </c>
       <c r="B80">
-        <v>4597</v>
+        <v>4680.25</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>45167</v>
+        <v>45169</v>
       </c>
       <c r="B81">
-        <v>4662.5</v>
+        <v>4672.25</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>45168</v>
+        <v>45170</v>
       </c>
       <c r="B82">
-        <v>4680.25</v>
+        <v>4676.75</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <v>45169</v>
+        <v>45174</v>
       </c>
       <c r="B83">
-        <v>4672.25</v>
+        <v>4658.75</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>45170</v>
+        <v>45175</v>
       </c>
       <c r="B84">
-        <v>4676.75</v>
+        <v>4626</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>45174</v>
+        <v>45176</v>
       </c>
       <c r="B85">
-        <v>4658.75</v>
+        <v>4609.75</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="B86">
-        <v>4626</v>
+        <v>4616.25</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
-        <v>45176</v>
+        <v>45180</v>
       </c>
       <c r="B87">
-        <v>4609.75</v>
+        <v>4645.25</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
-        <v>45177</v>
+        <v>45181</v>
       </c>
       <c r="B88">
-        <v>4616.25</v>
+        <v>4619</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
-        <v>45180</v>
+        <v>45182</v>
       </c>
       <c r="B89">
-        <v>4645.25</v>
+        <v>4622.5</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <v>45181</v>
+        <v>45183</v>
       </c>
       <c r="B90">
-        <v>4619</v>
+        <v>4660.75</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="B91">
-        <v>4622.5</v>
+        <v>4602.5</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>45183</v>
+        <v>45187</v>
       </c>
       <c r="B92">
-        <v>4660.75</v>
+        <v>4606</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <v>45184</v>
+        <v>45188</v>
       </c>
       <c r="B93">
-        <v>4602.5</v>
+        <v>4594.5</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
-        <v>45187</v>
+        <v>45189</v>
       </c>
       <c r="B94">
-        <v>4606</v>
+        <v>4551.75</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
-        <v>45188</v>
+        <v>45190</v>
       </c>
       <c r="B95">
-        <v>4594.5</v>
+        <v>4473.5</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
-        <v>45189</v>
+        <v>45191</v>
       </c>
       <c r="B96">
-        <v>4551.75</v>
+        <v>4462</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <v>45190</v>
+        <v>45194</v>
       </c>
       <c r="B97">
-        <v>4473.5</v>
+        <v>4479.5</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>45191</v>
+        <v>45195</v>
       </c>
       <c r="B98">
-        <v>4462</v>
+        <v>4414</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>45194</v>
+        <v>45196</v>
       </c>
       <c r="B99">
-        <v>4479.5</v>
+        <v>4413.25</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
-        <v>45195</v>
+        <v>45197</v>
       </c>
       <c r="B100">
-        <v>4414</v>
+        <v>4437.25</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <v>45196</v>
+        <v>45198</v>
       </c>
       <c r="B101">
-        <v>4413.25</v>
+        <v>4425.25</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
-        <v>45197</v>
+        <v>45201</v>
       </c>
       <c r="B102">
-        <v>4437.25</v>
+        <v>4423.75</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
-        <v>45198</v>
+        <v>45202</v>
       </c>
       <c r="B103">
-        <v>4425.25</v>
+        <v>4363</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
-        <v>45201</v>
+        <v>45203</v>
       </c>
       <c r="B104">
-        <v>4423.75</v>
+        <v>4396</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
-        <v>45202</v>
+        <v>45204</v>
       </c>
       <c r="B105">
-        <v>4363</v>
+        <v>4388</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="B106">
-        <v>4396</v>
+        <v>4441.25</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
-        <v>45204</v>
+        <v>45208</v>
       </c>
       <c r="B107">
-        <v>4388</v>
+        <v>4467.5</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
-        <v>45205</v>
+        <v>45209</v>
       </c>
       <c r="B108">
-        <v>4441.25</v>
+        <v>4492</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
-        <v>45208</v>
+        <v>45210</v>
       </c>
       <c r="B109">
-        <v>4467.5</v>
+        <v>4510.25</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
-        <v>45209</v>
+        <v>45211</v>
       </c>
       <c r="B110">
-        <v>4492</v>
+        <v>4480.25</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
-        <v>45210</v>
+        <v>45212</v>
       </c>
       <c r="B111">
-        <v>4510.25</v>
+        <v>4456</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
-        <v>45211</v>
+        <v>45215</v>
       </c>
       <c r="B112">
-        <v>4480.25</v>
+        <v>4502</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
-        <v>45212</v>
+        <v>45216</v>
       </c>
       <c r="B113">
-        <v>4456</v>
+        <v>4503.25</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
-        <v>45215</v>
+        <v>45217</v>
       </c>
       <c r="B114">
-        <v>4502</v>
+        <v>4441.75</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
-        <v>45216</v>
+        <v>45218</v>
       </c>
       <c r="B115">
-        <v>4503.25</v>
+        <v>4400.25</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
-        <v>45217</v>
+        <v>45219</v>
       </c>
       <c r="B116">
-        <v>4441.75</v>
+        <v>4343.75</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
-        <v>45218</v>
+        <v>45222</v>
       </c>
       <c r="B117">
-        <v>4400.25</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
-        <v>45219</v>
+        <v>45223</v>
       </c>
       <c r="B118">
-        <v>4343.75</v>
+        <v>4367.5</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
-        <v>45222</v>
+        <v>45224</v>
       </c>
       <c r="B119">
-        <v>4337</v>
+        <v>4304</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
-        <v>45223</v>
+        <v>45225</v>
       </c>
       <c r="B120">
-        <v>4367.5</v>
+        <v>4248.75</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
-        <v>45224</v>
+        <v>45226</v>
       </c>
       <c r="B121">
-        <v>4304</v>
+        <v>4229</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
-        <v>45225</v>
+        <v>45229</v>
       </c>
       <c r="B122">
-        <v>4248.75</v>
+        <v>4278.75</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
-        <v>45226</v>
+        <v>45230</v>
       </c>
       <c r="B123">
-        <v>4229</v>
+        <v>4306.5</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
-        <v>45229</v>
+        <v>45231</v>
       </c>
       <c r="B124">
-        <v>4278.75</v>
+        <v>4350</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
-        <v>45230</v>
+        <v>45232</v>
       </c>
       <c r="B125">
-        <v>4306.5</v>
+        <v>4432.25</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
-        <v>45231</v>
+        <v>45233</v>
       </c>
       <c r="B126">
-        <v>4350</v>
+        <v>4473.25</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
-        <v>45232</v>
+        <v>45236</v>
       </c>
       <c r="B127">
-        <v>4432.25</v>
+        <v>4481.5</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
-        <v>45233</v>
+        <v>45237</v>
       </c>
       <c r="B128">
-        <v>4473.25</v>
+        <v>4494</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
-        <v>45236</v>
+        <v>45238</v>
       </c>
       <c r="B129">
-        <v>4481.5</v>
+        <v>4497.75</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
-        <v>45237</v>
+        <v>45239</v>
       </c>
       <c r="B130">
-        <v>4494</v>
+        <v>4460.25</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
-        <v>45238</v>
+        <v>45240</v>
       </c>
       <c r="B131">
-        <v>4497.75</v>
+        <v>4530</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
-        <v>45239</v>
+        <v>45243</v>
       </c>
       <c r="B132">
-        <v>4460.25</v>
+        <v>4525</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
-        <v>45240</v>
+        <v>45244</v>
       </c>
       <c r="B133">
-        <v>4530</v>
+        <v>4610.75</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
-        <v>45243</v>
+        <v>45245</v>
       </c>
       <c r="B134">
-        <v>4525</v>
+        <v>4620</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
-        <v>45244</v>
+        <v>45246</v>
       </c>
       <c r="B135">
-        <v>4610.75</v>
+        <v>4623.5</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
-        <v>45245</v>
+        <v>45247</v>
       </c>
       <c r="B136">
-        <v>4620</v>
+        <v>4627.75</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
-        <v>45246</v>
+        <v>45250</v>
       </c>
       <c r="B137">
-        <v>4623.5</v>
+        <v>4663.75</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
-        <v>45247</v>
+        <v>45251</v>
       </c>
       <c r="B138">
-        <v>4627.75</v>
+        <v>4652.75</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="B139">
-        <v>4663.75</v>
+        <v>4669.5</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
-        <v>45251</v>
+        <v>45254</v>
       </c>
       <c r="B140">
-        <v>4652.75</v>
+        <v>4670.5</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
-        <v>45252</v>
+        <v>45257</v>
       </c>
       <c r="B141">
-        <v>4669.5</v>
+        <v>4663</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
-        <v>45254</v>
+        <v>45258</v>
       </c>
       <c r="B142">
-        <v>4670.5</v>
+        <v>4664.5</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
-        <v>45257</v>
+        <v>45259</v>
       </c>
       <c r="B143">
-        <v>4663</v>
+        <v>4659.75</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
-        <v>45258</v>
+        <v>45260</v>
       </c>
       <c r="B144">
-        <v>4664.5</v>
+        <v>4677.75</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
-        <v>45259</v>
+        <v>45261</v>
       </c>
       <c r="B145">
-        <v>4659.75</v>
+        <v>4701.25</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
-        <v>45260</v>
+        <v>45264</v>
       </c>
       <c r="B146">
-        <v>4677.75</v>
+        <v>4677</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
-        <v>45261</v>
+        <v>45265</v>
       </c>
       <c r="B147">
-        <v>4701.25</v>
+        <v>4675</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
-        <v>45264</v>
+        <v>45266</v>
       </c>
       <c r="B148">
-        <v>4677</v>
+        <v>4656.25</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
-        <v>45265</v>
+        <v>45267</v>
       </c>
       <c r="B149">
-        <v>4675</v>
+        <v>4690.75</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
-        <v>45266</v>
+        <v>45268</v>
       </c>
       <c r="B150">
-        <v>4656.25</v>
+        <v>4711.75</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
-        <v>45267</v>
+        <v>45271</v>
       </c>
       <c r="B151">
-        <v>4690.75</v>
+        <v>4730.25</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
-        <v>45268</v>
+        <v>45272</v>
       </c>
       <c r="B152">
-        <v>4711.75</v>
+        <v>4749</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
-        <v>45271</v>
+        <v>45273</v>
       </c>
       <c r="B153">
-        <v>4730.25</v>
+        <v>4812</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
-        <v>45272</v>
+        <v>45274</v>
       </c>
       <c r="B154">
-        <v>4749</v>
+        <v>4825</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
-        <v>45273</v>
+        <v>45275</v>
       </c>
       <c r="B155">
-        <v>4812</v>
+        <v>4820</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
-        <v>45274</v>
+        <v>45278</v>
       </c>
       <c r="B156">
-        <v>4825</v>
+        <v>4845.25</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
-        <v>45275</v>
+        <v>45279</v>
       </c>
       <c r="B157">
-        <v>4820</v>
+        <v>4872.75</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
-        <v>45278</v>
+        <v>45280</v>
       </c>
       <c r="B158">
-        <v>4845.25</v>
+        <v>4800.75</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
-        <v>45279</v>
+        <v>45281</v>
       </c>
       <c r="B159">
-        <v>4872.75</v>
+        <v>4848.5</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
-        <v>45280</v>
+        <v>45282</v>
       </c>
       <c r="B160">
-        <v>4800.75</v>
+        <v>4856.25</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
-        <v>45281</v>
+        <v>45286</v>
       </c>
       <c r="B161">
-        <v>4848.5</v>
+        <v>4876.75</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
-        <v>45282</v>
+        <v>45287</v>
       </c>
       <c r="B162">
-        <v>4856.25</v>
+        <v>4885</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
-        <v>45286</v>
+        <v>45288</v>
       </c>
       <c r="B163">
-        <v>4876.75</v>
+        <v>4883.75</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
-        <v>45287</v>
+        <v>45289</v>
       </c>
       <c r="B164">
-        <v>4885</v>
+        <v>4871.5</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
-        <v>45288</v>
+        <v>45293</v>
       </c>
       <c r="B165">
-        <v>4883.75</v>
+        <v>4838.5</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
-        <v>45289</v>
+        <v>45294</v>
       </c>
       <c r="B166">
-        <v>4871.5</v>
+        <v>4798</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
-        <v>45293</v>
+        <v>45295</v>
       </c>
       <c r="B167">
-        <v>4838.5</v>
+        <v>4781.5</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
-        <v>45294</v>
+        <v>45296</v>
       </c>
       <c r="B168">
-        <v>4798</v>
+        <v>4786.25</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
-        <v>45295</v>
+        <v>45299</v>
       </c>
       <c r="B169">
-        <v>4781.5</v>
+        <v>4853.75</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
-        <v>45296</v>
+        <v>45300</v>
       </c>
       <c r="B170">
-        <v>4786.25</v>
+        <v>4845.25</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
-        <v>45299</v>
+        <v>45301</v>
       </c>
       <c r="B171">
-        <v>4853.75</v>
+        <v>4873</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
-        <v>45300</v>
+        <v>45302</v>
       </c>
       <c r="B172">
-        <v>4845.25</v>
+        <v>4868</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
-        <v>45301</v>
+        <v>45303</v>
       </c>
       <c r="B173">
-        <v>4873</v>
+        <v>4868.25</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
-        <v>45302</v>
+        <v>45307</v>
       </c>
       <c r="B174">
-        <v>4868</v>
+        <v>4851</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
-        <v>45303</v>
+        <v>45308</v>
       </c>
       <c r="B175">
-        <v>4868.25</v>
+        <v>4824</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
-        <v>45307</v>
+        <v>45309</v>
       </c>
       <c r="B176">
-        <v>4851</v>
+        <v>4864.5</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
-        <v>45308</v>
+        <v>45310</v>
       </c>
       <c r="B177">
-        <v>4824</v>
+        <v>4924</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
-        <v>45309</v>
+        <v>45313</v>
       </c>
       <c r="B178">
-        <v>4864.5</v>
+        <v>4936.75</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
-        <v>45310</v>
+        <v>45314</v>
       </c>
       <c r="B179">
-        <v>4924</v>
+        <v>4950.5</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
-        <v>45313</v>
+        <v>45315</v>
       </c>
       <c r="B180">
-        <v>4936.75</v>
+        <v>4954</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
-        <v>45314</v>
+        <v>45316</v>
       </c>
       <c r="B181">
-        <v>4950.5</v>
+        <v>4979.25</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
-        <v>45315</v>
+        <v>45317</v>
       </c>
       <c r="B182">
-        <v>4954</v>
+        <v>4972.5</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
-        <v>45316</v>
+        <v>45320</v>
       </c>
       <c r="B183">
-        <v>4979.25</v>
+        <v>5010.75</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
-        <v>45317</v>
+        <v>45321</v>
       </c>
       <c r="B184">
-        <v>4972.5</v>
+        <v>5007.25</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
-        <v>45320</v>
+        <v>45322</v>
       </c>
       <c r="B185">
-        <v>5010.75</v>
+        <v>4925.25</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
-        <v>45321</v>
+        <v>45323</v>
       </c>
       <c r="B186">
-        <v>5007.25</v>
+        <v>4983.5</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
-        <v>45322</v>
+        <v>45324</v>
       </c>
       <c r="B187">
-        <v>4925.25</v>
+        <v>5037.25</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
-        <v>45323</v>
+        <v>45327</v>
       </c>
       <c r="B188">
-        <v>4983.5</v>
+        <v>5019</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
-        <v>45324</v>
+        <v>45328</v>
       </c>
       <c r="B189">
-        <v>5037.25</v>
+        <v>5031.75</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
-        <v>45327</v>
+        <v>45329</v>
       </c>
       <c r="B190">
-        <v>5019</v>
+        <v>5072.75</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
-        <v>45328</v>
+        <v>45330</v>
       </c>
       <c r="B191">
-        <v>5031.75</v>
+        <v>5075.5</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
-        <v>45329</v>
+        <v>45331</v>
       </c>
       <c r="B192">
-        <v>5072.75</v>
+        <v>5102.25</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
-        <v>45330</v>
+        <v>45334</v>
       </c>
       <c r="B193">
-        <v>5075.5</v>
+        <v>5099.75</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
-        <v>45331</v>
+        <v>45335</v>
       </c>
       <c r="B194">
-        <v>5102.25</v>
+        <v>5029.25</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
-        <v>45334</v>
+        <v>45336</v>
       </c>
       <c r="B195">
-        <v>5099.75</v>
+        <v>5076.5</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
-        <v>45335</v>
+        <v>45337</v>
       </c>
       <c r="B196">
-        <v>5029.25</v>
+        <v>5105.5</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
-        <v>45336</v>
+        <v>45338</v>
       </c>
       <c r="B197">
-        <v>5076.5</v>
+        <v>5078.75</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
-        <v>45337</v>
+        <v>45342</v>
       </c>
       <c r="B198">
-        <v>5105.5</v>
+        <v>5050</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
-        <v>45338</v>
+        <v>45343</v>
       </c>
       <c r="B199">
-        <v>5078.75</v>
+        <v>5055</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
-        <v>45342</v>
+        <v>45344</v>
       </c>
       <c r="B200">
-        <v>5050</v>
+        <v>5158.75</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
-        <v>45343</v>
+        <v>45345</v>
       </c>
       <c r="B201">
-        <v>5055</v>
+        <v>5162.5</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
-        <v>45344</v>
+        <v>45348</v>
       </c>
       <c r="B202">
-        <v>5158.75</v>
+        <v>5141.25</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
-        <v>45345</v>
+        <v>45349</v>
       </c>
       <c r="B203">
-        <v>5162.5</v>
+        <v>5151</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
-        <v>45348</v>
+        <v>45350</v>
       </c>
       <c r="B204">
-        <v>5141.25</v>
+        <v>5142</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="B205">
-        <v>5151</v>
+        <v>5165.25</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
-        <v>45350</v>
+        <v>45352</v>
       </c>
       <c r="B206">
-        <v>5142</v>
+        <v>5208</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
-        <v>45351</v>
+        <v>45355</v>
       </c>
       <c r="B207">
-        <v>5165.25</v>
+        <v>5200.75</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
-        <v>45352</v>
+        <v>45356</v>
       </c>
       <c r="B208">
-        <v>5208</v>
+        <v>5147.25</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
-        <v>45355</v>
+        <v>45357</v>
       </c>
       <c r="B209">
-        <v>5200.75</v>
+        <v>5173.75</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
-        <v>45356</v>
+        <v>45358</v>
       </c>
       <c r="B210">
-        <v>5147.25</v>
+        <v>5224.75</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
-        <v>45357</v>
+        <v>45359</v>
       </c>
       <c r="B211">
-        <v>5173.75</v>
+        <v>5192.5</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
-        <v>45358</v>
+        <v>45362</v>
       </c>
       <c r="B212">
-        <v>5224.75</v>
+        <v>5185.75</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
-        <v>45359</v>
+        <v>45363</v>
       </c>
       <c r="B213">
-        <v>5192.5</v>
+        <v>5241.25</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
-        <v>45362</v>
+        <v>45364</v>
       </c>
       <c r="B214">
-        <v>5185.75</v>
+        <v>5232.5</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
-        <v>45363</v>
+        <v>45365</v>
       </c>
       <c r="B215">
-        <v>5241.25</v>
+        <v>5218</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
-        <v>45364</v>
+        <v>45366</v>
       </c>
       <c r="B216">
-        <v>5232.5</v>
+        <v>5182.75</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
-        <v>45365</v>
+        <v>45369</v>
       </c>
       <c r="B217">
-        <v>5218</v>
+        <v>5214.75</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
-        <v>45366</v>
+        <v>45370</v>
       </c>
       <c r="B218">
-        <v>5182.75</v>
+        <v>5241.75</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
-        <v>45369</v>
+        <v>45371</v>
       </c>
       <c r="B219">
-        <v>5214.75</v>
+        <v>5286.75</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
-        <v>45370</v>
+        <v>45372</v>
       </c>
       <c r="B220">
-        <v>5241.75</v>
+        <v>5302.5</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
-        <v>45371</v>
+        <v>45373</v>
       </c>
       <c r="B221">
-        <v>5286.75</v>
+        <v>5293.25</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
-        <v>45372</v>
+        <v>45376</v>
       </c>
       <c r="B222">
-        <v>5302.5</v>
+        <v>5278.25</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
-        <v>45373</v>
+        <v>45377</v>
       </c>
       <c r="B223">
-        <v>5293.25</v>
+        <v>5265.25</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B224">
-        <v>5278.25</v>
+        <v>5308.25</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
-        <v>45377</v>
+        <v>45379</v>
       </c>
       <c r="B225">
-        <v>5265.25</v>
+        <v>5308.5</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
-        <v>45378</v>
+        <v>45383</v>
       </c>
       <c r="B226">
-        <v>5308.25</v>
+        <v>5295.25</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
-        <v>45379</v>
+        <v>45384</v>
       </c>
       <c r="B227">
-        <v>5308.5</v>
+        <v>5260.5</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
-        <v>45383</v>
+        <v>45385</v>
       </c>
       <c r="B228">
-        <v>5295.25</v>
+        <v>5266.5</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
-        <v>45384</v>
+        <v>45386</v>
       </c>
       <c r="B229">
-        <v>5260.5</v>
+        <v>5197.25</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
-        <v>45385</v>
+        <v>45387</v>
       </c>
       <c r="B230">
-        <v>5266.5</v>
+        <v>5253</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
-        <v>45386</v>
+        <v>45390</v>
       </c>
       <c r="B231">
-        <v>5197.25</v>
+        <v>5253.25</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
-        <v>45387</v>
+        <v>45391</v>
       </c>
       <c r="B232">
-        <v>5253</v>
+        <v>5260.25</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
-        <v>45390</v>
+        <v>45392</v>
       </c>
       <c r="B233">
-        <v>5253.25</v>
+        <v>5207.75</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
-        <v>45391</v>
+        <v>45393</v>
       </c>
       <c r="B234">
-        <v>5260.25</v>
+        <v>5243.25</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="B235">
-        <v>5207.75</v>
+        <v>5167.5</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
-        <v>45393</v>
+        <v>45397</v>
       </c>
       <c r="B236">
-        <v>5243.25</v>
+        <v>5104</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
-        <v>45394</v>
+        <v>45398</v>
       </c>
       <c r="B237">
-        <v>5167.5</v>
+        <v>5092.5</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
-        <v>45397</v>
+        <v>45399</v>
       </c>
       <c r="B238">
-        <v>5104</v>
+        <v>5062.25</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
-        <v>45398</v>
+        <v>45400</v>
       </c>
       <c r="B239">
-        <v>5092.5</v>
+        <v>5049</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
-        <v>45399</v>
+        <v>45401</v>
       </c>
       <c r="B240">
-        <v>5062.25</v>
+        <v>5003.75</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
-        <v>45400</v>
+        <v>45404</v>
       </c>
       <c r="B241">
-        <v>5049</v>
+        <v>5047.5</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
-        <v>45401</v>
+        <v>45405</v>
       </c>
       <c r="B242">
-        <v>5003.75</v>
+        <v>5106.5</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
-        <v>45404</v>
+        <v>45406</v>
       </c>
       <c r="B243">
-        <v>5047.5</v>
+        <v>5107.5</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
-        <v>45405</v>
+        <v>45407</v>
       </c>
       <c r="B244">
-        <v>5106.5</v>
+        <v>5082.25</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
-        <v>45406</v>
+        <v>45408</v>
       </c>
       <c r="B245">
-        <v>5107.5</v>
+        <v>5131.5</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
-        <v>45407</v>
+        <v>45411</v>
       </c>
       <c r="B246">
-        <v>5082.25</v>
+        <v>5147</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
-        <v>45408</v>
+        <v>45412</v>
       </c>
       <c r="B247">
-        <v>5131.5</v>
+        <v>5067</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
-        <v>45411</v>
+        <v>45413</v>
       </c>
       <c r="B248">
-        <v>5147</v>
+        <v>5046.5</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
-        <v>45412</v>
+        <v>45414</v>
       </c>
       <c r="B249">
-        <v>5067</v>
+        <v>5091.5</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
-        <v>45413</v>
+        <v>45415</v>
       </c>
       <c r="B250">
-        <v>5046.5</v>
+        <v>5154.75</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
-        <v>45414</v>
+        <v>45418</v>
       </c>
       <c r="B251">
-        <v>5091.5</v>
+        <v>5206.5</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
-        <v>45415</v>
+        <v>45419</v>
       </c>
       <c r="B252">
-        <v>5154.75</v>
+        <v>5213.75</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
-        <v>45418</v>
+        <v>45420</v>
       </c>
       <c r="B253">
-        <v>5206.5</v>
+        <v>5212.75</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
-        <v>45419</v>
+        <v>45421</v>
       </c>
       <c r="B254">
-        <v>5213.75</v>
+        <v>5239</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
-        <v>45420</v>
+        <v>45422</v>
       </c>
       <c r="B255">
-        <v>5201</v>
+        <v>5251</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
@@ -2533,13 +2533,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E691C535-15F0-4F41-B3D1-3E34BE8CB308}">
-  <dimension ref="A1:B232"/>
+  <dimension ref="A1:B234"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A214" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
@@ -2547,7 +2547,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'Z A Index'", "dropna(px_last(start=-1Y)) as #PX_LAST","cols=2;rows=232")</f>
+        <f>_xll.BQL("'Z A Index'", "dropna(px_last(start=-1Y)) as #PX_LAST","cols=2;rows=234")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -4399,7 +4399,23 @@
         <v>45420</v>
       </c>
       <c r="B232">
-        <v>8348.5</v>
+        <v>8366</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A233" s="1">
+        <v>45421</v>
+      </c>
+      <c r="B233">
+        <v>8395</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A234" s="1">
+        <v>45422</v>
+      </c>
+      <c r="B234">
+        <v>8449</v>
       </c>
     </row>
   </sheetData>
@@ -4411,11 +4427,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEE513AE-A5B5-4D66-847D-000FE51B6671}">
   <dimension ref="A1:B259"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
@@ -4440,2015 +4456,2015 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>45054</v>
+        <v>45056</v>
       </c>
       <c r="B3">
-        <v>4357</v>
+        <v>4313</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>45055</v>
+        <v>45057</v>
       </c>
       <c r="B4">
-        <v>4333</v>
+        <v>4320</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>45056</v>
+        <v>45058</v>
       </c>
       <c r="B5">
-        <v>4313</v>
+        <v>4334</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>45057</v>
+        <v>45061</v>
       </c>
       <c r="B6">
-        <v>4320</v>
+        <v>4335</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>45058</v>
+        <v>45062</v>
       </c>
       <c r="B7">
-        <v>4334</v>
+        <v>4340</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>45061</v>
+        <v>45063</v>
       </c>
       <c r="B8">
-        <v>4335</v>
+        <v>4343</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>45062</v>
+        <v>45064</v>
       </c>
       <c r="B9">
-        <v>4340</v>
+        <v>4395</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>45063</v>
+        <v>45065</v>
       </c>
       <c r="B10">
-        <v>4343</v>
+        <v>4428</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>45064</v>
+        <v>45068</v>
       </c>
       <c r="B11">
-        <v>4395</v>
+        <v>4422</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>45065</v>
+        <v>45069</v>
       </c>
       <c r="B12">
-        <v>4428</v>
+        <v>4378</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>45068</v>
+        <v>45070</v>
       </c>
       <c r="B13">
-        <v>4422</v>
+        <v>4294</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>45069</v>
+        <v>45071</v>
       </c>
       <c r="B14">
-        <v>4378</v>
+        <v>4305</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>45070</v>
+        <v>45072</v>
       </c>
       <c r="B15">
-        <v>4294</v>
+        <v>4375</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>45071</v>
+        <v>45075</v>
       </c>
       <c r="B16">
-        <v>4305</v>
+        <v>4351</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>45072</v>
+        <v>45076</v>
       </c>
       <c r="B17">
-        <v>4375</v>
+        <v>4323</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>45075</v>
+        <v>45077</v>
       </c>
       <c r="B18">
-        <v>4351</v>
+        <v>4241</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>45076</v>
+        <v>45078</v>
       </c>
       <c r="B19">
-        <v>4323</v>
+        <v>4287</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>45077</v>
+        <v>45079</v>
       </c>
       <c r="B20">
-        <v>4241</v>
+        <v>4361</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>45078</v>
+        <v>45082</v>
       </c>
       <c r="B21">
-        <v>4287</v>
+        <v>4328</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>45079</v>
+        <v>45083</v>
       </c>
       <c r="B22">
-        <v>4361</v>
+        <v>4327</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>45082</v>
+        <v>45084</v>
       </c>
       <c r="B23">
-        <v>4328</v>
+        <v>4326</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>45083</v>
+        <v>45085</v>
       </c>
       <c r="B24">
-        <v>4327</v>
+        <v>4331</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>45084</v>
+        <v>45086</v>
       </c>
       <c r="B25">
-        <v>4326</v>
+        <v>4318</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>45085</v>
+        <v>45089</v>
       </c>
       <c r="B26">
-        <v>4331</v>
+        <v>4345</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>45086</v>
+        <v>45090</v>
       </c>
       <c r="B27">
-        <v>4318</v>
+        <v>4384</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>45089</v>
+        <v>45091</v>
       </c>
       <c r="B28">
-        <v>4345</v>
+        <v>4411</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>45090</v>
+        <v>45092</v>
       </c>
       <c r="B29">
-        <v>4384</v>
+        <v>4403</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>45091</v>
+        <v>45093</v>
       </c>
       <c r="B30">
-        <v>4411</v>
+        <v>4440</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>45092</v>
+        <v>45096</v>
       </c>
       <c r="B31">
-        <v>4403</v>
+        <v>4395</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>45093</v>
+        <v>45097</v>
       </c>
       <c r="B32">
-        <v>4440</v>
+        <v>4377</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>45096</v>
+        <v>45098</v>
       </c>
       <c r="B33">
-        <v>4395</v>
+        <v>4362</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>45097</v>
+        <v>45099</v>
       </c>
       <c r="B34">
-        <v>4377</v>
+        <v>4342</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>45098</v>
+        <v>45100</v>
       </c>
       <c r="B35">
-        <v>4362</v>
+        <v>4301</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>45099</v>
+        <v>45103</v>
       </c>
       <c r="B36">
-        <v>4342</v>
+        <v>4316</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>45100</v>
+        <v>45104</v>
       </c>
       <c r="B37">
-        <v>4301</v>
+        <v>4347</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>45103</v>
+        <v>45105</v>
       </c>
       <c r="B38">
-        <v>4316</v>
+        <v>4386</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>45104</v>
+        <v>45106</v>
       </c>
       <c r="B39">
-        <v>4347</v>
+        <v>4395</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>45105</v>
+        <v>45107</v>
       </c>
       <c r="B40">
-        <v>4386</v>
+        <v>4443</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>45106</v>
+        <v>45110</v>
       </c>
       <c r="B41">
-        <v>4395</v>
+        <v>4440</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>45107</v>
+        <v>45111</v>
       </c>
       <c r="B42">
-        <v>4443</v>
+        <v>4430</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>45110</v>
+        <v>45112</v>
       </c>
       <c r="B43">
-        <v>4440</v>
+        <v>4385</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>45111</v>
+        <v>45113</v>
       </c>
       <c r="B44">
-        <v>4430</v>
+        <v>4250</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>45112</v>
+        <v>45114</v>
       </c>
       <c r="B45">
-        <v>4385</v>
+        <v>4270</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>45113</v>
+        <v>45117</v>
       </c>
       <c r="B46">
-        <v>4250</v>
+        <v>4290</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>45114</v>
+        <v>45118</v>
       </c>
       <c r="B47">
-        <v>4270</v>
+        <v>4323</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>45117</v>
+        <v>45119</v>
       </c>
       <c r="B48">
-        <v>4290</v>
+        <v>4401</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>45118</v>
+        <v>45120</v>
       </c>
       <c r="B49">
-        <v>4323</v>
+        <v>4432</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>45119</v>
+        <v>45121</v>
       </c>
       <c r="B50">
-        <v>4401</v>
+        <v>4440</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>45120</v>
+        <v>45124</v>
       </c>
       <c r="B51">
-        <v>4432</v>
+        <v>4392</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>45121</v>
+        <v>45125</v>
       </c>
       <c r="B52">
-        <v>4440</v>
+        <v>4409</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>45124</v>
+        <v>45126</v>
       </c>
       <c r="B53">
-        <v>4392</v>
+        <v>4400</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>45125</v>
+        <v>45127</v>
       </c>
       <c r="B54">
-        <v>4409</v>
+        <v>4408</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>45126</v>
+        <v>45128</v>
       </c>
       <c r="B55">
-        <v>4400</v>
+        <v>4425</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>45127</v>
+        <v>45131</v>
       </c>
       <c r="B56">
-        <v>4408</v>
+        <v>4418</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>45128</v>
+        <v>45132</v>
       </c>
       <c r="B57">
-        <v>4425</v>
+        <v>4423</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>45131</v>
+        <v>45133</v>
       </c>
       <c r="B58">
-        <v>4418</v>
+        <v>4376</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>45132</v>
+        <v>45134</v>
       </c>
       <c r="B59">
-        <v>4423</v>
+        <v>4481</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>45133</v>
+        <v>45135</v>
       </c>
       <c r="B60">
-        <v>4376</v>
+        <v>4507</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>45134</v>
+        <v>45138</v>
       </c>
       <c r="B61">
-        <v>4481</v>
+        <v>4507</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>45135</v>
+        <v>45139</v>
       </c>
       <c r="B62">
-        <v>4507</v>
+        <v>4440</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>45138</v>
+        <v>45140</v>
       </c>
       <c r="B63">
-        <v>4507</v>
+        <v>4358</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>45139</v>
+        <v>45141</v>
       </c>
       <c r="B64">
-        <v>4440</v>
+        <v>4323</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>45140</v>
+        <v>45142</v>
       </c>
       <c r="B65">
-        <v>4358</v>
+        <v>4360</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>45141</v>
+        <v>45145</v>
       </c>
       <c r="B66">
-        <v>4323</v>
+        <v>4366</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>45142</v>
+        <v>45146</v>
       </c>
       <c r="B67">
-        <v>4360</v>
+        <v>4312</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>45145</v>
+        <v>45147</v>
       </c>
       <c r="B68">
-        <v>4366</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>45146</v>
+        <v>45148</v>
       </c>
       <c r="B69">
-        <v>4312</v>
+        <v>4409</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>45147</v>
+        <v>45149</v>
       </c>
       <c r="B70">
-        <v>4337</v>
+        <v>4348</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>45148</v>
+        <v>45152</v>
       </c>
       <c r="B71">
-        <v>4409</v>
+        <v>4353</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>45149</v>
+        <v>45153</v>
       </c>
       <c r="B72">
-        <v>4348</v>
+        <v>4309</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>45152</v>
+        <v>45154</v>
       </c>
       <c r="B73">
-        <v>4353</v>
+        <v>4308</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>45153</v>
+        <v>45155</v>
       </c>
       <c r="B74">
-        <v>4309</v>
+        <v>4250</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>45154</v>
+        <v>45156</v>
       </c>
       <c r="B75">
-        <v>4308</v>
+        <v>4235</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>45155</v>
+        <v>45159</v>
       </c>
       <c r="B76">
-        <v>4250</v>
+        <v>4245</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>45156</v>
+        <v>45160</v>
       </c>
       <c r="B77">
-        <v>4235</v>
+        <v>4283</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>45159</v>
+        <v>45161</v>
       </c>
       <c r="B78">
-        <v>4245</v>
+        <v>4287</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>45160</v>
+        <v>45162</v>
       </c>
       <c r="B79">
-        <v>4283</v>
+        <v>4249</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>45161</v>
+        <v>45163</v>
       </c>
       <c r="B80">
-        <v>4287</v>
+        <v>4253</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>45162</v>
+        <v>45166</v>
       </c>
       <c r="B81">
-        <v>4249</v>
+        <v>4315</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>45163</v>
+        <v>45167</v>
       </c>
       <c r="B82">
-        <v>4253</v>
+        <v>4347</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <v>45166</v>
+        <v>45168</v>
       </c>
       <c r="B83">
-        <v>4315</v>
+        <v>4337</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>45167</v>
+        <v>45169</v>
       </c>
       <c r="B84">
-        <v>4347</v>
+        <v>4321</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>45168</v>
+        <v>45170</v>
       </c>
       <c r="B85">
-        <v>4337</v>
+        <v>4297</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <v>45169</v>
+        <v>45173</v>
       </c>
       <c r="B86">
-        <v>4321</v>
+        <v>4288</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="B87">
-        <v>4297</v>
+        <v>4282</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
-        <v>45173</v>
+        <v>45175</v>
       </c>
       <c r="B88">
-        <v>4288</v>
+        <v>4251</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
-        <v>45174</v>
+        <v>45176</v>
       </c>
       <c r="B89">
-        <v>4282</v>
+        <v>4230</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="B90">
-        <v>4251</v>
+        <v>4249</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <v>45176</v>
+        <v>45180</v>
       </c>
       <c r="B91">
-        <v>4230</v>
+        <v>4266</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>45177</v>
+        <v>45181</v>
       </c>
       <c r="B92">
-        <v>4249</v>
+        <v>4254</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <v>45180</v>
+        <v>45182</v>
       </c>
       <c r="B93">
-        <v>4266</v>
+        <v>4238</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
-        <v>45181</v>
+        <v>45183</v>
       </c>
       <c r="B94">
-        <v>4254</v>
+        <v>4298</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="B95">
-        <v>4238</v>
+        <v>4308</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
-        <v>45183</v>
+        <v>45187</v>
       </c>
       <c r="B96">
-        <v>4298</v>
+        <v>4254</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <v>45184</v>
+        <v>45188</v>
       </c>
       <c r="B97">
-        <v>4308</v>
+        <v>4251</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>45187</v>
+        <v>45189</v>
       </c>
       <c r="B98">
-        <v>4254</v>
+        <v>4291</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>45188</v>
+        <v>45190</v>
       </c>
       <c r="B99">
-        <v>4251</v>
+        <v>4223</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
-        <v>45189</v>
+        <v>45191</v>
       </c>
       <c r="B100">
-        <v>4291</v>
+        <v>4219</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <v>45190</v>
+        <v>45194</v>
       </c>
       <c r="B101">
-        <v>4223</v>
+        <v>4171</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
-        <v>45191</v>
+        <v>45195</v>
       </c>
       <c r="B102">
-        <v>4219</v>
+        <v>4134</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
-        <v>45194</v>
+        <v>45196</v>
       </c>
       <c r="B103">
-        <v>4171</v>
+        <v>4136</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
-        <v>45195</v>
+        <v>45197</v>
       </c>
       <c r="B104">
-        <v>4134</v>
+        <v>4166</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
-        <v>45196</v>
+        <v>45198</v>
       </c>
       <c r="B105">
-        <v>4136</v>
+        <v>4183</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
-        <v>45197</v>
+        <v>45201</v>
       </c>
       <c r="B106">
-        <v>4166</v>
+        <v>4140</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
-        <v>45198</v>
+        <v>45202</v>
       </c>
       <c r="B107">
-        <v>4183</v>
+        <v>4096</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
-        <v>45201</v>
+        <v>45203</v>
       </c>
       <c r="B108">
-        <v>4140</v>
+        <v>4100</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
-        <v>45202</v>
+        <v>45204</v>
       </c>
       <c r="B109">
-        <v>4096</v>
+        <v>4099</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="B110">
-        <v>4100</v>
+        <v>4143</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
-        <v>45204</v>
+        <v>45208</v>
       </c>
       <c r="B111">
-        <v>4099</v>
+        <v>4109</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
-        <v>45205</v>
+        <v>45209</v>
       </c>
       <c r="B112">
-        <v>4143</v>
+        <v>4207</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
-        <v>45208</v>
+        <v>45210</v>
       </c>
       <c r="B113">
-        <v>4109</v>
+        <v>4206</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
-        <v>45209</v>
+        <v>45211</v>
       </c>
       <c r="B114">
-        <v>4207</v>
+        <v>4197</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
-        <v>45210</v>
+        <v>45212</v>
       </c>
       <c r="B115">
-        <v>4206</v>
+        <v>4132</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
-        <v>45211</v>
+        <v>45215</v>
       </c>
       <c r="B116">
-        <v>4197</v>
+        <v>4145</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
-        <v>45212</v>
+        <v>45216</v>
       </c>
       <c r="B117">
-        <v>4132</v>
+        <v>4148</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
-        <v>45215</v>
+        <v>45217</v>
       </c>
       <c r="B118">
-        <v>4145</v>
+        <v>4101</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
-        <v>45216</v>
+        <v>45218</v>
       </c>
       <c r="B119">
-        <v>4148</v>
+        <v>4082</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
-        <v>45217</v>
+        <v>45219</v>
       </c>
       <c r="B120">
-        <v>4101</v>
+        <v>4020</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
-        <v>45218</v>
+        <v>45222</v>
       </c>
       <c r="B121">
-        <v>4082</v>
+        <v>4032</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
-        <v>45219</v>
+        <v>45223</v>
       </c>
       <c r="B122">
-        <v>4020</v>
+        <v>4053</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
-        <v>45222</v>
+        <v>45224</v>
       </c>
       <c r="B123">
-        <v>4032</v>
+        <v>4065</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
-        <v>45223</v>
+        <v>45225</v>
       </c>
       <c r="B124">
-        <v>4053</v>
+        <v>4038</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
-        <v>45224</v>
+        <v>45226</v>
       </c>
       <c r="B125">
-        <v>4065</v>
+        <v>4007</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
-        <v>45225</v>
+        <v>45229</v>
       </c>
       <c r="B126">
-        <v>4038</v>
+        <v>4014</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
-        <v>45226</v>
+        <v>45230</v>
       </c>
       <c r="B127">
-        <v>4007</v>
+        <v>4044</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
-        <v>45229</v>
+        <v>45231</v>
       </c>
       <c r="B128">
-        <v>4014</v>
+        <v>4078</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
-        <v>45230</v>
+        <v>45232</v>
       </c>
       <c r="B129">
-        <v>4044</v>
+        <v>4156</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
-        <v>45231</v>
+        <v>45233</v>
       </c>
       <c r="B130">
-        <v>4078</v>
+        <v>4166</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
-        <v>45232</v>
+        <v>45236</v>
       </c>
       <c r="B131">
-        <v>4156</v>
+        <v>4145</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
-        <v>45233</v>
+        <v>45237</v>
       </c>
       <c r="B132">
-        <v>4166</v>
+        <v>4139</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
-        <v>45236</v>
+        <v>45238</v>
       </c>
       <c r="B133">
-        <v>4145</v>
+        <v>4166</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
-        <v>45237</v>
+        <v>45239</v>
       </c>
       <c r="B134">
-        <v>4139</v>
+        <v>4215</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
-        <v>45238</v>
+        <v>45240</v>
       </c>
       <c r="B135">
-        <v>4166</v>
+        <v>4183</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
-        <v>45239</v>
+        <v>45243</v>
       </c>
       <c r="B136">
-        <v>4215</v>
+        <v>4217</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
-        <v>45240</v>
+        <v>45244</v>
       </c>
       <c r="B137">
-        <v>4183</v>
+        <v>4283</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
-        <v>45243</v>
+        <v>45245</v>
       </c>
       <c r="B138">
-        <v>4217</v>
+        <v>4303</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
-        <v>45244</v>
+        <v>45246</v>
       </c>
       <c r="B139">
-        <v>4283</v>
+        <v>4288</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
-        <v>45245</v>
+        <v>45247</v>
       </c>
       <c r="B140">
-        <v>4303</v>
+        <v>4326</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
-        <v>45246</v>
+        <v>45250</v>
       </c>
       <c r="B141">
-        <v>4288</v>
+        <v>4331</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
-        <v>45247</v>
+        <v>45251</v>
       </c>
       <c r="B142">
-        <v>4326</v>
+        <v>4320</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
-        <v>45250</v>
+        <v>45252</v>
       </c>
       <c r="B143">
-        <v>4331</v>
+        <v>4340</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
-        <v>45251</v>
+        <v>45253</v>
       </c>
       <c r="B144">
-        <v>4320</v>
+        <v>4350</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
-        <v>45252</v>
+        <v>45254</v>
       </c>
       <c r="B145">
-        <v>4340</v>
+        <v>4361</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
-        <v>45253</v>
+        <v>45257</v>
       </c>
       <c r="B146">
-        <v>4350</v>
+        <v>4344</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
-        <v>45254</v>
+        <v>45258</v>
       </c>
       <c r="B147">
-        <v>4361</v>
+        <v>4333</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
-        <v>45257</v>
+        <v>45259</v>
       </c>
       <c r="B148">
-        <v>4344</v>
+        <v>4356</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
-        <v>45258</v>
+        <v>45260</v>
       </c>
       <c r="B149">
-        <v>4333</v>
+        <v>4367</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
-        <v>45259</v>
+        <v>45261</v>
       </c>
       <c r="B150">
-        <v>4356</v>
+        <v>4399</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
-        <v>45260</v>
+        <v>45264</v>
       </c>
       <c r="B151">
-        <v>4367</v>
+        <v>4399</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
-        <v>45261</v>
+        <v>45265</v>
       </c>
       <c r="B152">
-        <v>4399</v>
+        <v>4435</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
-        <v>45264</v>
+        <v>45266</v>
       </c>
       <c r="B153">
-        <v>4399</v>
+        <v>4473</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
-        <v>45265</v>
+        <v>45267</v>
       </c>
       <c r="B154">
-        <v>4435</v>
+        <v>4456</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
-        <v>45266</v>
+        <v>45268</v>
       </c>
       <c r="B155">
-        <v>4473</v>
+        <v>4508</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
-        <v>45267</v>
+        <v>45271</v>
       </c>
       <c r="B156">
-        <v>4456</v>
+        <v>4529</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
-        <v>45268</v>
+        <v>45272</v>
       </c>
       <c r="B157">
-        <v>4508</v>
+        <v>4521</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
-        <v>45271</v>
+        <v>45273</v>
       </c>
       <c r="B158">
-        <v>4529</v>
+        <v>4514</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
-        <v>45272</v>
+        <v>45274</v>
       </c>
       <c r="B159">
-        <v>4521</v>
+        <v>4525</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
-        <v>45273</v>
+        <v>45275</v>
       </c>
       <c r="B160">
-        <v>4514</v>
+        <v>4536</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
-        <v>45274</v>
+        <v>45278</v>
       </c>
       <c r="B161">
-        <v>4525</v>
+        <v>4502</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
-        <v>45275</v>
+        <v>45279</v>
       </c>
       <c r="B162">
-        <v>4536</v>
+        <v>4521</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
-        <v>45278</v>
+        <v>45280</v>
       </c>
       <c r="B163">
-        <v>4502</v>
+        <v>4518</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
-        <v>45279</v>
+        <v>45281</v>
       </c>
       <c r="B164">
-        <v>4521</v>
+        <v>4503</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
-        <v>45280</v>
+        <v>45282</v>
       </c>
       <c r="B165">
-        <v>4518</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
-        <v>45281</v>
+        <v>45287</v>
       </c>
       <c r="B166">
-        <v>4503</v>
+        <v>4507</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
-        <v>45282</v>
+        <v>45288</v>
       </c>
       <c r="B167">
-        <v>4500</v>
+        <v>4488</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
-        <v>45287</v>
+        <v>45289</v>
       </c>
       <c r="B168">
-        <v>4507</v>
+        <v>4485</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
-        <v>45288</v>
+        <v>45293</v>
       </c>
       <c r="B169">
-        <v>4488</v>
+        <v>4483</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
-        <v>45289</v>
+        <v>45294</v>
       </c>
       <c r="B170">
-        <v>4485</v>
+        <v>4416</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
-        <v>45293</v>
+        <v>45295</v>
       </c>
       <c r="B171">
-        <v>4483</v>
+        <v>4445</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
-        <v>45294</v>
+        <v>45296</v>
       </c>
       <c r="B172">
-        <v>4416</v>
+        <v>4433</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
-        <v>45295</v>
+        <v>45299</v>
       </c>
       <c r="B173">
-        <v>4445</v>
+        <v>4452</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
-        <v>45296</v>
+        <v>45300</v>
       </c>
       <c r="B174">
-        <v>4433</v>
+        <v>4436</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
-        <v>45299</v>
+        <v>45301</v>
       </c>
       <c r="B175">
-        <v>4452</v>
+        <v>4437</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
-        <v>45300</v>
+        <v>45302</v>
       </c>
       <c r="B176">
-        <v>4436</v>
+        <v>4408</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
-        <v>45301</v>
+        <v>45303</v>
       </c>
       <c r="B177">
-        <v>4437</v>
+        <v>4442</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
-        <v>45302</v>
+        <v>45306</v>
       </c>
       <c r="B178">
-        <v>4408</v>
+        <v>4423</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
-        <v>45303</v>
+        <v>45307</v>
       </c>
       <c r="B179">
-        <v>4442</v>
+        <v>4410</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
-        <v>45306</v>
+        <v>45308</v>
       </c>
       <c r="B180">
-        <v>4423</v>
+        <v>4367</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
-        <v>45307</v>
+        <v>45309</v>
       </c>
       <c r="B181">
-        <v>4410</v>
+        <v>4417</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
-        <v>45308</v>
+        <v>45310</v>
       </c>
       <c r="B182">
-        <v>4367</v>
+        <v>4412</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
-        <v>45309</v>
+        <v>45313</v>
       </c>
       <c r="B183">
-        <v>4417</v>
+        <v>4449</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
-        <v>45310</v>
+        <v>45314</v>
       </c>
       <c r="B184">
-        <v>4412</v>
+        <v>4433</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
-        <v>45313</v>
+        <v>45315</v>
       </c>
       <c r="B185">
-        <v>4449</v>
+        <v>4531</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
-        <v>45314</v>
+        <v>45316</v>
       </c>
       <c r="B186">
-        <v>4433</v>
+        <v>4549</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
-        <v>45315</v>
+        <v>45317</v>
       </c>
       <c r="B187">
-        <v>4531</v>
+        <v>4602</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
-        <v>45316</v>
+        <v>45320</v>
       </c>
       <c r="B188">
-        <v>4549</v>
+        <v>4605</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
-        <v>45317</v>
+        <v>45321</v>
       </c>
       <c r="B189">
-        <v>4602</v>
+        <v>4629</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
-        <v>45320</v>
+        <v>45322</v>
       </c>
       <c r="B190">
-        <v>4605</v>
+        <v>4612</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
-        <v>45321</v>
+        <v>45323</v>
       </c>
       <c r="B191">
-        <v>4629</v>
+        <v>4596</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
-        <v>45322</v>
+        <v>45324</v>
       </c>
       <c r="B192">
-        <v>4612</v>
+        <v>4617</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
-        <v>45323</v>
+        <v>45327</v>
       </c>
       <c r="B193">
-        <v>4596</v>
+        <v>4614</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
-        <v>45324</v>
+        <v>45328</v>
       </c>
       <c r="B194">
-        <v>4617</v>
+        <v>4655</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
-        <v>45327</v>
+        <v>45329</v>
       </c>
       <c r="B195">
-        <v>4614</v>
+        <v>4642</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
-        <v>45328</v>
+        <v>45330</v>
       </c>
       <c r="B196">
-        <v>4655</v>
+        <v>4671</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
-        <v>45329</v>
+        <v>45331</v>
       </c>
       <c r="B197">
-        <v>4642</v>
+        <v>4681</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
-        <v>45330</v>
+        <v>45334</v>
       </c>
       <c r="B198">
-        <v>4671</v>
+        <v>4712</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
-        <v>45331</v>
+        <v>45335</v>
       </c>
       <c r="B199">
-        <v>4681</v>
+        <v>4654</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
-        <v>45334</v>
+        <v>45336</v>
       </c>
       <c r="B200">
-        <v>4712</v>
+        <v>4675</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
-        <v>45335</v>
+        <v>45337</v>
       </c>
       <c r="B201">
-        <v>4654</v>
+        <v>4705</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
-        <v>45336</v>
+        <v>45338</v>
       </c>
       <c r="B202">
-        <v>4675</v>
+        <v>4729</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
-        <v>45337</v>
+        <v>45341</v>
       </c>
       <c r="B203">
-        <v>4705</v>
+        <v>4728</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
-        <v>45338</v>
+        <v>45342</v>
       </c>
       <c r="B204">
-        <v>4729</v>
+        <v>4728</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
-        <v>45341</v>
+        <v>45343</v>
       </c>
       <c r="B205">
-        <v>4728</v>
+        <v>4739</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
-        <v>45342</v>
+        <v>45344</v>
       </c>
       <c r="B206">
-        <v>4728</v>
+        <v>4820</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
-        <v>45343</v>
+        <v>45345</v>
       </c>
       <c r="B207">
-        <v>4739</v>
+        <v>4836</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
-        <v>45344</v>
+        <v>45348</v>
       </c>
       <c r="B208">
-        <v>4820</v>
+        <v>4826</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
-        <v>45345</v>
+        <v>45349</v>
       </c>
       <c r="B209">
-        <v>4836</v>
+        <v>4850</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
-        <v>45348</v>
+        <v>45350</v>
       </c>
       <c r="B210">
-        <v>4826</v>
+        <v>4845</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="B211">
-        <v>4850</v>
+        <v>4847</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
-        <v>45350</v>
+        <v>45352</v>
       </c>
       <c r="B212">
-        <v>4845</v>
+        <v>4854</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
-        <v>45351</v>
+        <v>45355</v>
       </c>
       <c r="B213">
-        <v>4847</v>
+        <v>4871</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
-        <v>45352</v>
+        <v>45356</v>
       </c>
       <c r="B214">
-        <v>4854</v>
+        <v>4852</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
-        <v>45355</v>
+        <v>45357</v>
       </c>
       <c r="B215">
-        <v>4871</v>
+        <v>4877</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
-        <v>45356</v>
+        <v>45358</v>
       </c>
       <c r="B216">
-        <v>4852</v>
+        <v>4937</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
-        <v>45357</v>
+        <v>45359</v>
       </c>
       <c r="B217">
-        <v>4877</v>
+        <v>4923</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
-        <v>45358</v>
+        <v>45362</v>
       </c>
       <c r="B218">
-        <v>4937</v>
+        <v>4890</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
-        <v>45359</v>
+        <v>45363</v>
       </c>
       <c r="B219">
-        <v>4923</v>
+        <v>4944</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
-        <v>45362</v>
+        <v>45364</v>
       </c>
       <c r="B220">
-        <v>4890</v>
+        <v>4960</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
-        <v>45363</v>
+        <v>45365</v>
       </c>
       <c r="B221">
-        <v>4944</v>
+        <v>4948</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
-        <v>45364</v>
+        <v>45366</v>
       </c>
       <c r="B222">
-        <v>4960</v>
+        <v>4955</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
-        <v>45365</v>
+        <v>45369</v>
       </c>
       <c r="B223">
-        <v>4948</v>
+        <v>4942</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
-        <v>45366</v>
+        <v>45370</v>
       </c>
       <c r="B224">
-        <v>4955</v>
+        <v>4963</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
-        <v>45369</v>
+        <v>45371</v>
       </c>
       <c r="B225">
-        <v>4942</v>
+        <v>4959</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
-        <v>45370</v>
+        <v>45372</v>
       </c>
       <c r="B226">
-        <v>4963</v>
+        <v>5011</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
-        <v>45371</v>
+        <v>45373</v>
       </c>
       <c r="B227">
-        <v>4959</v>
+        <v>4993</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
-        <v>45372</v>
+        <v>45376</v>
       </c>
       <c r="B228">
-        <v>5011</v>
+        <v>5007</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
-        <v>45373</v>
+        <v>45377</v>
       </c>
       <c r="B229">
-        <v>4993</v>
+        <v>5030</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B230">
-        <v>5007</v>
+        <v>5039</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
-        <v>45377</v>
+        <v>45379</v>
       </c>
       <c r="B231">
-        <v>5030</v>
+        <v>5045</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
-        <v>45378</v>
+        <v>45384</v>
       </c>
       <c r="B232">
-        <v>5039</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
-        <v>45379</v>
+        <v>45385</v>
       </c>
       <c r="B233">
-        <v>5045</v>
+        <v>5025</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
-        <v>45384</v>
+        <v>45386</v>
       </c>
       <c r="B234">
-        <v>5000</v>
+        <v>5026</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
-        <v>45385</v>
+        <v>45387</v>
       </c>
       <c r="B235">
-        <v>5025</v>
+        <v>4964</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
-        <v>45386</v>
+        <v>45390</v>
       </c>
       <c r="B236">
-        <v>5026</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
-        <v>45387</v>
+        <v>45391</v>
       </c>
       <c r="B237">
-        <v>4964</v>
+        <v>4943</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
-        <v>45390</v>
+        <v>45392</v>
       </c>
       <c r="B238">
-        <v>5000</v>
+        <v>4951</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
-        <v>45391</v>
+        <v>45393</v>
       </c>
       <c r="B239">
-        <v>4943</v>
+        <v>4917</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="B240">
-        <v>4951</v>
+        <v>4900</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
-        <v>45393</v>
+        <v>45397</v>
       </c>
       <c r="B241">
-        <v>4917</v>
+        <v>4932</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
-        <v>45394</v>
+        <v>45398</v>
       </c>
       <c r="B242">
-        <v>4900</v>
+        <v>4864</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
-        <v>45397</v>
+        <v>45399</v>
       </c>
       <c r="B243">
-        <v>4932</v>
+        <v>4876</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
-        <v>45398</v>
+        <v>45400</v>
       </c>
       <c r="B244">
-        <v>4864</v>
+        <v>4891</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
-        <v>45399</v>
+        <v>45401</v>
       </c>
       <c r="B245">
-        <v>4876</v>
+        <v>4869</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
-        <v>45400</v>
+        <v>45404</v>
       </c>
       <c r="B246">
-        <v>4891</v>
+        <v>4894</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
-        <v>45401</v>
+        <v>45405</v>
       </c>
       <c r="B247">
-        <v>4869</v>
+        <v>4975</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
-        <v>45404</v>
+        <v>45406</v>
       </c>
       <c r="B248">
-        <v>4894</v>
+        <v>4951</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
-        <v>45405</v>
+        <v>45407</v>
       </c>
       <c r="B249">
-        <v>4975</v>
+        <v>4904</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
-        <v>45406</v>
+        <v>45408</v>
       </c>
       <c r="B250">
-        <v>4951</v>
+        <v>4980</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
-        <v>45407</v>
+        <v>45411</v>
       </c>
       <c r="B251">
-        <v>4904</v>
+        <v>4958</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
-        <v>45408</v>
+        <v>45412</v>
       </c>
       <c r="B252">
-        <v>4980</v>
+        <v>4897</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
-        <v>45411</v>
+        <v>45414</v>
       </c>
       <c r="B253">
-        <v>4958</v>
+        <v>4871</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
-        <v>45412</v>
+        <v>45415</v>
       </c>
       <c r="B254">
         <v>4897</v>
@@ -6456,42 +6472,42 @@
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
-        <v>45414</v>
+        <v>45418</v>
       </c>
       <c r="B255">
-        <v>4871</v>
+        <v>4937</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
-        <v>45415</v>
+        <v>45419</v>
       </c>
       <c r="B256">
-        <v>4897</v>
+        <v>4999</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
-        <v>45418</v>
+        <v>45420</v>
       </c>
       <c r="B257">
-        <v>4937</v>
+        <v>5021</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
-        <v>45419</v>
+        <v>45421</v>
       </c>
       <c r="B258">
-        <v>4999</v>
+        <v>5045</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
-        <v>45420</v>
+        <v>45422</v>
       </c>
       <c r="B259">
-        <v>5009</v>
+        <v>5077</v>
       </c>
     </row>
   </sheetData>

--- a/futures.xlsx
+++ b/futures.xlsx
@@ -2,23 +2,25 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssymhoven\Projekte\drawdown-risk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA577E57-411F-4DBE-B2FA-40A980CBE52D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78ED9227-1BC4-48C9-BD87-F39C60608481}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{6B127A01-C975-41DD-8874-C1A98A2D19D1}"/>
+    <workbookView xWindow="-57720" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="5" xr2:uid="{6B127A01-C975-41DD-8874-C1A98A2D19D1}"/>
   </bookViews>
   <sheets>
     <sheet name="S&amp;P 500 INDEX" sheetId="1" r:id="rId1"/>
-    <sheet name="Deutsche Boerse AG German Stock" sheetId="6" r:id="rId2"/>
-    <sheet name="FTSE 100 Index" sheetId="3" r:id="rId3"/>
-    <sheet name="FTSE MIB Index" sheetId="7" r:id="rId4"/>
-    <sheet name="EURO STOXX 50 Price EUR" sheetId="5" r:id="rId5"/>
-    <sheet name="SXXP Index" sheetId="8" r:id="rId6"/>
+    <sheet name="NASDAQ 100 Stock Index" sheetId="9" r:id="rId2"/>
+    <sheet name="Deutsche Boerse AG German Stock" sheetId="6" r:id="rId3"/>
+    <sheet name="EURO STOXX 50 Price EUR" sheetId="5" r:id="rId4"/>
+    <sheet name="FTSE 100 Index" sheetId="3" r:id="rId5"/>
+    <sheet name="FTSE MIB Index" sheetId="7" r:id="rId6"/>
+    <sheet name="MSCI Emerging Markets Index" sheetId="10" r:id="rId7"/>
+    <sheet name="Nikkei 225" sheetId="11" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029" calcMode="manual"/>
   <extLst>
@@ -41,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="10">
   <si>
     <t>DATES</t>
   </si>
@@ -64,7 +66,13 @@
     <t>STA Index</t>
   </si>
   <si>
-    <t>SXXP Index</t>
+    <t>NQA Index</t>
+  </si>
+  <si>
+    <t>MESA Index</t>
+  </si>
+  <si>
+    <t>NKA Index</t>
   </si>
 </sst>
 </file>
@@ -125,39 +133,53 @@
   <volType type="realTimeData">
     <main first="bofaddin.rtdserver">
       <tp t="s">
-        <v>#N/A Requesting Data...4082449200</v>
+        <v>#N/A Requesting Data...4128672523</v>
         <stp/>
         <stp>BQL|18230993787104937031</stp>
         <tr r="A1" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2949208905</v>
+        <v>#N/A Requesting Data...3855045354</v>
         <stp/>
         <stp>BQL|15879889351003714675</stp>
         <tr r="A1" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3104732270</v>
+        <v>#N/A Requesting Data...3935365374</v>
         <stp/>
-        <stp>BQL|14540696566478209763</stp>
-        <tr r="A1" s="8"/>
+        <stp>BQL|17550905372697251438</stp>
+        <tr r="A1" s="9"/>
       </tp>
+    </main>
+    <main first="bofaddin.rtdserver">
       <tp t="s">
-        <v>#N/A Requesting Data...1251598066</v>
+        <v>#N/A Requesting Data...3876302382</v>
         <stp/>
         <stp>BQL|10757217855212528176</stp>
         <tr r="A1" s="5"/>
       </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...3481914160</v>
+        <stp/>
+        <stp>BQL|11581064237170874360</stp>
+        <tr r="A1" s="11"/>
+      </tp>
     </main>
     <main first="bofaddin.rtdserver">
       <tp t="s">
-        <v>#N/A Requesting Data...2106260747</v>
+        <v>#N/A Requesting Data...3762097199</v>
         <stp/>
         <stp>BQL|9085533483929508075</stp>
         <tr r="A1" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3353362187</v>
+        <v>#N/A Requesting Data...3713368807</v>
+        <stp/>
+        <stp>BQL|2565913161270338371</stp>
+        <tr r="A1" s="10"/>
+      </tp>
+      <tp t="s">
+        <v>#N/A Requesting Data...3976693957</v>
         <stp/>
         <stp>BQL|1909323721705548586</stp>
         <tr r="A1" s="7"/>
@@ -484,6 +506,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1534F4BD-378B-4CD6-BA07-EDE391A05EB2}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:B261"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2525,7 +2548,7 @@
         <v>45426</v>
       </c>
       <c r="B254">
-        <v>5247.75</v>
+        <v>5252.25</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
@@ -2555,7 +2578,2058 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7250E47-F44F-4514-9D25-2C8A861C3398}">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:B254"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="str">
+        <f>_xll.BQL("'NQA Index'", "dropna(px_last(start='-1Y')) as #PX_LAST","cols=2;rows=254")</f>
+        <v/>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>45061</v>
+      </c>
+      <c r="B3">
+        <v>14011</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>45062</v>
+      </c>
+      <c r="B4">
+        <v>14027</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>45063</v>
+      </c>
+      <c r="B5">
+        <v>14187</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>45064</v>
+      </c>
+      <c r="B6">
+        <v>14457</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>45065</v>
+      </c>
+      <c r="B7">
+        <v>14441</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>45068</v>
+      </c>
+      <c r="B8">
+        <v>14491</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>45069</v>
+      </c>
+      <c r="B9">
+        <v>14317</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>45070</v>
+      </c>
+      <c r="B10">
+        <v>14239</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>45071</v>
+      </c>
+      <c r="B11">
+        <v>14565</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>45072</v>
+      </c>
+      <c r="B12">
+        <v>15003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>45076</v>
+      </c>
+      <c r="B13">
+        <v>15069</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>45077</v>
+      </c>
+      <c r="B14">
+        <v>14969</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>45078</v>
+      </c>
+      <c r="B15">
+        <v>15141</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>45079</v>
+      </c>
+      <c r="B16">
+        <v>15258</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>45082</v>
+      </c>
+      <c r="B17">
+        <v>15272</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>45083</v>
+      </c>
+      <c r="B18">
+        <v>15269</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>45084</v>
+      </c>
+      <c r="B19">
+        <v>15010</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>45085</v>
+      </c>
+      <c r="B20">
+        <v>15182</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>45086</v>
+      </c>
+      <c r="B21">
+        <v>15236</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>45089</v>
+      </c>
+      <c r="B22">
+        <v>15486</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>45090</v>
+      </c>
+      <c r="B23">
+        <v>15606</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>45091</v>
+      </c>
+      <c r="B24">
+        <v>15711</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>45092</v>
+      </c>
+      <c r="B25">
+        <v>15886</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>45093</v>
+      </c>
+      <c r="B26">
+        <v>15782</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>45097</v>
+      </c>
+      <c r="B27">
+        <v>15820</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>45098</v>
+      </c>
+      <c r="B28">
+        <v>15605</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>45099</v>
+      </c>
+      <c r="B29">
+        <v>15776</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>45100</v>
+      </c>
+      <c r="B30">
+        <v>15620</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>45103</v>
+      </c>
+      <c r="B31">
+        <v>15415</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>45104</v>
+      </c>
+      <c r="B32">
+        <v>15682.75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>45105</v>
+      </c>
+      <c r="B33">
+        <v>15698.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>45106</v>
+      </c>
+      <c r="B34">
+        <v>15676.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>45107</v>
+      </c>
+      <c r="B35">
+        <v>15945</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>45110</v>
+      </c>
+      <c r="B36">
+        <v>15983</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>45112</v>
+      </c>
+      <c r="B37">
+        <v>15979</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>45113</v>
+      </c>
+      <c r="B38">
+        <v>15856</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>45114</v>
+      </c>
+      <c r="B39">
+        <v>15799</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>45117</v>
+      </c>
+      <c r="B40">
+        <v>15785</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>45118</v>
+      </c>
+      <c r="B41">
+        <v>15855</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>45119</v>
+      </c>
+      <c r="B42">
+        <v>16029.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>45120</v>
+      </c>
+      <c r="B43">
+        <v>16298.25</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>45121</v>
+      </c>
+      <c r="B44">
+        <v>16286</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>45124</v>
+      </c>
+      <c r="B45">
+        <v>16432</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>45125</v>
+      </c>
+      <c r="B46">
+        <v>16567</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>45126</v>
+      </c>
+      <c r="B47">
+        <v>16551</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>45127</v>
+      </c>
+      <c r="B48">
+        <v>16181</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>45128</v>
+      </c>
+      <c r="B49">
+        <v>16128</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>45131</v>
+      </c>
+      <c r="B50">
+        <v>16150</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>45132</v>
+      </c>
+      <c r="B51">
+        <v>16263</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>45133</v>
+      </c>
+      <c r="B52">
+        <v>16210</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>45134</v>
+      </c>
+      <c r="B53">
+        <v>16170</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>45135</v>
+      </c>
+      <c r="B54">
+        <v>16448</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>45138</v>
+      </c>
+      <c r="B55">
+        <v>16471</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>45139</v>
+      </c>
+      <c r="B56">
+        <v>16431</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>45140</v>
+      </c>
+      <c r="B57">
+        <v>16086</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>45141</v>
+      </c>
+      <c r="B58">
+        <v>16052</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>45142</v>
+      </c>
+      <c r="B59">
+        <v>15967</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>45145</v>
+      </c>
+      <c r="B60">
+        <v>16085</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>45146</v>
+      </c>
+      <c r="B61">
+        <v>15951</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>45147</v>
+      </c>
+      <c r="B62">
+        <v>15775</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>45148</v>
+      </c>
+      <c r="B63">
+        <v>15797</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>45149</v>
+      </c>
+      <c r="B64">
+        <v>15691</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>45152</v>
+      </c>
+      <c r="B65">
+        <v>15866</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>45153</v>
+      </c>
+      <c r="B66">
+        <v>15701</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>45154</v>
+      </c>
+      <c r="B67">
+        <v>15536</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>45155</v>
+      </c>
+      <c r="B68">
+        <v>15371</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>45156</v>
+      </c>
+      <c r="B69">
+        <v>15333</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>45159</v>
+      </c>
+      <c r="B70">
+        <v>15578</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>45160</v>
+      </c>
+      <c r="B71">
+        <v>15551</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>45161</v>
+      </c>
+      <c r="B72">
+        <v>15791</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>45162</v>
+      </c>
+      <c r="B73">
+        <v>15456</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>45163</v>
+      </c>
+      <c r="B74">
+        <v>15574</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>45166</v>
+      </c>
+      <c r="B75">
+        <v>15688</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>45167</v>
+      </c>
+      <c r="B76">
+        <v>16015</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>45168</v>
+      </c>
+      <c r="B77">
+        <v>16101</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>45169</v>
+      </c>
+      <c r="B78">
+        <v>16140</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>45170</v>
+      </c>
+      <c r="B79">
+        <v>16117</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>45174</v>
+      </c>
+      <c r="B80">
+        <v>16137</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>45175</v>
+      </c>
+      <c r="B81">
+        <v>16001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>45176</v>
+      </c>
+      <c r="B82">
+        <v>15883</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>45177</v>
+      </c>
+      <c r="B83">
+        <v>15899</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>45180</v>
+      </c>
+      <c r="B84">
+        <v>16079</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>45181</v>
+      </c>
+      <c r="B85">
+        <v>15909</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>45182</v>
+      </c>
+      <c r="B86">
+        <v>15959</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>45183</v>
+      </c>
+      <c r="B87">
+        <v>16079</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>45184</v>
+      </c>
+      <c r="B88">
+        <v>15797</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>45187</v>
+      </c>
+      <c r="B89">
+        <v>15817</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>45188</v>
+      </c>
+      <c r="B90">
+        <v>15778</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>45189</v>
+      </c>
+      <c r="B91">
+        <v>15554</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>45190</v>
+      </c>
+      <c r="B92">
+        <v>15258</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>45191</v>
+      </c>
+      <c r="B93">
+        <v>15263</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>45194</v>
+      </c>
+      <c r="B94">
+        <v>15329</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>45195</v>
+      </c>
+      <c r="B95">
+        <v>15108</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>45196</v>
+      </c>
+      <c r="B96">
+        <v>15132</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>45197</v>
+      </c>
+      <c r="B97">
+        <v>15253</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>45198</v>
+      </c>
+      <c r="B98">
+        <v>15259</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>45201</v>
+      </c>
+      <c r="B99">
+        <v>15378</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <v>45202</v>
+      </c>
+      <c r="B100">
+        <v>15106</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <v>45203</v>
+      </c>
+      <c r="B101">
+        <v>15316</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
+        <v>45204</v>
+      </c>
+      <c r="B102">
+        <v>15253</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
+        <v>45205</v>
+      </c>
+      <c r="B103">
+        <v>15511</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
+        <v>45208</v>
+      </c>
+      <c r="B104">
+        <v>15586</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
+        <v>45209</v>
+      </c>
+      <c r="B105">
+        <v>15671</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
+        <v>45210</v>
+      </c>
+      <c r="B106">
+        <v>15780.5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
+        <v>45211</v>
+      </c>
+      <c r="B107">
+        <v>15717</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
+        <v>45212</v>
+      </c>
+      <c r="B108">
+        <v>15518</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
+        <v>45215</v>
+      </c>
+      <c r="B109">
+        <v>15688</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
+        <v>45216</v>
+      </c>
+      <c r="B110">
+        <v>15640</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
+        <v>45217</v>
+      </c>
+      <c r="B111">
+        <v>15421.75</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
+        <v>45218</v>
+      </c>
+      <c r="B112">
+        <v>15285.75</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
+        <v>45219</v>
+      </c>
+      <c r="B113">
+        <v>15055.75</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
+        <v>45222</v>
+      </c>
+      <c r="B114">
+        <v>15098.25</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
+        <v>45223</v>
+      </c>
+      <c r="B115">
+        <v>15232.25</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
+        <v>45224</v>
+      </c>
+      <c r="B116">
+        <v>14858.25</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" s="1">
+        <v>45225</v>
+      </c>
+      <c r="B117">
+        <v>14570</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" s="1">
+        <v>45226</v>
+      </c>
+      <c r="B118">
+        <v>14635.75</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" s="1">
+        <v>45229</v>
+      </c>
+      <c r="B119">
+        <v>14786.75</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" s="1">
+        <v>45230</v>
+      </c>
+      <c r="B120">
+        <v>14859</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="1">
+        <v>45231</v>
+      </c>
+      <c r="B121">
+        <v>15114</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" s="1">
+        <v>45232</v>
+      </c>
+      <c r="B122">
+        <v>15377.75</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" s="1">
+        <v>45233</v>
+      </c>
+      <c r="B123">
+        <v>15559.5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" s="1">
+        <v>45236</v>
+      </c>
+      <c r="B124">
+        <v>15613</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" s="1">
+        <v>45237</v>
+      </c>
+      <c r="B125">
+        <v>15754.5</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" s="1">
+        <v>45238</v>
+      </c>
+      <c r="B126">
+        <v>15766.25</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" s="1">
+        <v>45239</v>
+      </c>
+      <c r="B127">
+        <v>15635</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" s="1">
+        <v>45240</v>
+      </c>
+      <c r="B128">
+        <v>15976.25</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" s="1">
+        <v>45243</v>
+      </c>
+      <c r="B129">
+        <v>15927.75</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" s="1">
+        <v>45244</v>
+      </c>
+      <c r="B130">
+        <v>16267</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" s="1">
+        <v>45245</v>
+      </c>
+      <c r="B131">
+        <v>16293.5</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" s="1">
+        <v>45246</v>
+      </c>
+      <c r="B132">
+        <v>16299</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" s="1">
+        <v>45247</v>
+      </c>
+      <c r="B133">
+        <v>16302</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" s="1">
+        <v>45250</v>
+      </c>
+      <c r="B134">
+        <v>16501.5</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" s="1">
+        <v>45251</v>
+      </c>
+      <c r="B135">
+        <v>16402.5</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" s="1">
+        <v>45252</v>
+      </c>
+      <c r="B136">
+        <v>16463</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" s="1">
+        <v>45254</v>
+      </c>
+      <c r="B137">
+        <v>16433.75</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" s="1">
+        <v>45257</v>
+      </c>
+      <c r="B138">
+        <v>16421</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" s="1">
+        <v>45258</v>
+      </c>
+      <c r="B139">
+        <v>16457.25</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" s="1">
+        <v>45259</v>
+      </c>
+      <c r="B140">
+        <v>16432</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" s="1">
+        <v>45260</v>
+      </c>
+      <c r="B141">
+        <v>16391.75</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" s="1">
+        <v>45261</v>
+      </c>
+      <c r="B142">
+        <v>16427</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" s="1">
+        <v>45264</v>
+      </c>
+      <c r="B143">
+        <v>16271.75</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" s="1">
+        <v>45265</v>
+      </c>
+      <c r="B144">
+        <v>16312.25</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" s="1">
+        <v>45266</v>
+      </c>
+      <c r="B145">
+        <v>16219</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" s="1">
+        <v>45267</v>
+      </c>
+      <c r="B146">
+        <v>16449</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" s="1">
+        <v>45268</v>
+      </c>
+      <c r="B147">
+        <v>16512.75</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" s="1">
+        <v>45271</v>
+      </c>
+      <c r="B148">
+        <v>16661</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" s="1">
+        <v>45272</v>
+      </c>
+      <c r="B149">
+        <v>16789</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" s="1">
+        <v>45273</v>
+      </c>
+      <c r="B150">
+        <v>16988.5</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" s="1">
+        <v>45274</v>
+      </c>
+      <c r="B151">
+        <v>16962.75</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" s="1">
+        <v>45275</v>
+      </c>
+      <c r="B152">
+        <v>17031</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" s="1">
+        <v>45278</v>
+      </c>
+      <c r="B153">
+        <v>17152.75</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" s="1">
+        <v>45279</v>
+      </c>
+      <c r="B154">
+        <v>17234.75</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" s="1">
+        <v>45280</v>
+      </c>
+      <c r="B155">
+        <v>16974.5</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" s="1">
+        <v>45281</v>
+      </c>
+      <c r="B156">
+        <v>17166</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" s="1">
+        <v>45282</v>
+      </c>
+      <c r="B157">
+        <v>17187.5</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" s="1">
+        <v>45286</v>
+      </c>
+      <c r="B158">
+        <v>17291</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" s="1">
+        <v>45287</v>
+      </c>
+      <c r="B159">
+        <v>17321.5</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" s="1">
+        <v>45288</v>
+      </c>
+      <c r="B160">
+        <v>17299.25</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" s="1">
+        <v>45289</v>
+      </c>
+      <c r="B161">
+        <v>17232</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" s="1">
+        <v>45293</v>
+      </c>
+      <c r="B162">
+        <v>16927</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" s="1">
+        <v>45294</v>
+      </c>
+      <c r="B163">
+        <v>16744</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" s="1">
+        <v>45295</v>
+      </c>
+      <c r="B164">
+        <v>16650.75</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" s="1">
+        <v>45296</v>
+      </c>
+      <c r="B165">
+        <v>16665.25</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" s="1">
+        <v>45299</v>
+      </c>
+      <c r="B166">
+        <v>17010.25</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" s="1">
+        <v>45300</v>
+      </c>
+      <c r="B167">
+        <v>17036.75</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" s="1">
+        <v>45301</v>
+      </c>
+      <c r="B168">
+        <v>17152.75</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" s="1">
+        <v>45302</v>
+      </c>
+      <c r="B169">
+        <v>17175</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" s="1">
+        <v>45303</v>
+      </c>
+      <c r="B170">
+        <v>17177.25</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" s="1">
+        <v>45307</v>
+      </c>
+      <c r="B171">
+        <v>17176.25</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" s="1">
+        <v>45308</v>
+      </c>
+      <c r="B172">
+        <v>17080</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B173">
+        <v>17323.25</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" s="1">
+        <v>45310</v>
+      </c>
+      <c r="B174">
+        <v>17657.25</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175" s="1">
+        <v>45313</v>
+      </c>
+      <c r="B175">
+        <v>17680.5</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176" s="1">
+        <v>45314</v>
+      </c>
+      <c r="B176">
+        <v>17755</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" s="1">
+        <v>45315</v>
+      </c>
+      <c r="B177">
+        <v>17846.5</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" s="1">
+        <v>45316</v>
+      </c>
+      <c r="B178">
+        <v>17860</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179" s="1">
+        <v>45317</v>
+      </c>
+      <c r="B179">
+        <v>17752.25</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180" s="1">
+        <v>45320</v>
+      </c>
+      <c r="B180">
+        <v>17932</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" s="1">
+        <v>45321</v>
+      </c>
+      <c r="B181">
+        <v>17815.25</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182" s="1">
+        <v>45322</v>
+      </c>
+      <c r="B182">
+        <v>17463.75</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183" s="1">
+        <v>45323</v>
+      </c>
+      <c r="B183">
+        <v>17659</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184" s="1">
+        <v>45324</v>
+      </c>
+      <c r="B184">
+        <v>17960.25</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185" s="1">
+        <v>45327</v>
+      </c>
+      <c r="B185">
+        <v>17928.75</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186" s="1">
+        <v>45328</v>
+      </c>
+      <c r="B186">
+        <v>17886.75</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187" s="1">
+        <v>45329</v>
+      </c>
+      <c r="B187">
+        <v>18071.25</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188" s="1">
+        <v>45330</v>
+      </c>
+      <c r="B188">
+        <v>18097</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189" s="1">
+        <v>45331</v>
+      </c>
+      <c r="B189">
+        <v>18272.25</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190" s="1">
+        <v>45334</v>
+      </c>
+      <c r="B190">
+        <v>18199.75</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191" s="1">
+        <v>45335</v>
+      </c>
+      <c r="B191">
+        <v>17909.75</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192" s="1">
+        <v>45336</v>
+      </c>
+      <c r="B192">
+        <v>18116.75</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193" s="1">
+        <v>45337</v>
+      </c>
+      <c r="B193">
+        <v>18148.75</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194" s="1">
+        <v>45338</v>
+      </c>
+      <c r="B194">
+        <v>17978.5</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195" s="1">
+        <v>45342</v>
+      </c>
+      <c r="B195">
+        <v>17838.25</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196" s="1">
+        <v>45343</v>
+      </c>
+      <c r="B196">
+        <v>17767.75</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197" s="1">
+        <v>45344</v>
+      </c>
+      <c r="B197">
+        <v>18287.5</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198" s="1">
+        <v>45345</v>
+      </c>
+      <c r="B198">
+        <v>18231.25</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199" s="1">
+        <v>45348</v>
+      </c>
+      <c r="B199">
+        <v>18215.75</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200" s="1">
+        <v>45349</v>
+      </c>
+      <c r="B200">
+        <v>18261.25</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201" s="1">
+        <v>45350</v>
+      </c>
+      <c r="B201">
+        <v>18155</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202" s="1">
+        <v>45351</v>
+      </c>
+      <c r="B202">
+        <v>18324.25</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203" s="1">
+        <v>45352</v>
+      </c>
+      <c r="B203">
+        <v>18584</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204" s="1">
+        <v>45355</v>
+      </c>
+      <c r="B204">
+        <v>18509.75</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205" s="1">
+        <v>45356</v>
+      </c>
+      <c r="B205">
+        <v>18171.5</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206" s="1">
+        <v>45357</v>
+      </c>
+      <c r="B206">
+        <v>18288.25</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207" s="1">
+        <v>45358</v>
+      </c>
+      <c r="B207">
+        <v>18566.5</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A208" s="1">
+        <v>45359</v>
+      </c>
+      <c r="B208">
+        <v>18297.25</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209" s="1">
+        <v>45362</v>
+      </c>
+      <c r="B209">
+        <v>18216.25</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210" s="1">
+        <v>45363</v>
+      </c>
+      <c r="B210">
+        <v>18477.25</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A211" s="1">
+        <v>45364</v>
+      </c>
+      <c r="B211">
+        <v>18328.5</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A212" s="1">
+        <v>45365</v>
+      </c>
+      <c r="B212">
+        <v>18271.75</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A213" s="1">
+        <v>45366</v>
+      </c>
+      <c r="B213">
+        <v>18058.75</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A214" s="1">
+        <v>45369</v>
+      </c>
+      <c r="B214">
+        <v>18231.5</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A215" s="1">
+        <v>45370</v>
+      </c>
+      <c r="B215">
+        <v>18270</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A216" s="1">
+        <v>45371</v>
+      </c>
+      <c r="B216">
+        <v>18479.75</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A217" s="1">
+        <v>45372</v>
+      </c>
+      <c r="B217">
+        <v>18561.75</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A218" s="1">
+        <v>45373</v>
+      </c>
+      <c r="B218">
+        <v>18574.75</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A219" s="1">
+        <v>45376</v>
+      </c>
+      <c r="B219">
+        <v>18513.5</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A220" s="1">
+        <v>45377</v>
+      </c>
+      <c r="B220">
+        <v>18449</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A221" s="1">
+        <v>45378</v>
+      </c>
+      <c r="B221">
+        <v>18503.75</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A222" s="1">
+        <v>45379</v>
+      </c>
+      <c r="B222">
+        <v>18475</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A223" s="1">
+        <v>45383</v>
+      </c>
+      <c r="B223">
+        <v>18497.25</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A224" s="1">
+        <v>45384</v>
+      </c>
+      <c r="B224">
+        <v>18330</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A225" s="1">
+        <v>45385</v>
+      </c>
+      <c r="B225">
+        <v>18373.25</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A226" s="1">
+        <v>45386</v>
+      </c>
+      <c r="B226">
+        <v>18076.75</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A227" s="1">
+        <v>45387</v>
+      </c>
+      <c r="B227">
+        <v>18300.75</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A228" s="1">
+        <v>45390</v>
+      </c>
+      <c r="B228">
+        <v>18295</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A229" s="1">
+        <v>45391</v>
+      </c>
+      <c r="B229">
+        <v>18359.75</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A230" s="1">
+        <v>45392</v>
+      </c>
+      <c r="B230">
+        <v>18196.75</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A231" s="1">
+        <v>45393</v>
+      </c>
+      <c r="B231">
+        <v>18485</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A232" s="1">
+        <v>45394</v>
+      </c>
+      <c r="B232">
+        <v>18179.25</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A233" s="1">
+        <v>45397</v>
+      </c>
+      <c r="B233">
+        <v>17876.25</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A234" s="1">
+        <v>45398</v>
+      </c>
+      <c r="B234">
+        <v>17881.25</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A235" s="1">
+        <v>45399</v>
+      </c>
+      <c r="B235">
+        <v>17658.5</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A236" s="1">
+        <v>45400</v>
+      </c>
+      <c r="B236">
+        <v>17547.25</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A237" s="1">
+        <v>45401</v>
+      </c>
+      <c r="B237">
+        <v>17180.75</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A238" s="1">
+        <v>45404</v>
+      </c>
+      <c r="B238">
+        <v>17350</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A239" s="1">
+        <v>45405</v>
+      </c>
+      <c r="B239">
+        <v>17606.75</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A240" s="1">
+        <v>45406</v>
+      </c>
+      <c r="B240">
+        <v>17664.5</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A241" s="1">
+        <v>45407</v>
+      </c>
+      <c r="B241">
+        <v>17567.5</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A242" s="1">
+        <v>45408</v>
+      </c>
+      <c r="B242">
+        <v>17845.75</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A243" s="1">
+        <v>45411</v>
+      </c>
+      <c r="B243">
+        <v>17904.25</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A244" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B244">
+        <v>17571.25</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A245" s="1">
+        <v>45413</v>
+      </c>
+      <c r="B245">
+        <v>17438.25</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A246" s="1">
+        <v>45414</v>
+      </c>
+      <c r="B246">
+        <v>17649.75</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A247" s="1">
+        <v>45415</v>
+      </c>
+      <c r="B247">
+        <v>18000.75</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A248" s="1">
+        <v>45418</v>
+      </c>
+      <c r="B248">
+        <v>18195.5</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A249" s="1">
+        <v>45419</v>
+      </c>
+      <c r="B249">
+        <v>18199.5</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A250" s="1">
+        <v>45420</v>
+      </c>
+      <c r="B250">
+        <v>18186.5</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A251" s="1">
+        <v>45421</v>
+      </c>
+      <c r="B251">
+        <v>18214.5</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A252" s="1">
+        <v>45422</v>
+      </c>
+      <c r="B252">
+        <v>18255</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A253" s="1">
+        <v>45425</v>
+      </c>
+      <c r="B253">
+        <v>18295.5</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A254" s="1">
+        <v>45426</v>
+      </c>
+      <c r="B254">
+        <v>18333.25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FC0687F-93AF-484B-8169-E739CB044184}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:B258"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4630,7 +6704,7 @@
         <v>45426</v>
       </c>
       <c r="B258">
-        <v>18821</v>
+        <v>18843</v>
       </c>
     </row>
   </sheetData>
@@ -4638,8 +6712,2095 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEE513AE-A5B5-4D66-847D-000FE51B6671}">
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A1:B259"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="str">
+        <f>_xll.BQL("'VGA Index'", "dropna(px_last(start='-1Y')) as #PX_LAST","cols=2;rows=258")</f>
+        <v/>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>45061</v>
+      </c>
+      <c r="B3">
+        <v>4335</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>45062</v>
+      </c>
+      <c r="B4">
+        <v>4340</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>45063</v>
+      </c>
+      <c r="B5">
+        <v>4343</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>45064</v>
+      </c>
+      <c r="B6">
+        <v>4395</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>45065</v>
+      </c>
+      <c r="B7">
+        <v>4428</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>45068</v>
+      </c>
+      <c r="B8">
+        <v>4422</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>45069</v>
+      </c>
+      <c r="B9">
+        <v>4378</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>45070</v>
+      </c>
+      <c r="B10">
+        <v>4294</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>45071</v>
+      </c>
+      <c r="B11">
+        <v>4305</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>45072</v>
+      </c>
+      <c r="B12">
+        <v>4375</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>45075</v>
+      </c>
+      <c r="B13">
+        <v>4351</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>45076</v>
+      </c>
+      <c r="B14">
+        <v>4323</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>45077</v>
+      </c>
+      <c r="B15">
+        <v>4241</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>45078</v>
+      </c>
+      <c r="B16">
+        <v>4287</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>45079</v>
+      </c>
+      <c r="B17">
+        <v>4361</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>45082</v>
+      </c>
+      <c r="B18">
+        <v>4328</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>45083</v>
+      </c>
+      <c r="B19">
+        <v>4327</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>45084</v>
+      </c>
+      <c r="B20">
+        <v>4326</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>45085</v>
+      </c>
+      <c r="B21">
+        <v>4331</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>45086</v>
+      </c>
+      <c r="B22">
+        <v>4318</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>45089</v>
+      </c>
+      <c r="B23">
+        <v>4345</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>45090</v>
+      </c>
+      <c r="B24">
+        <v>4384</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>45091</v>
+      </c>
+      <c r="B25">
+        <v>4411</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>45092</v>
+      </c>
+      <c r="B26">
+        <v>4403</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>45093</v>
+      </c>
+      <c r="B27">
+        <v>4440</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>45096</v>
+      </c>
+      <c r="B28">
+        <v>4395</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>45097</v>
+      </c>
+      <c r="B29">
+        <v>4377</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>45098</v>
+      </c>
+      <c r="B30">
+        <v>4362</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>45099</v>
+      </c>
+      <c r="B31">
+        <v>4342</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>45100</v>
+      </c>
+      <c r="B32">
+        <v>4301</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>45103</v>
+      </c>
+      <c r="B33">
+        <v>4316</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>45104</v>
+      </c>
+      <c r="B34">
+        <v>4347</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>45105</v>
+      </c>
+      <c r="B35">
+        <v>4386</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>45106</v>
+      </c>
+      <c r="B36">
+        <v>4395</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>45107</v>
+      </c>
+      <c r="B37">
+        <v>4443</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>45110</v>
+      </c>
+      <c r="B38">
+        <v>4440</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>45111</v>
+      </c>
+      <c r="B39">
+        <v>4430</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>45112</v>
+      </c>
+      <c r="B40">
+        <v>4385</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>45113</v>
+      </c>
+      <c r="B41">
+        <v>4250</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>45114</v>
+      </c>
+      <c r="B42">
+        <v>4270</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>45117</v>
+      </c>
+      <c r="B43">
+        <v>4290</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>45118</v>
+      </c>
+      <c r="B44">
+        <v>4323</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>45119</v>
+      </c>
+      <c r="B45">
+        <v>4401</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>45120</v>
+      </c>
+      <c r="B46">
+        <v>4432</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>45121</v>
+      </c>
+      <c r="B47">
+        <v>4440</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>45124</v>
+      </c>
+      <c r="B48">
+        <v>4392</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>45125</v>
+      </c>
+      <c r="B49">
+        <v>4409</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>45126</v>
+      </c>
+      <c r="B50">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>45127</v>
+      </c>
+      <c r="B51">
+        <v>4408</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>45128</v>
+      </c>
+      <c r="B52">
+        <v>4425</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>45131</v>
+      </c>
+      <c r="B53">
+        <v>4418</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>45132</v>
+      </c>
+      <c r="B54">
+        <v>4423</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>45133</v>
+      </c>
+      <c r="B55">
+        <v>4376</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>45134</v>
+      </c>
+      <c r="B56">
+        <v>4481</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>45135</v>
+      </c>
+      <c r="B57">
+        <v>4507</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>45138</v>
+      </c>
+      <c r="B58">
+        <v>4507</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>45139</v>
+      </c>
+      <c r="B59">
+        <v>4440</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>45140</v>
+      </c>
+      <c r="B60">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>45141</v>
+      </c>
+      <c r="B61">
+        <v>4323</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>45142</v>
+      </c>
+      <c r="B62">
+        <v>4360</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>45145</v>
+      </c>
+      <c r="B63">
+        <v>4366</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>45146</v>
+      </c>
+      <c r="B64">
+        <v>4312</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>45147</v>
+      </c>
+      <c r="B65">
+        <v>4337</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>45148</v>
+      </c>
+      <c r="B66">
+        <v>4409</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>45149</v>
+      </c>
+      <c r="B67">
+        <v>4348</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>45152</v>
+      </c>
+      <c r="B68">
+        <v>4353</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>45153</v>
+      </c>
+      <c r="B69">
+        <v>4309</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>45154</v>
+      </c>
+      <c r="B70">
+        <v>4308</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>45155</v>
+      </c>
+      <c r="B71">
+        <v>4250</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>45156</v>
+      </c>
+      <c r="B72">
+        <v>4235</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>45159</v>
+      </c>
+      <c r="B73">
+        <v>4245</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>45160</v>
+      </c>
+      <c r="B74">
+        <v>4283</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>45161</v>
+      </c>
+      <c r="B75">
+        <v>4287</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>45162</v>
+      </c>
+      <c r="B76">
+        <v>4249</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>45163</v>
+      </c>
+      <c r="B77">
+        <v>4253</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>45166</v>
+      </c>
+      <c r="B78">
+        <v>4315</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>45167</v>
+      </c>
+      <c r="B79">
+        <v>4347</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>45168</v>
+      </c>
+      <c r="B80">
+        <v>4337</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>45169</v>
+      </c>
+      <c r="B81">
+        <v>4321</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>45170</v>
+      </c>
+      <c r="B82">
+        <v>4297</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>45173</v>
+      </c>
+      <c r="B83">
+        <v>4288</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>45174</v>
+      </c>
+      <c r="B84">
+        <v>4282</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>45175</v>
+      </c>
+      <c r="B85">
+        <v>4251</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>45176</v>
+      </c>
+      <c r="B86">
+        <v>4230</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>45177</v>
+      </c>
+      <c r="B87">
+        <v>4249</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>45180</v>
+      </c>
+      <c r="B88">
+        <v>4266</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>45181</v>
+      </c>
+      <c r="B89">
+        <v>4254</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>45182</v>
+      </c>
+      <c r="B90">
+        <v>4238</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>45183</v>
+      </c>
+      <c r="B91">
+        <v>4298</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>45184</v>
+      </c>
+      <c r="B92">
+        <v>4308</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>45187</v>
+      </c>
+      <c r="B93">
+        <v>4254</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>45188</v>
+      </c>
+      <c r="B94">
+        <v>4251</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>45189</v>
+      </c>
+      <c r="B95">
+        <v>4291</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>45190</v>
+      </c>
+      <c r="B96">
+        <v>4223</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>45191</v>
+      </c>
+      <c r="B97">
+        <v>4219</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>45194</v>
+      </c>
+      <c r="B98">
+        <v>4171</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>45195</v>
+      </c>
+      <c r="B99">
+        <v>4134</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <v>45196</v>
+      </c>
+      <c r="B100">
+        <v>4136</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <v>45197</v>
+      </c>
+      <c r="B101">
+        <v>4166</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
+        <v>45198</v>
+      </c>
+      <c r="B102">
+        <v>4183</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
+        <v>45201</v>
+      </c>
+      <c r="B103">
+        <v>4140</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
+        <v>45202</v>
+      </c>
+      <c r="B104">
+        <v>4096</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
+        <v>45203</v>
+      </c>
+      <c r="B105">
+        <v>4100</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
+        <v>45204</v>
+      </c>
+      <c r="B106">
+        <v>4099</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
+        <v>45205</v>
+      </c>
+      <c r="B107">
+        <v>4143</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
+        <v>45208</v>
+      </c>
+      <c r="B108">
+        <v>4109</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
+        <v>45209</v>
+      </c>
+      <c r="B109">
+        <v>4207</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
+        <v>45210</v>
+      </c>
+      <c r="B110">
+        <v>4206</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
+        <v>45211</v>
+      </c>
+      <c r="B111">
+        <v>4197</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
+        <v>45212</v>
+      </c>
+      <c r="B112">
+        <v>4132</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
+        <v>45215</v>
+      </c>
+      <c r="B113">
+        <v>4145</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
+        <v>45216</v>
+      </c>
+      <c r="B114">
+        <v>4148</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
+        <v>45217</v>
+      </c>
+      <c r="B115">
+        <v>4101</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
+        <v>45218</v>
+      </c>
+      <c r="B116">
+        <v>4082</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" s="1">
+        <v>45219</v>
+      </c>
+      <c r="B117">
+        <v>4020</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" s="1">
+        <v>45222</v>
+      </c>
+      <c r="B118">
+        <v>4032</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" s="1">
+        <v>45223</v>
+      </c>
+      <c r="B119">
+        <v>4053</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" s="1">
+        <v>45224</v>
+      </c>
+      <c r="B120">
+        <v>4065</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="1">
+        <v>45225</v>
+      </c>
+      <c r="B121">
+        <v>4038</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" s="1">
+        <v>45226</v>
+      </c>
+      <c r="B122">
+        <v>4007</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" s="1">
+        <v>45229</v>
+      </c>
+      <c r="B123">
+        <v>4014</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" s="1">
+        <v>45230</v>
+      </c>
+      <c r="B124">
+        <v>4044</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" s="1">
+        <v>45231</v>
+      </c>
+      <c r="B125">
+        <v>4078</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" s="1">
+        <v>45232</v>
+      </c>
+      <c r="B126">
+        <v>4156</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" s="1">
+        <v>45233</v>
+      </c>
+      <c r="B127">
+        <v>4166</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" s="1">
+        <v>45236</v>
+      </c>
+      <c r="B128">
+        <v>4145</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" s="1">
+        <v>45237</v>
+      </c>
+      <c r="B129">
+        <v>4139</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" s="1">
+        <v>45238</v>
+      </c>
+      <c r="B130">
+        <v>4166</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" s="1">
+        <v>45239</v>
+      </c>
+      <c r="B131">
+        <v>4215</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" s="1">
+        <v>45240</v>
+      </c>
+      <c r="B132">
+        <v>4183</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" s="1">
+        <v>45243</v>
+      </c>
+      <c r="B133">
+        <v>4217</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" s="1">
+        <v>45244</v>
+      </c>
+      <c r="B134">
+        <v>4283</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" s="1">
+        <v>45245</v>
+      </c>
+      <c r="B135">
+        <v>4303</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" s="1">
+        <v>45246</v>
+      </c>
+      <c r="B136">
+        <v>4288</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" s="1">
+        <v>45247</v>
+      </c>
+      <c r="B137">
+        <v>4326</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" s="1">
+        <v>45250</v>
+      </c>
+      <c r="B138">
+        <v>4331</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" s="1">
+        <v>45251</v>
+      </c>
+      <c r="B139">
+        <v>4320</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" s="1">
+        <v>45252</v>
+      </c>
+      <c r="B140">
+        <v>4340</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" s="1">
+        <v>45253</v>
+      </c>
+      <c r="B141">
+        <v>4350</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" s="1">
+        <v>45254</v>
+      </c>
+      <c r="B142">
+        <v>4361</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" s="1">
+        <v>45257</v>
+      </c>
+      <c r="B143">
+        <v>4344</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" s="1">
+        <v>45258</v>
+      </c>
+      <c r="B144">
+        <v>4333</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" s="1">
+        <v>45259</v>
+      </c>
+      <c r="B145">
+        <v>4356</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" s="1">
+        <v>45260</v>
+      </c>
+      <c r="B146">
+        <v>4367</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" s="1">
+        <v>45261</v>
+      </c>
+      <c r="B147">
+        <v>4399</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" s="1">
+        <v>45264</v>
+      </c>
+      <c r="B148">
+        <v>4399</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" s="1">
+        <v>45265</v>
+      </c>
+      <c r="B149">
+        <v>4435</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" s="1">
+        <v>45266</v>
+      </c>
+      <c r="B150">
+        <v>4473</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" s="1">
+        <v>45267</v>
+      </c>
+      <c r="B151">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" s="1">
+        <v>45268</v>
+      </c>
+      <c r="B152">
+        <v>4508</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" s="1">
+        <v>45271</v>
+      </c>
+      <c r="B153">
+        <v>4529</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" s="1">
+        <v>45272</v>
+      </c>
+      <c r="B154">
+        <v>4521</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" s="1">
+        <v>45273</v>
+      </c>
+      <c r="B155">
+        <v>4514</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" s="1">
+        <v>45274</v>
+      </c>
+      <c r="B156">
+        <v>4525</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" s="1">
+        <v>45275</v>
+      </c>
+      <c r="B157">
+        <v>4536</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" s="1">
+        <v>45278</v>
+      </c>
+      <c r="B158">
+        <v>4502</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" s="1">
+        <v>45279</v>
+      </c>
+      <c r="B159">
+        <v>4521</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" s="1">
+        <v>45280</v>
+      </c>
+      <c r="B160">
+        <v>4518</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" s="1">
+        <v>45281</v>
+      </c>
+      <c r="B161">
+        <v>4503</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" s="1">
+        <v>45282</v>
+      </c>
+      <c r="B162">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" s="1">
+        <v>45287</v>
+      </c>
+      <c r="B163">
+        <v>4507</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" s="1">
+        <v>45288</v>
+      </c>
+      <c r="B164">
+        <v>4488</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" s="1">
+        <v>45289</v>
+      </c>
+      <c r="B165">
+        <v>4485</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" s="1">
+        <v>45293</v>
+      </c>
+      <c r="B166">
+        <v>4483</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" s="1">
+        <v>45294</v>
+      </c>
+      <c r="B167">
+        <v>4416</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" s="1">
+        <v>45295</v>
+      </c>
+      <c r="B168">
+        <v>4445</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" s="1">
+        <v>45296</v>
+      </c>
+      <c r="B169">
+        <v>4433</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" s="1">
+        <v>45299</v>
+      </c>
+      <c r="B170">
+        <v>4452</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" s="1">
+        <v>45300</v>
+      </c>
+      <c r="B171">
+        <v>4436</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" s="1">
+        <v>45301</v>
+      </c>
+      <c r="B172">
+        <v>4437</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" s="1">
+        <v>45302</v>
+      </c>
+      <c r="B173">
+        <v>4408</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" s="1">
+        <v>45303</v>
+      </c>
+      <c r="B174">
+        <v>4442</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175" s="1">
+        <v>45306</v>
+      </c>
+      <c r="B175">
+        <v>4423</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176" s="1">
+        <v>45307</v>
+      </c>
+      <c r="B176">
+        <v>4410</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" s="1">
+        <v>45308</v>
+      </c>
+      <c r="B177">
+        <v>4367</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" s="1">
+        <v>45309</v>
+      </c>
+      <c r="B178">
+        <v>4417</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179" s="1">
+        <v>45310</v>
+      </c>
+      <c r="B179">
+        <v>4412</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180" s="1">
+        <v>45313</v>
+      </c>
+      <c r="B180">
+        <v>4449</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" s="1">
+        <v>45314</v>
+      </c>
+      <c r="B181">
+        <v>4433</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182" s="1">
+        <v>45315</v>
+      </c>
+      <c r="B182">
+        <v>4531</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183" s="1">
+        <v>45316</v>
+      </c>
+      <c r="B183">
+        <v>4549</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184" s="1">
+        <v>45317</v>
+      </c>
+      <c r="B184">
+        <v>4602</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185" s="1">
+        <v>45320</v>
+      </c>
+      <c r="B185">
+        <v>4605</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186" s="1">
+        <v>45321</v>
+      </c>
+      <c r="B186">
+        <v>4629</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187" s="1">
+        <v>45322</v>
+      </c>
+      <c r="B187">
+        <v>4612</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188" s="1">
+        <v>45323</v>
+      </c>
+      <c r="B188">
+        <v>4596</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189" s="1">
+        <v>45324</v>
+      </c>
+      <c r="B189">
+        <v>4617</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190" s="1">
+        <v>45327</v>
+      </c>
+      <c r="B190">
+        <v>4614</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191" s="1">
+        <v>45328</v>
+      </c>
+      <c r="B191">
+        <v>4655</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192" s="1">
+        <v>45329</v>
+      </c>
+      <c r="B192">
+        <v>4642</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193" s="1">
+        <v>45330</v>
+      </c>
+      <c r="B193">
+        <v>4671</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194" s="1">
+        <v>45331</v>
+      </c>
+      <c r="B194">
+        <v>4681</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195" s="1">
+        <v>45334</v>
+      </c>
+      <c r="B195">
+        <v>4712</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196" s="1">
+        <v>45335</v>
+      </c>
+      <c r="B196">
+        <v>4654</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197" s="1">
+        <v>45336</v>
+      </c>
+      <c r="B197">
+        <v>4675</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198" s="1">
+        <v>45337</v>
+      </c>
+      <c r="B198">
+        <v>4705</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199" s="1">
+        <v>45338</v>
+      </c>
+      <c r="B199">
+        <v>4729</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200" s="1">
+        <v>45341</v>
+      </c>
+      <c r="B200">
+        <v>4728</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201" s="1">
+        <v>45342</v>
+      </c>
+      <c r="B201">
+        <v>4728</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202" s="1">
+        <v>45343</v>
+      </c>
+      <c r="B202">
+        <v>4739</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203" s="1">
+        <v>45344</v>
+      </c>
+      <c r="B203">
+        <v>4820</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204" s="1">
+        <v>45345</v>
+      </c>
+      <c r="B204">
+        <v>4836</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205" s="1">
+        <v>45348</v>
+      </c>
+      <c r="B205">
+        <v>4826</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206" s="1">
+        <v>45349</v>
+      </c>
+      <c r="B206">
+        <v>4850</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207" s="1">
+        <v>45350</v>
+      </c>
+      <c r="B207">
+        <v>4845</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A208" s="1">
+        <v>45351</v>
+      </c>
+      <c r="B208">
+        <v>4847</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209" s="1">
+        <v>45352</v>
+      </c>
+      <c r="B209">
+        <v>4854</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210" s="1">
+        <v>45355</v>
+      </c>
+      <c r="B210">
+        <v>4871</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A211" s="1">
+        <v>45356</v>
+      </c>
+      <c r="B211">
+        <v>4852</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A212" s="1">
+        <v>45357</v>
+      </c>
+      <c r="B212">
+        <v>4877</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A213" s="1">
+        <v>45358</v>
+      </c>
+      <c r="B213">
+        <v>4937</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A214" s="1">
+        <v>45359</v>
+      </c>
+      <c r="B214">
+        <v>4923</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A215" s="1">
+        <v>45362</v>
+      </c>
+      <c r="B215">
+        <v>4890</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A216" s="1">
+        <v>45363</v>
+      </c>
+      <c r="B216">
+        <v>4944</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A217" s="1">
+        <v>45364</v>
+      </c>
+      <c r="B217">
+        <v>4960</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A218" s="1">
+        <v>45365</v>
+      </c>
+      <c r="B218">
+        <v>4948</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A219" s="1">
+        <v>45366</v>
+      </c>
+      <c r="B219">
+        <v>4955</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A220" s="1">
+        <v>45369</v>
+      </c>
+      <c r="B220">
+        <v>4942</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A221" s="1">
+        <v>45370</v>
+      </c>
+      <c r="B221">
+        <v>4963</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A222" s="1">
+        <v>45371</v>
+      </c>
+      <c r="B222">
+        <v>4959</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A223" s="1">
+        <v>45372</v>
+      </c>
+      <c r="B223">
+        <v>5011</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A224" s="1">
+        <v>45373</v>
+      </c>
+      <c r="B224">
+        <v>4993</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A225" s="1">
+        <v>45376</v>
+      </c>
+      <c r="B225">
+        <v>5007</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A226" s="1">
+        <v>45377</v>
+      </c>
+      <c r="B226">
+        <v>5030</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A227" s="1">
+        <v>45378</v>
+      </c>
+      <c r="B227">
+        <v>5039</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A228" s="1">
+        <v>45379</v>
+      </c>
+      <c r="B228">
+        <v>5045</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A229" s="1">
+        <v>45384</v>
+      </c>
+      <c r="B229">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A230" s="1">
+        <v>45385</v>
+      </c>
+      <c r="B230">
+        <v>5025</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A231" s="1">
+        <v>45386</v>
+      </c>
+      <c r="B231">
+        <v>5026</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A232" s="1">
+        <v>45387</v>
+      </c>
+      <c r="B232">
+        <v>4964</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A233" s="1">
+        <v>45390</v>
+      </c>
+      <c r="B233">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A234" s="1">
+        <v>45391</v>
+      </c>
+      <c r="B234">
+        <v>4943</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A235" s="1">
+        <v>45392</v>
+      </c>
+      <c r="B235">
+        <v>4951</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A236" s="1">
+        <v>45393</v>
+      </c>
+      <c r="B236">
+        <v>4917</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A237" s="1">
+        <v>45394</v>
+      </c>
+      <c r="B237">
+        <v>4900</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A238" s="1">
+        <v>45397</v>
+      </c>
+      <c r="B238">
+        <v>4932</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A239" s="1">
+        <v>45398</v>
+      </c>
+      <c r="B239">
+        <v>4864</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A240" s="1">
+        <v>45399</v>
+      </c>
+      <c r="B240">
+        <v>4876</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A241" s="1">
+        <v>45400</v>
+      </c>
+      <c r="B241">
+        <v>4891</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A242" s="1">
+        <v>45401</v>
+      </c>
+      <c r="B242">
+        <v>4869</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A243" s="1">
+        <v>45404</v>
+      </c>
+      <c r="B243">
+        <v>4894</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A244" s="1">
+        <v>45405</v>
+      </c>
+      <c r="B244">
+        <v>4975</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A245" s="1">
+        <v>45406</v>
+      </c>
+      <c r="B245">
+        <v>4951</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A246" s="1">
+        <v>45407</v>
+      </c>
+      <c r="B246">
+        <v>4904</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A247" s="1">
+        <v>45408</v>
+      </c>
+      <c r="B247">
+        <v>4980</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A248" s="1">
+        <v>45411</v>
+      </c>
+      <c r="B248">
+        <v>4958</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A249" s="1">
+        <v>45412</v>
+      </c>
+      <c r="B249">
+        <v>4897</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A250" s="1">
+        <v>45414</v>
+      </c>
+      <c r="B250">
+        <v>4871</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A251" s="1">
+        <v>45415</v>
+      </c>
+      <c r="B251">
+        <v>4897</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A252" s="1">
+        <v>45418</v>
+      </c>
+      <c r="B252">
+        <v>4937</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A253" s="1">
+        <v>45419</v>
+      </c>
+      <c r="B253">
+        <v>4999</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A254" s="1">
+        <v>45420</v>
+      </c>
+      <c r="B254">
+        <v>5021</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A255" s="1">
+        <v>45421</v>
+      </c>
+      <c r="B255">
+        <v>5045</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A256" s="1">
+        <v>45422</v>
+      </c>
+      <c r="B256">
+        <v>5073</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A257" s="1">
+        <v>45425</v>
+      </c>
+      <c r="B257">
+        <v>5074</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A258" s="1">
+        <v>45426</v>
+      </c>
+      <c r="B258">
+        <v>5078</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A259" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E691C535-15F0-4F41-B3D1-3E34BE8CB308}">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:B236"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6536,7 +10697,7 @@
         <v>45426</v>
       </c>
       <c r="B236">
-        <v>8437.5</v>
+        <v>8439.5</v>
       </c>
     </row>
   </sheetData>
@@ -6544,12 +10705,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CEFCEF2-7336-4888-99EC-BFDE6073945C}">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:B232"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N33" sqref="N33"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8412,7 +12574,7 @@
         <v>45426</v>
       </c>
       <c r="B232">
-        <v>34620</v>
+        <v>34865</v>
       </c>
     </row>
   </sheetData>
@@ -8420,27 +12582,26 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEE513AE-A5B5-4D66-847D-000FE51B6671}">
-  <dimension ref="A1:B259"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{865AFC4B-4865-4F34-BFC1-ED0A125E483D}">
+  <sheetPr codeName="Sheet7"/>
+  <dimension ref="A1:B261"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M236" sqref="M236"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'VGA Index'", "dropna(px_last(start='-1Y')) as #PX_LAST","cols=2;rows=258")</f>
+        <f>_xll.BQL("'MESA Index'", "dropna(px_last(start='-1Y')) as #PX_LAST","cols=2;rows=261")</f>
         <v/>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -8456,7 +12617,7 @@
         <v>45061</v>
       </c>
       <c r="B3">
-        <v>4335</v>
+        <v>1005.3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -8464,7 +12625,7 @@
         <v>45062</v>
       </c>
       <c r="B4">
-        <v>4340</v>
+        <v>999.50009999999997</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -8472,7 +12633,7 @@
         <v>45063</v>
       </c>
       <c r="B5">
-        <v>4343</v>
+        <v>1003.7</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -8480,7 +12641,7 @@
         <v>45064</v>
       </c>
       <c r="B6">
-        <v>4395</v>
+        <v>999.6</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -8488,7 +12649,7 @@
         <v>45065</v>
       </c>
       <c r="B7">
-        <v>4428</v>
+        <v>1000.8</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -8496,7 +12657,7 @@
         <v>45068</v>
       </c>
       <c r="B8">
-        <v>4422</v>
+        <v>1007.6</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -8504,7 +12665,7 @@
         <v>45069</v>
       </c>
       <c r="B9">
-        <v>4378</v>
+        <v>992.9</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -8512,7 +12673,7 @@
         <v>45070</v>
       </c>
       <c r="B10">
-        <v>4294</v>
+        <v>986.6</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -8520,7 +12681,7 @@
         <v>45071</v>
       </c>
       <c r="B11">
-        <v>4305</v>
+        <v>985.70010000000002</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -8528,7 +12689,7 @@
         <v>45072</v>
       </c>
       <c r="B12">
-        <v>4375</v>
+        <v>1004.3</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -8536,7 +12697,7 @@
         <v>45075</v>
       </c>
       <c r="B13">
-        <v>4351</v>
+        <v>1004.3</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -8544,7 +12705,7 @@
         <v>45076</v>
       </c>
       <c r="B14">
-        <v>4323</v>
+        <v>991.50009999999997</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -8552,7 +12713,7 @@
         <v>45077</v>
       </c>
       <c r="B15">
-        <v>4241</v>
+        <v>982.00009999999997</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -8560,7 +12721,7 @@
         <v>45078</v>
       </c>
       <c r="B16">
-        <v>4287</v>
+        <v>998.00009999999997</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -8568,7 +12729,7 @@
         <v>45079</v>
       </c>
       <c r="B17">
-        <v>4361</v>
+        <v>1016.5</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -8576,7 +12737,7 @@
         <v>45082</v>
       </c>
       <c r="B18">
-        <v>4328</v>
+        <v>1014.9</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -8584,7 +12745,7 @@
         <v>45083</v>
       </c>
       <c r="B19">
-        <v>4327</v>
+        <v>1023.7</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -8592,7 +12753,7 @@
         <v>45084</v>
       </c>
       <c r="B20">
-        <v>4326</v>
+        <v>1020.5</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -8600,7 +12761,7 @@
         <v>45085</v>
       </c>
       <c r="B21">
-        <v>4331</v>
+        <v>1026.7</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -8608,7 +12769,7 @@
         <v>45086</v>
       </c>
       <c r="B22">
-        <v>4318</v>
+        <v>1032.2</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -8616,7 +12777,7 @@
         <v>45089</v>
       </c>
       <c r="B23">
-        <v>4345</v>
+        <v>1034.4000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -8624,7 +12785,7 @@
         <v>45090</v>
       </c>
       <c r="B24">
-        <v>4384</v>
+        <v>1044.7</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -8632,7 +12793,7 @@
         <v>45091</v>
       </c>
       <c r="B25">
-        <v>4411</v>
+        <v>1052.3</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -8640,7 +12801,7 @@
         <v>45092</v>
       </c>
       <c r="B26">
-        <v>4403</v>
+        <v>1062.0999999999999</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -8648,7 +12809,7 @@
         <v>45093</v>
       </c>
       <c r="B27">
-        <v>4440</v>
+        <v>1058.4000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -8656,7 +12817,7 @@
         <v>45096</v>
       </c>
       <c r="B28">
-        <v>4395</v>
+        <v>1058.4000000000001</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -8664,7 +12825,7 @@
         <v>45097</v>
       </c>
       <c r="B29">
-        <v>4377</v>
+        <v>1036.5999999999999</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -8672,7 +12833,7 @@
         <v>45098</v>
       </c>
       <c r="B30">
-        <v>4362</v>
+        <v>1032.2</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -8680,7 +12841,7 @@
         <v>45099</v>
       </c>
       <c r="B31">
-        <v>4342</v>
+        <v>1028.0999999999999</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -8688,7 +12849,7 @@
         <v>45100</v>
       </c>
       <c r="B32">
-        <v>4301</v>
+        <v>1013.4</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -8696,7 +12857,7 @@
         <v>45103</v>
       </c>
       <c r="B33">
-        <v>4316</v>
+        <v>1016.4</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -8704,7 +12865,7 @@
         <v>45104</v>
       </c>
       <c r="B34">
-        <v>4347</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -8712,7 +12873,7 @@
         <v>45105</v>
       </c>
       <c r="B35">
-        <v>4386</v>
+        <v>1020.8</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -8720,7 +12881,7 @@
         <v>45106</v>
       </c>
       <c r="B36">
-        <v>4395</v>
+        <v>1015.7</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -8728,7 +12889,7 @@
         <v>45107</v>
       </c>
       <c r="B37">
-        <v>4443</v>
+        <v>1023.3</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -8736,7 +12897,7 @@
         <v>45110</v>
       </c>
       <c r="B38">
-        <v>4440</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -8744,7 +12905,7 @@
         <v>45111</v>
       </c>
       <c r="B39">
-        <v>4430</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -8752,7 +12913,7 @@
         <v>45112</v>
       </c>
       <c r="B40">
-        <v>4385</v>
+        <v>1028.4000000000001</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -8760,7 +12921,7 @@
         <v>45113</v>
       </c>
       <c r="B41">
-        <v>4250</v>
+        <v>1007.4</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -8768,7 +12929,7 @@
         <v>45114</v>
       </c>
       <c r="B42">
-        <v>4270</v>
+        <v>1018.6</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -8776,7 +12937,7 @@
         <v>45117</v>
       </c>
       <c r="B43">
-        <v>4290</v>
+        <v>1018.6</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -8784,7 +12945,7 @@
         <v>45118</v>
       </c>
       <c r="B44">
-        <v>4323</v>
+        <v>1029.0999999999999</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -8792,7 +12953,7 @@
         <v>45119</v>
       </c>
       <c r="B45">
-        <v>4401</v>
+        <v>1051.0999999999999</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -8800,7 +12961,7 @@
         <v>45120</v>
       </c>
       <c r="B46">
-        <v>4432</v>
+        <v>1064.5999999999999</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -8808,7 +12969,7 @@
         <v>45121</v>
       </c>
       <c r="B47">
-        <v>4440</v>
+        <v>1058.4000000000001</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -8816,7 +12977,7 @@
         <v>45124</v>
       </c>
       <c r="B48">
-        <v>4392</v>
+        <v>1059.7</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -8824,7 +12985,7 @@
         <v>45125</v>
       </c>
       <c r="B49">
-        <v>4409</v>
+        <v>1051.5999999999999</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -8832,7 +12993,7 @@
         <v>45126</v>
       </c>
       <c r="B50">
-        <v>4400</v>
+        <v>1050.2</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -8840,7 +13001,7 @@
         <v>45127</v>
       </c>
       <c r="B51">
-        <v>4408</v>
+        <v>1042.4000000000001</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -8848,7 +13009,7 @@
         <v>45128</v>
       </c>
       <c r="B52">
-        <v>4425</v>
+        <v>1040.2</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -8856,7 +13017,7 @@
         <v>45131</v>
       </c>
       <c r="B53">
-        <v>4418</v>
+        <v>1054.5</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -8864,7 +13025,7 @@
         <v>45132</v>
       </c>
       <c r="B54">
-        <v>4423</v>
+        <v>1063.7</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -8872,7 +13033,7 @@
         <v>45133</v>
       </c>
       <c r="B55">
-        <v>4376</v>
+        <v>1070.2</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -8880,7 +13041,7 @@
         <v>45134</v>
       </c>
       <c r="B56">
-        <v>4481</v>
+        <v>1056.9000000000001</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -8888,7 +13049,7 @@
         <v>45135</v>
       </c>
       <c r="B57">
-        <v>4507</v>
+        <v>1081.0999999999999</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -8896,7 +13057,7 @@
         <v>45138</v>
       </c>
       <c r="B58">
-        <v>4507</v>
+        <v>1081.2</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -8904,7 +13065,7 @@
         <v>45139</v>
       </c>
       <c r="B59">
-        <v>4440</v>
+        <v>1067.4000000000001</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -8912,7 +13073,7 @@
         <v>45140</v>
       </c>
       <c r="B60">
-        <v>4358</v>
+        <v>1042.0999999999999</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -8920,7 +13081,7 @@
         <v>45141</v>
       </c>
       <c r="B61">
-        <v>4323</v>
+        <v>1044.8</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -8928,7 +13089,7 @@
         <v>45142</v>
       </c>
       <c r="B62">
-        <v>4360</v>
+        <v>1043.7</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -8936,7 +13097,7 @@
         <v>45145</v>
       </c>
       <c r="B63">
-        <v>4366</v>
+        <v>1041.7</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -8944,7 +13105,7 @@
         <v>45146</v>
       </c>
       <c r="B64">
-        <v>4312</v>
+        <v>1028.9000000000001</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -8952,7 +13113,7 @@
         <v>45147</v>
       </c>
       <c r="B65">
-        <v>4337</v>
+        <v>1031.8</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -8960,7 +13121,7 @@
         <v>45148</v>
       </c>
       <c r="B66">
-        <v>4409</v>
+        <v>1032.8</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -8968,7 +13129,7 @@
         <v>45149</v>
       </c>
       <c r="B67">
-        <v>4348</v>
+        <v>1017.4</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -8976,7 +13137,7 @@
         <v>45152</v>
       </c>
       <c r="B68">
-        <v>4353</v>
+        <v>1012.8</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -8984,7 +13145,7 @@
         <v>45153</v>
       </c>
       <c r="B69">
-        <v>4309</v>
+        <v>1000.9</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -8992,7 +13153,7 @@
         <v>45154</v>
       </c>
       <c r="B70">
-        <v>4308</v>
+        <v>991.70010000000002</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -9000,7 +13161,7 @@
         <v>45155</v>
       </c>
       <c r="B71">
-        <v>4250</v>
+        <v>993.70010000000002</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -9008,7 +13169,7 @@
         <v>45156</v>
       </c>
       <c r="B72">
-        <v>4235</v>
+        <v>986.70010000000002</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -9016,7 +13177,7 @@
         <v>45159</v>
       </c>
       <c r="B73">
-        <v>4245</v>
+        <v>989.00009999999997</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -9024,7 +13185,7 @@
         <v>45160</v>
       </c>
       <c r="B74">
-        <v>4283</v>
+        <v>987.00009999999997</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -9032,7 +13193,7 @@
         <v>45161</v>
       </c>
       <c r="B75">
-        <v>4287</v>
+        <v>1002.2</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -9040,7 +13201,7 @@
         <v>45162</v>
       </c>
       <c r="B76">
-        <v>4249</v>
+        <v>999.1</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -9048,7 +13209,7 @@
         <v>45163</v>
       </c>
       <c r="B77">
-        <v>4253</v>
+        <v>999.9</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -9056,7 +13217,7 @@
         <v>45166</v>
       </c>
       <c r="B78">
-        <v>4315</v>
+        <v>1009.9</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -9064,7 +13225,7 @@
         <v>45167</v>
       </c>
       <c r="B79">
-        <v>4347</v>
+        <v>1022.2</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -9072,7 +13233,7 @@
         <v>45168</v>
       </c>
       <c r="B80">
-        <v>4337</v>
+        <v>1018.3</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -9080,7 +13241,7 @@
         <v>45169</v>
       </c>
       <c r="B81">
-        <v>4321</v>
+        <v>1004.8</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -9088,7 +13249,7 @@
         <v>45170</v>
       </c>
       <c r="B82">
-        <v>4297</v>
+        <v>1017.2</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -9096,7 +13257,7 @@
         <v>45173</v>
       </c>
       <c r="B83">
-        <v>4288</v>
+        <v>1017.2</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -9104,7 +13265,7 @@
         <v>45174</v>
       </c>
       <c r="B84">
-        <v>4282</v>
+        <v>1009.4</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -9112,7 +13273,7 @@
         <v>45175</v>
       </c>
       <c r="B85">
-        <v>4251</v>
+        <v>1004.5</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -9120,7 +13281,7 @@
         <v>45176</v>
       </c>
       <c r="B86">
-        <v>4230</v>
+        <v>992.8</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -9128,7 +13289,7 @@
         <v>45177</v>
       </c>
       <c r="B87">
-        <v>4249</v>
+        <v>994.50009999999997</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -9136,7 +13297,7 @@
         <v>45180</v>
       </c>
       <c r="B88">
-        <v>4266</v>
+        <v>1007.3</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -9144,7 +13305,7 @@
         <v>45181</v>
       </c>
       <c r="B89">
-        <v>4254</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -9152,7 +13313,7 @@
         <v>45182</v>
       </c>
       <c r="B90">
-        <v>4238</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -9160,7 +13321,7 @@
         <v>45183</v>
       </c>
       <c r="B91">
-        <v>4298</v>
+        <v>1008.5</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -9168,7 +13329,7 @@
         <v>45184</v>
       </c>
       <c r="B92">
-        <v>4308</v>
+        <v>1004.1</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -9176,7 +13337,7 @@
         <v>45187</v>
       </c>
       <c r="B93">
-        <v>4254</v>
+        <v>1003.1</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -9184,7 +13345,7 @@
         <v>45188</v>
       </c>
       <c r="B94">
-        <v>4251</v>
+        <v>996.20010000000002</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -9192,7 +13353,7 @@
         <v>45189</v>
       </c>
       <c r="B95">
-        <v>4291</v>
+        <v>992.50009999999997</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -9200,7 +13361,7 @@
         <v>45190</v>
       </c>
       <c r="B96">
-        <v>4223</v>
+        <v>974.3</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -9208,7 +13369,7 @@
         <v>45191</v>
       </c>
       <c r="B97">
-        <v>4219</v>
+        <v>986.00009999999997</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -9216,7 +13377,7 @@
         <v>45194</v>
       </c>
       <c r="B98">
-        <v>4171</v>
+        <v>981.50009999999997</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -9224,7 +13385,7 @@
         <v>45195</v>
       </c>
       <c r="B99">
-        <v>4134</v>
+        <v>967.20010000000002</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -9232,7 +13393,7 @@
         <v>45196</v>
       </c>
       <c r="B100">
-        <v>4136</v>
+        <v>968.8</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -9240,7 +13401,7 @@
         <v>45197</v>
       </c>
       <c r="B101">
-        <v>4166</v>
+        <v>970.4</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -9248,7 +13409,7 @@
         <v>45198</v>
       </c>
       <c r="B102">
-        <v>4183</v>
+        <v>970.4</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
@@ -9256,7 +13417,7 @@
         <v>45201</v>
       </c>
       <c r="B103">
-        <v>4140</v>
+        <v>965.4</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
@@ -9264,7 +13425,7 @@
         <v>45202</v>
       </c>
       <c r="B104">
-        <v>4096</v>
+        <v>952.8</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
@@ -9272,7 +13433,7 @@
         <v>45203</v>
       </c>
       <c r="B105">
-        <v>4100</v>
+        <v>948.6</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
@@ -9280,7 +13441,7 @@
         <v>45204</v>
       </c>
       <c r="B106">
-        <v>4099</v>
+        <v>952.00009999999997</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -9288,7 +13449,7 @@
         <v>45205</v>
       </c>
       <c r="B107">
-        <v>4143</v>
+        <v>966.20010000000002</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
@@ -9296,7 +13457,7 @@
         <v>45208</v>
       </c>
       <c r="B108">
-        <v>4109</v>
+        <v>961.1</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -9304,7 +13465,7 @@
         <v>45209</v>
       </c>
       <c r="B109">
-        <v>4207</v>
+        <v>974.9</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
@@ -9312,7 +13473,7 @@
         <v>45210</v>
       </c>
       <c r="B110">
-        <v>4206</v>
+        <v>980.9</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
@@ -9320,7 +13481,7 @@
         <v>45211</v>
       </c>
       <c r="B111">
-        <v>4197</v>
+        <v>970.00009999999997</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
@@ -9328,7 +13489,7 @@
         <v>45212</v>
       </c>
       <c r="B112">
-        <v>4132</v>
+        <v>966.00009999999997</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
@@ -9336,7 +13497,7 @@
         <v>45215</v>
       </c>
       <c r="B113">
-        <v>4145</v>
+        <v>973.00009999999997</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
@@ -9344,7 +13505,7 @@
         <v>45216</v>
       </c>
       <c r="B114">
-        <v>4148</v>
+        <v>970.6</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
@@ -9352,7 +13513,7 @@
         <v>45217</v>
       </c>
       <c r="B115">
-        <v>4101</v>
+        <v>955.50009999999997</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
@@ -9360,7 +13521,7 @@
         <v>45218</v>
       </c>
       <c r="B116">
-        <v>4082</v>
+        <v>949.8</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
@@ -9368,7 +13529,7 @@
         <v>45219</v>
       </c>
       <c r="B117">
-        <v>4020</v>
+        <v>936.9</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
@@ -9376,7 +13537,7 @@
         <v>45222</v>
       </c>
       <c r="B118">
-        <v>4032</v>
+        <v>936.6</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
@@ -9384,7 +13545,7 @@
         <v>45223</v>
       </c>
       <c r="B119">
-        <v>4053</v>
+        <v>948.50009999999997</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
@@ -9392,7 +13553,7 @@
         <v>45224</v>
       </c>
       <c r="B120">
-        <v>4065</v>
+        <v>936.50009999999997</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
@@ -9400,7 +13561,7 @@
         <v>45225</v>
       </c>
       <c r="B121">
-        <v>4038</v>
+        <v>930.00009999999997</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
@@ -9408,7 +13569,7 @@
         <v>45226</v>
       </c>
       <c r="B122">
-        <v>4007</v>
+        <v>929.3</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
@@ -9416,7 +13577,7 @@
         <v>45229</v>
       </c>
       <c r="B123">
-        <v>4014</v>
+        <v>939.50009999999997</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
@@ -9424,7 +13585,7 @@
         <v>45230</v>
       </c>
       <c r="B124">
-        <v>4044</v>
+        <v>933.4</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
@@ -9432,7 +13593,7 @@
         <v>45231</v>
       </c>
       <c r="B125">
-        <v>4078</v>
+        <v>942.3</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
@@ -9440,7 +13601,7 @@
         <v>45232</v>
       </c>
       <c r="B126">
-        <v>4156</v>
+        <v>958.50009999999997</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
@@ -9448,7 +13609,7 @@
         <v>45233</v>
       </c>
       <c r="B127">
-        <v>4166</v>
+        <v>977.8</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
@@ -9456,7 +13617,7 @@
         <v>45236</v>
       </c>
       <c r="B128">
-        <v>4145</v>
+        <v>986.3</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
@@ -9464,7 +13625,7 @@
         <v>45237</v>
       </c>
       <c r="B129">
-        <v>4139</v>
+        <v>984.1</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
@@ -9472,7 +13633,7 @@
         <v>45238</v>
       </c>
       <c r="B130">
-        <v>4166</v>
+        <v>977.4</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
@@ -9480,7 +13641,7 @@
         <v>45239</v>
       </c>
       <c r="B131">
-        <v>4215</v>
+        <v>967.9</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
@@ -9488,7 +13649,7 @@
         <v>45240</v>
       </c>
       <c r="B132">
-        <v>4183</v>
+        <v>974.50009999999997</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
@@ -9496,7 +13657,7 @@
         <v>45243</v>
       </c>
       <c r="B133">
-        <v>4217</v>
+        <v>974.20010000000002</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
@@ -9504,7 +13665,7 @@
         <v>45244</v>
       </c>
       <c r="B134">
-        <v>4283</v>
+        <v>999.6</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
@@ -9512,7 +13673,7 @@
         <v>45245</v>
       </c>
       <c r="B135">
-        <v>4303</v>
+        <v>1008.5</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
@@ -9520,7 +13681,7 @@
         <v>45246</v>
       </c>
       <c r="B136">
-        <v>4288</v>
+        <v>997.50009999999997</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
@@ -9528,7 +13689,7 @@
         <v>45247</v>
       </c>
       <c r="B137">
-        <v>4326</v>
+        <v>998.50009999999997</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
@@ -9536,7 +13697,7 @@
         <v>45250</v>
       </c>
       <c r="B138">
-        <v>4331</v>
+        <v>1010.5</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
@@ -9544,7 +13705,7 @@
         <v>45251</v>
       </c>
       <c r="B139">
-        <v>4320</v>
+        <v>1003.7</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
@@ -9552,7 +13713,7 @@
         <v>45252</v>
       </c>
       <c r="B140">
-        <v>4340</v>
+        <v>1001.6</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
@@ -9560,7 +13721,7 @@
         <v>45253</v>
       </c>
       <c r="B141">
-        <v>4350</v>
+        <v>1001.6</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
@@ -9568,7 +13729,7 @@
         <v>45254</v>
       </c>
       <c r="B142">
-        <v>4361</v>
+        <v>1001.9</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
@@ -9576,7 +13737,7 @@
         <v>45257</v>
       </c>
       <c r="B143">
-        <v>4344</v>
+        <v>997.9</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
@@ -9584,7 +13745,7 @@
         <v>45258</v>
       </c>
       <c r="B144">
-        <v>4333</v>
+        <v>1007.5</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
@@ -9592,7 +13753,7 @@
         <v>45259</v>
       </c>
       <c r="B145">
-        <v>4356</v>
+        <v>1000.4</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
@@ -9600,7 +13761,7 @@
         <v>45260</v>
       </c>
       <c r="B146">
-        <v>4367</v>
+        <v>1001.6</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
@@ -9608,7 +13769,7 @@
         <v>45261</v>
       </c>
       <c r="B147">
-        <v>4399</v>
+        <v>1006.1</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
@@ -9616,7 +13777,7 @@
         <v>45264</v>
       </c>
       <c r="B148">
-        <v>4399</v>
+        <v>995.00009999999997</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
@@ -9624,7 +13785,7 @@
         <v>45265</v>
       </c>
       <c r="B149">
-        <v>4435</v>
+        <v>989.50009999999997</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
@@ -9632,7 +13793,7 @@
         <v>45266</v>
       </c>
       <c r="B150">
-        <v>4473</v>
+        <v>987.8</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
@@ -9640,7 +13801,7 @@
         <v>45267</v>
       </c>
       <c r="B151">
-        <v>4456</v>
+        <v>992.3</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
@@ -9648,7 +13809,7 @@
         <v>45268</v>
       </c>
       <c r="B152">
-        <v>4508</v>
+        <v>989.00009999999997</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
@@ -9656,7 +13817,7 @@
         <v>45271</v>
       </c>
       <c r="B153">
-        <v>4529</v>
+        <v>994.3</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
@@ -9664,7 +13825,7 @@
         <v>45272</v>
       </c>
       <c r="B154">
-        <v>4521</v>
+        <v>994.00009999999997</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
@@ -9672,7 +13833,7 @@
         <v>45273</v>
       </c>
       <c r="B155">
-        <v>4514</v>
+        <v>1004.7</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
@@ -9680,7 +13841,7 @@
         <v>45274</v>
       </c>
       <c r="B156">
-        <v>4525</v>
+        <v>1019.3</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
@@ -9688,7 +13849,7 @@
         <v>45275</v>
       </c>
       <c r="B157">
-        <v>4536</v>
+        <v>1013.3</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
@@ -9696,7 +13857,7 @@
         <v>45278</v>
       </c>
       <c r="B158">
-        <v>4502</v>
+        <v>1012.7</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
@@ -9704,7 +13865,7 @@
         <v>45279</v>
       </c>
       <c r="B159">
-        <v>4521</v>
+        <v>1021.6</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
@@ -9712,7 +13873,7 @@
         <v>45280</v>
       </c>
       <c r="B160">
-        <v>4518</v>
+        <v>1002.4</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
@@ -9720,7 +13881,7 @@
         <v>45281</v>
       </c>
       <c r="B161">
-        <v>4503</v>
+        <v>1021.4</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
@@ -9728,805 +13889,828 @@
         <v>45282</v>
       </c>
       <c r="B162">
-        <v>4500</v>
+        <v>1015.8</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
-        <v>45287</v>
+        <v>45286</v>
       </c>
       <c r="B163">
-        <v>4507</v>
+        <v>1023.8</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
-        <v>45288</v>
+        <v>45287</v>
       </c>
       <c r="B164">
-        <v>4488</v>
+        <v>1029.9000000000001</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
-        <v>45289</v>
+        <v>45288</v>
       </c>
       <c r="B165">
-        <v>4485</v>
+        <v>1037.2</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
-        <v>45293</v>
+        <v>45289</v>
       </c>
       <c r="B166">
-        <v>4483</v>
+        <v>1038.0999999999999</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
-        <v>45294</v>
+        <v>45293</v>
       </c>
       <c r="B167">
-        <v>4416</v>
+        <v>1023.7</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
-        <v>45295</v>
+        <v>45294</v>
       </c>
       <c r="B168">
-        <v>4445</v>
+        <v>1018.9</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
-        <v>45296</v>
+        <v>45295</v>
       </c>
       <c r="B169">
-        <v>4433</v>
+        <v>1014.8</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
-        <v>45299</v>
+        <v>45296</v>
       </c>
       <c r="B170">
-        <v>4452</v>
+        <v>1015.4</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
-        <v>45300</v>
+        <v>45299</v>
       </c>
       <c r="B171">
-        <v>4436</v>
+        <v>1017.9</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
-        <v>45301</v>
+        <v>45300</v>
       </c>
       <c r="B172">
-        <v>4437</v>
+        <v>1003.1</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
-        <v>45302</v>
+        <v>45301</v>
       </c>
       <c r="B173">
-        <v>4408</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
-        <v>45303</v>
+        <v>45302</v>
       </c>
       <c r="B174">
-        <v>4442</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
-        <v>45306</v>
+        <v>45303</v>
       </c>
       <c r="B175">
-        <v>4423</v>
+        <v>1008.5</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
-        <v>45307</v>
+        <v>45306</v>
       </c>
       <c r="B176">
-        <v>4410</v>
+        <v>1008.5</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
-        <v>45308</v>
+        <v>45307</v>
       </c>
       <c r="B177">
-        <v>4367</v>
+        <v>983.00009999999997</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
-        <v>45309</v>
+        <v>45308</v>
       </c>
       <c r="B178">
-        <v>4417</v>
+        <v>969.00009999999997</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
-        <v>45310</v>
+        <v>45309</v>
       </c>
       <c r="B179">
-        <v>4412</v>
+        <v>976.70010000000002</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
-        <v>45313</v>
+        <v>45310</v>
       </c>
       <c r="B180">
-        <v>4449</v>
+        <v>986.50009999999997</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
-        <v>45314</v>
+        <v>45313</v>
       </c>
       <c r="B181">
-        <v>4433</v>
+        <v>978.20010000000002</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
-        <v>45315</v>
+        <v>45314</v>
       </c>
       <c r="B182">
-        <v>4531</v>
+        <v>986.70010000000002</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
-        <v>45316</v>
+        <v>45315</v>
       </c>
       <c r="B183">
-        <v>4549</v>
+        <v>997.20010000000002</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
-        <v>45317</v>
+        <v>45316</v>
       </c>
       <c r="B184">
-        <v>4602</v>
+        <v>998.20010000000002</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
-        <v>45320</v>
+        <v>45317</v>
       </c>
       <c r="B185">
-        <v>4605</v>
+        <v>998.9</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
-        <v>45321</v>
+        <v>45320</v>
       </c>
       <c r="B186">
-        <v>4629</v>
+        <v>999.50009999999997</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
-        <v>45322</v>
+        <v>45321</v>
       </c>
       <c r="B187">
-        <v>4612</v>
+        <v>991.3</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
-        <v>45323</v>
+        <v>45322</v>
       </c>
       <c r="B188">
-        <v>4596</v>
+        <v>985.1</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
-        <v>45324</v>
+        <v>45323</v>
       </c>
       <c r="B189">
-        <v>4617</v>
+        <v>994.00009999999997</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
-        <v>45327</v>
+        <v>45324</v>
       </c>
       <c r="B190">
-        <v>4614</v>
+        <v>991.8</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
-        <v>45328</v>
+        <v>45327</v>
       </c>
       <c r="B191">
-        <v>4655</v>
+        <v>992.70010000000002</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
-        <v>45329</v>
+        <v>45328</v>
       </c>
       <c r="B192">
-        <v>4642</v>
+        <v>1015.5</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
-        <v>45330</v>
+        <v>45329</v>
       </c>
       <c r="B193">
-        <v>4671</v>
+        <v>1015.7</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
-        <v>45331</v>
+        <v>45330</v>
       </c>
       <c r="B194">
-        <v>4681</v>
+        <v>1009.1</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
-        <v>45334</v>
+        <v>45331</v>
       </c>
       <c r="B195">
-        <v>4712</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
-        <v>45335</v>
+        <v>45334</v>
       </c>
       <c r="B196">
-        <v>4654</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
-        <v>45336</v>
+        <v>45335</v>
       </c>
       <c r="B197">
-        <v>4675</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
-        <v>45337</v>
+        <v>45336</v>
       </c>
       <c r="B198">
-        <v>4705</v>
+        <v>1017.2</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
-        <v>45338</v>
+        <v>45337</v>
       </c>
       <c r="B199">
-        <v>4729</v>
+        <v>1021.5</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
-        <v>45341</v>
+        <v>45338</v>
       </c>
       <c r="B200">
-        <v>4728</v>
+        <v>1026.0999999999999</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
-        <v>45342</v>
+        <v>45341</v>
       </c>
       <c r="B201">
-        <v>4728</v>
+        <v>1024.7</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
-        <v>45343</v>
+        <v>45342</v>
       </c>
       <c r="B202">
-        <v>4739</v>
+        <v>1028.2</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
-        <v>45344</v>
+        <v>45343</v>
       </c>
       <c r="B203">
-        <v>4820</v>
+        <v>1029.5</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
-        <v>45345</v>
+        <v>45344</v>
       </c>
       <c r="B204">
-        <v>4836</v>
+        <v>1039.9000000000001</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
-        <v>45348</v>
+        <v>45345</v>
       </c>
       <c r="B205">
-        <v>4826</v>
+        <v>1038.8</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
-        <v>45349</v>
+        <v>45348</v>
       </c>
       <c r="B206">
-        <v>4850</v>
+        <v>1034.9000000000001</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
-        <v>45350</v>
+        <v>45349</v>
       </c>
       <c r="B207">
-        <v>4845</v>
+        <v>1036.2</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
-        <v>45351</v>
+        <v>45350</v>
       </c>
       <c r="B208">
-        <v>4847</v>
+        <v>1022.7</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
-        <v>45352</v>
+        <v>45351</v>
       </c>
       <c r="B209">
-        <v>4854</v>
+        <v>1023.2</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
-        <v>45355</v>
+        <v>45352</v>
       </c>
       <c r="B210">
-        <v>4871</v>
+        <v>1036.0999999999999</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
-        <v>45356</v>
+        <v>45355</v>
       </c>
       <c r="B211">
-        <v>4852</v>
+        <v>1034.3</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
-        <v>45357</v>
+        <v>45356</v>
       </c>
       <c r="B212">
-        <v>4877</v>
+        <v>1024.8</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
-        <v>45358</v>
+        <v>45357</v>
       </c>
       <c r="B213">
-        <v>4937</v>
+        <v>1040.0999999999999</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
-        <v>45359</v>
+        <v>45358</v>
       </c>
       <c r="B214">
-        <v>4923</v>
+        <v>1046.5</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
-        <v>45362</v>
+        <v>45359</v>
       </c>
       <c r="B215">
-        <v>4890</v>
+        <v>1045.4000000000001</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
-        <v>45363</v>
+        <v>45362</v>
       </c>
       <c r="B216">
-        <v>4944</v>
+        <v>1048.7</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
-        <v>45364</v>
+        <v>45363</v>
       </c>
       <c r="B217">
-        <v>4960</v>
+        <v>1060.4000000000001</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
-        <v>45365</v>
+        <v>45364</v>
       </c>
       <c r="B218">
-        <v>4948</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
-        <v>45366</v>
+        <v>45365</v>
       </c>
       <c r="B219">
-        <v>4955</v>
+        <v>1049.9000000000001</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
-        <v>45369</v>
+        <v>45366</v>
       </c>
       <c r="B220">
-        <v>4942</v>
+        <v>1042.7</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
-        <v>45370</v>
+        <v>45369</v>
       </c>
       <c r="B221">
-        <v>4963</v>
+        <v>1044.8</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
-        <v>45371</v>
+        <v>45370</v>
       </c>
       <c r="B222">
-        <v>4959</v>
+        <v>1039.3</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
-        <v>45372</v>
+        <v>45371</v>
       </c>
       <c r="B223">
-        <v>5011</v>
+        <v>1050.7</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
-        <v>45373</v>
+        <v>45372</v>
       </c>
       <c r="B224">
-        <v>4993</v>
+        <v>1051.4000000000001</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
-        <v>45376</v>
+        <v>45373</v>
       </c>
       <c r="B225">
-        <v>5007</v>
+        <v>1043.9000000000001</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
-        <v>45377</v>
+        <v>45376</v>
       </c>
       <c r="B226">
-        <v>5030</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
-        <v>45378</v>
+        <v>45377</v>
       </c>
       <c r="B227">
-        <v>5039</v>
+        <v>1043.5</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
-        <v>45379</v>
+        <v>45378</v>
       </c>
       <c r="B228">
-        <v>5045</v>
+        <v>1044.7</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
-        <v>45384</v>
+        <v>45379</v>
       </c>
       <c r="B229">
-        <v>5000</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
-        <v>45385</v>
+        <v>45383</v>
       </c>
       <c r="B230">
-        <v>5025</v>
+        <v>1050.9000000000001</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
-        <v>45386</v>
+        <v>45384</v>
       </c>
       <c r="B231">
-        <v>5026</v>
+        <v>1053.2</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
-        <v>45387</v>
+        <v>45385</v>
       </c>
       <c r="B232">
-        <v>4964</v>
+        <v>1053.8</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
-        <v>45390</v>
+        <v>45386</v>
       </c>
       <c r="B233">
-        <v>5000</v>
+        <v>1050.0999999999999</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
-        <v>45391</v>
+        <v>45387</v>
       </c>
       <c r="B234">
-        <v>4943</v>
+        <v>1052.9000000000001</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
-        <v>45392</v>
+        <v>45390</v>
       </c>
       <c r="B235">
-        <v>4951</v>
+        <v>1059.8</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
-        <v>45393</v>
+        <v>45391</v>
       </c>
       <c r="B236">
-        <v>4917</v>
+        <v>1066.8</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
-        <v>45394</v>
+        <v>45392</v>
       </c>
       <c r="B237">
-        <v>4900</v>
+        <v>1051.5999999999999</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
-        <v>45397</v>
+        <v>45393</v>
       </c>
       <c r="B238">
-        <v>4932</v>
+        <v>1057.5</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
-        <v>45398</v>
+        <v>45394</v>
       </c>
       <c r="B239">
-        <v>4864</v>
+        <v>1032.5</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
-        <v>45399</v>
+        <v>45397</v>
       </c>
       <c r="B240">
-        <v>4876</v>
+        <v>1025.8</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
-        <v>45400</v>
+        <v>45398</v>
       </c>
       <c r="B241">
-        <v>4891</v>
+        <v>1011.9</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
-        <v>45401</v>
+        <v>45399</v>
       </c>
       <c r="B242">
-        <v>4869</v>
+        <v>1010.2</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
-        <v>45404</v>
+        <v>45400</v>
       </c>
       <c r="B243">
-        <v>4894</v>
+        <v>1014.5</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
-        <v>45405</v>
+        <v>45401</v>
       </c>
       <c r="B244">
-        <v>4975</v>
+        <v>1009.5</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
-        <v>45406</v>
+        <v>45404</v>
       </c>
       <c r="B245">
-        <v>4951</v>
+        <v>1020.8</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
-        <v>45407</v>
+        <v>45405</v>
       </c>
       <c r="B246">
-        <v>4904</v>
+        <v>1028.7</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
-        <v>45408</v>
+        <v>45406</v>
       </c>
       <c r="B247">
-        <v>4980</v>
+        <v>1032.8</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
-        <v>45411</v>
+        <v>45407</v>
       </c>
       <c r="B248">
-        <v>4958</v>
+        <v>1034.3</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
-        <v>45412</v>
+        <v>45408</v>
       </c>
       <c r="B249">
-        <v>4897</v>
+        <v>1045.9000000000001</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
-        <v>45414</v>
+        <v>45411</v>
       </c>
       <c r="B250">
-        <v>4871</v>
+        <v>1056.3</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
-        <v>45415</v>
+        <v>45412</v>
       </c>
       <c r="B251">
-        <v>4897</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
-        <v>45418</v>
+        <v>45413</v>
       </c>
       <c r="B252">
-        <v>4937</v>
+        <v>1042.5</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
-        <v>45419</v>
+        <v>45414</v>
       </c>
       <c r="B253">
-        <v>4999</v>
+        <v>1069.7</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
-        <v>45420</v>
+        <v>45415</v>
       </c>
       <c r="B254">
-        <v>5021</v>
+        <v>1079.4000000000001</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
-        <v>45421</v>
+        <v>45418</v>
       </c>
       <c r="B255">
-        <v>5045</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
-        <v>45422</v>
+        <v>45419</v>
       </c>
       <c r="B256">
-        <v>5073</v>
+        <v>1072.9000000000001</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
-        <v>45425</v>
+        <v>45420</v>
       </c>
       <c r="B257">
-        <v>5074</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
+        <v>45421</v>
+      </c>
+      <c r="B258">
+        <v>1075.2</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A259" s="1">
+        <v>45422</v>
+      </c>
+      <c r="B259">
+        <v>1077.7</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A260" s="1">
+        <v>45425</v>
+      </c>
+      <c r="B260">
+        <v>1085.5</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A261" s="1">
         <v>45426</v>
       </c>
-      <c r="B258">
-        <v>5068</v>
-      </c>
-    </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A259" s="1"/>
+      <c r="B261">
+        <v>1089.199951171875</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D133E401-421F-4FC4-9AB7-5381BE081CDA}">
-  <dimension ref="A1:B259"/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FAF0632-F253-48AB-9AF2-9A1F91C0B40F}">
+  <sheetPr codeName="Sheet8"/>
+  <dimension ref="A1:B248"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'SXXP Index'", "dropna(px_last(start=-1Y)) as #PX_LAST","cols=2;rows=259")</f>
+        <f>_xll.BQL("'NKA Index'", "dropna(px_last(start='-1Y')) as #PX_LAST","cols=2;rows=248")</f>
         <v/>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -10542,7 +14726,7 @@
         <v>45061</v>
       </c>
       <c r="B3">
-        <v>466.67</v>
+        <v>29060</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -10550,7 +14734,7 @@
         <v>45062</v>
       </c>
       <c r="B4">
-        <v>464.7</v>
+        <v>29230</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -10558,7 +14742,7 @@
         <v>45063</v>
       </c>
       <c r="B5">
-        <v>463.98</v>
+        <v>29440</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -10566,7 +14750,7 @@
         <v>45064</v>
       </c>
       <c r="B6">
-        <v>465.79</v>
+        <v>29980</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -10574,7 +14758,7 @@
         <v>45065</v>
       </c>
       <c r="B7">
-        <v>468.85</v>
+        <v>30280</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -10582,7 +14766,7 @@
         <v>45068</v>
       </c>
       <c r="B8">
-        <v>468.91</v>
+        <v>30410</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -10590,7 +14774,7 @@
         <v>45069</v>
       </c>
       <c r="B9">
-        <v>466.1</v>
+        <v>30240</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -10598,7 +14782,7 @@
         <v>45070</v>
       </c>
       <c r="B10">
-        <v>457.65</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -10606,7 +14790,7 @@
         <v>45071</v>
       </c>
       <c r="B11">
-        <v>456.18</v>
+        <v>30200</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -10614,7 +14798,7 @@
         <v>45072</v>
       </c>
       <c r="B12">
-        <v>461.41</v>
+        <v>30330</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -10622,7 +14806,7 @@
         <v>45075</v>
       </c>
       <c r="B13">
-        <v>460.87</v>
+        <v>30670</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -10630,7 +14814,7 @@
         <v>45076</v>
       </c>
       <c r="B14">
-        <v>456.63</v>
+        <v>30750</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -10638,7 +14822,7 @@
         <v>45077</v>
       </c>
       <c r="B15">
-        <v>451.76</v>
+        <v>30240</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -10646,7 +14830,7 @@
         <v>45078</v>
       </c>
       <c r="B16">
-        <v>455.27</v>
+        <v>30530</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -10654,7 +14838,7 @@
         <v>45079</v>
       </c>
       <c r="B17">
-        <v>462.15</v>
+        <v>30920</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -10662,7 +14846,7 @@
         <v>45082</v>
       </c>
       <c r="B18">
-        <v>459.93</v>
+        <v>31610</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -10670,7 +14854,7 @@
         <v>45083</v>
       </c>
       <c r="B19">
-        <v>461.68</v>
+        <v>31800</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -10678,7 +14862,7 @@
         <v>45084</v>
       </c>
       <c r="B20">
-        <v>460.8</v>
+        <v>31250</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -10686,7 +14870,7 @@
         <v>45085</v>
       </c>
       <c r="B21">
-        <v>460.7</v>
+        <v>31070</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -10694,7 +14878,7 @@
         <v>45086</v>
       </c>
       <c r="B22">
-        <v>460.01</v>
+        <v>31630</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -10702,7 +14886,7 @@
         <v>45089</v>
       </c>
       <c r="B23">
-        <v>460.73</v>
+        <v>31850</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -10710,7 +14894,7 @@
         <v>45090</v>
       </c>
       <c r="B24">
-        <v>463.27</v>
+        <v>32460</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -10718,7 +14902,7 @@
         <v>45091</v>
       </c>
       <c r="B25">
-        <v>464.94</v>
+        <v>32980</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -10726,7 +14910,7 @@
         <v>45092</v>
       </c>
       <c r="B26">
-        <v>464.33</v>
+        <v>32850</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -10734,7 +14918,7 @@
         <v>45093</v>
       </c>
       <c r="B27">
-        <v>466.8</v>
+        <v>33080</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -10742,7 +14926,7 @@
         <v>45096</v>
       </c>
       <c r="B28">
-        <v>462.04</v>
+        <v>32850</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -10750,7 +14934,7 @@
         <v>45097</v>
       </c>
       <c r="B29">
-        <v>459.32</v>
+        <v>32770</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -10758,7 +14942,7 @@
         <v>45098</v>
       </c>
       <c r="B30">
-        <v>457.01</v>
+        <v>33000</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -10766,7 +14950,7 @@
         <v>45099</v>
       </c>
       <c r="B31">
-        <v>454.7</v>
+        <v>32610</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -10774,7 +14958,7 @@
         <v>45100</v>
       </c>
       <c r="B32">
-        <v>453.14</v>
+        <v>32110</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -10782,7 +14966,7 @@
         <v>45103</v>
       </c>
       <c r="B33">
-        <v>452.68</v>
+        <v>32090</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -10790,7 +14974,7 @@
         <v>45104</v>
       </c>
       <c r="B34">
-        <v>452.9</v>
+        <v>32000</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -10798,7 +14982,7 @@
         <v>45105</v>
       </c>
       <c r="B35">
-        <v>456.05</v>
+        <v>32570</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -10806,7 +14990,7 @@
         <v>45106</v>
       </c>
       <c r="B36">
-        <v>456.64</v>
+        <v>32620</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -10814,7 +14998,7 @@
         <v>45107</v>
       </c>
       <c r="B37">
-        <v>461.93</v>
+        <v>32610</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -10822,7 +15006,7 @@
         <v>45110</v>
       </c>
       <c r="B38">
-        <v>460.98</v>
+        <v>33080</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -10830,7 +15014,7 @@
         <v>45111</v>
       </c>
       <c r="B39">
-        <v>461.3</v>
+        <v>32760</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -10838,7 +15022,7 @@
         <v>45112</v>
       </c>
       <c r="B40">
-        <v>457.94</v>
+        <v>32750</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -10846,7 +15030,7 @@
         <v>45113</v>
       </c>
       <c r="B41">
-        <v>447.22</v>
+        <v>32170</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -10854,7 +15038,7 @@
         <v>45114</v>
       </c>
       <c r="B42">
-        <v>447.65</v>
+        <v>31880</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -10862,7 +15046,7 @@
         <v>45117</v>
       </c>
       <c r="B43">
-        <v>448.47</v>
+        <v>31580</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -10870,7 +15054,7 @@
         <v>45118</v>
       </c>
       <c r="B44">
-        <v>451.72</v>
+        <v>31690</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -10878,7 +15062,7 @@
         <v>45119</v>
       </c>
       <c r="B45">
-        <v>458.54</v>
+        <v>31380</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -10886,7 +15070,7 @@
         <v>45120</v>
       </c>
       <c r="B46">
-        <v>461.36</v>
+        <v>31970</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -10894,1703 +15078,1615 @@
         <v>45121</v>
       </c>
       <c r="B47">
-        <v>460.83</v>
+        <v>31780</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>45124</v>
+        <v>45125</v>
       </c>
       <c r="B48">
-        <v>457.92</v>
+        <v>31810</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>45125</v>
+        <v>45126</v>
       </c>
       <c r="B49">
-        <v>460.76</v>
+        <v>32410</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>45126</v>
+        <v>45127</v>
       </c>
       <c r="B50">
-        <v>461.97</v>
+        <v>31850</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>45127</v>
+        <v>45128</v>
       </c>
       <c r="B51">
-        <v>463.93</v>
+        <v>31710</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>45128</v>
+        <v>45131</v>
       </c>
       <c r="B52">
-        <v>465.4</v>
+        <v>32040</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>45131</v>
+        <v>45132</v>
       </c>
       <c r="B53">
-        <v>465.68</v>
+        <v>32070</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>45132</v>
+        <v>45133</v>
       </c>
       <c r="B54">
-        <v>467.92</v>
+        <v>32030</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>45133</v>
+        <v>45134</v>
       </c>
       <c r="B55">
-        <v>465.46</v>
+        <v>32350</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>45134</v>
+        <v>45135</v>
       </c>
       <c r="B56">
-        <v>471.74</v>
+        <v>32200</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>45135</v>
+        <v>45138</v>
       </c>
       <c r="B57">
-        <v>470.78</v>
+        <v>32690</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>45138</v>
+        <v>45139</v>
       </c>
       <c r="B58">
-        <v>471.35</v>
+        <v>32850</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>45139</v>
+        <v>45140</v>
       </c>
       <c r="B59">
-        <v>467.16</v>
+        <v>32060</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>45140</v>
+        <v>45141</v>
       </c>
       <c r="B60">
-        <v>460.84</v>
+        <v>31630</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>45141</v>
+        <v>45142</v>
       </c>
       <c r="B61">
-        <v>457.93</v>
+        <v>31600</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>45142</v>
+        <v>45145</v>
       </c>
       <c r="B62">
-        <v>459.28</v>
+        <v>31770</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>45145</v>
+        <v>45146</v>
       </c>
       <c r="B63">
-        <v>459.68</v>
+        <v>31740</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>45146</v>
+        <v>45147</v>
       </c>
       <c r="B64">
-        <v>458.6</v>
+        <v>31670</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>45147</v>
+        <v>45148</v>
       </c>
       <c r="B65">
-        <v>460.58</v>
+        <v>32000</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>45148</v>
+        <v>45152</v>
       </c>
       <c r="B66">
-        <v>464.23</v>
+        <v>31540</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>45149</v>
+        <v>45153</v>
       </c>
       <c r="B67">
-        <v>459.17</v>
+        <v>31700</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>45152</v>
+        <v>45154</v>
       </c>
       <c r="B68">
-        <v>459.86</v>
+        <v>31180</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>45153</v>
+        <v>45155</v>
       </c>
       <c r="B69">
-        <v>455.57</v>
+        <v>31120</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>45154</v>
+        <v>45156</v>
       </c>
       <c r="B70">
-        <v>455.29</v>
+        <v>30920</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>45155</v>
+        <v>45159</v>
       </c>
       <c r="B71">
-        <v>451.19</v>
+        <v>30950</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>45156</v>
+        <v>45160</v>
       </c>
       <c r="B72">
-        <v>448.44</v>
+        <v>31360</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>45159</v>
+        <v>45161</v>
       </c>
       <c r="B73">
-        <v>448.66</v>
+        <v>31410</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>45160</v>
+        <v>45162</v>
       </c>
       <c r="B74">
-        <v>451.7</v>
+        <v>31670</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>45161</v>
+        <v>45163</v>
       </c>
       <c r="B75">
-        <v>453.45</v>
+        <v>31080</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>45162</v>
+        <v>45166</v>
       </c>
       <c r="B76">
-        <v>451.57</v>
+        <v>31620</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>45163</v>
+        <v>45167</v>
       </c>
       <c r="B77">
-        <v>451.39</v>
+        <v>31660</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>45166</v>
+        <v>45168</v>
       </c>
       <c r="B78">
-        <v>455.41</v>
+        <v>31730</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>45167</v>
+        <v>45169</v>
       </c>
       <c r="B79">
-        <v>459.83</v>
+        <v>32060</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>45168</v>
+        <v>45170</v>
       </c>
       <c r="B80">
-        <v>459.13</v>
+        <v>32150</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>45169</v>
+        <v>45173</v>
       </c>
       <c r="B81">
-        <v>458.19</v>
+        <v>32430</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="B82">
-        <v>458.13</v>
+        <v>32420</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <v>45173</v>
+        <v>45175</v>
       </c>
       <c r="B83">
-        <v>457.96</v>
+        <v>32690</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>45174</v>
+        <v>45176</v>
       </c>
       <c r="B84">
-        <v>456.9</v>
+        <v>32450</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="B85">
-        <v>454.3</v>
+        <v>32100</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <v>45176</v>
+        <v>45180</v>
       </c>
       <c r="B86">
-        <v>453.67</v>
+        <v>31960</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
-        <v>45177</v>
+        <v>45181</v>
       </c>
       <c r="B87">
-        <v>454.66</v>
+        <v>32310</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
-        <v>45180</v>
+        <v>45182</v>
       </c>
       <c r="B88">
-        <v>456.21</v>
+        <v>32140</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
-        <v>45181</v>
+        <v>45183</v>
       </c>
       <c r="B89">
-        <v>455.4</v>
+        <v>32670</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="B90">
-        <v>453.94</v>
+        <v>32980</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <v>45183</v>
+        <v>45188</v>
       </c>
       <c r="B91">
-        <v>460.86</v>
+        <v>32740</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>45184</v>
+        <v>45189</v>
       </c>
       <c r="B92">
-        <v>461.93</v>
+        <v>32590</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <v>45187</v>
+        <v>45190</v>
       </c>
       <c r="B93">
-        <v>456.72</v>
+        <v>32110</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
-        <v>45188</v>
+        <v>45191</v>
       </c>
       <c r="B94">
-        <v>456.52</v>
+        <v>31970</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
-        <v>45189</v>
+        <v>45194</v>
       </c>
       <c r="B95">
-        <v>460.66</v>
+        <v>32180</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
-        <v>45190</v>
+        <v>45195</v>
       </c>
       <c r="B96">
-        <v>454.67</v>
+        <v>31780</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <v>45191</v>
+        <v>45196</v>
       </c>
       <c r="B97">
-        <v>453.26</v>
+        <v>31850</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>45194</v>
+        <v>45197</v>
       </c>
       <c r="B98">
-        <v>450.44</v>
+        <v>31550</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>45195</v>
+        <v>45198</v>
       </c>
       <c r="B99">
-        <v>447.7</v>
+        <v>31560</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
-        <v>45196</v>
+        <v>45201</v>
       </c>
       <c r="B100">
-        <v>446.91</v>
+        <v>31520</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <v>45197</v>
+        <v>45202</v>
       </c>
       <c r="B101">
-        <v>448.5</v>
+        <v>30900</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
-        <v>45198</v>
+        <v>45203</v>
       </c>
       <c r="B102">
-        <v>450.22</v>
+        <v>30100</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
-        <v>45201</v>
+        <v>45204</v>
       </c>
       <c r="B103">
-        <v>445.59</v>
+        <v>30720</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
-        <v>45202</v>
+        <v>45205</v>
       </c>
       <c r="B104">
-        <v>440.7</v>
+        <v>30720</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
-        <v>45203</v>
+        <v>45209</v>
       </c>
       <c r="B105">
-        <v>440.08</v>
+        <v>31430</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
-        <v>45204</v>
+        <v>45210</v>
       </c>
       <c r="B106">
-        <v>441.31</v>
+        <v>31590</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
-        <v>45205</v>
+        <v>45211</v>
       </c>
       <c r="B107">
-        <v>444.93</v>
+        <v>32330</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="B108">
-        <v>443.79</v>
+        <v>31940</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
-        <v>45209</v>
+        <v>45215</v>
       </c>
       <c r="B109">
-        <v>452.48</v>
+        <v>31370</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
-        <v>45210</v>
+        <v>45216</v>
       </c>
       <c r="B110">
-        <v>453.16</v>
+        <v>31730</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
-        <v>45211</v>
+        <v>45217</v>
       </c>
       <c r="B111">
-        <v>453.63</v>
+        <v>31730</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
-        <v>45212</v>
+        <v>45218</v>
       </c>
       <c r="B112">
-        <v>449.18</v>
+        <v>31090</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
-        <v>45215</v>
+        <v>45219</v>
       </c>
       <c r="B113">
-        <v>450.2</v>
+        <v>30910</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
-        <v>45216</v>
+        <v>45222</v>
       </c>
       <c r="B114">
-        <v>449.76</v>
+        <v>30690</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
-        <v>45217</v>
+        <v>45223</v>
       </c>
       <c r="B115">
-        <v>445.02</v>
+        <v>30840</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
-        <v>45218</v>
+        <v>45224</v>
       </c>
       <c r="B116">
-        <v>439.73</v>
+        <v>30930</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
-        <v>45219</v>
+        <v>45225</v>
       </c>
       <c r="B117">
-        <v>433.73</v>
+        <v>30290</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
-        <v>45222</v>
+        <v>45226</v>
       </c>
       <c r="B118">
-        <v>433.18</v>
+        <v>30730</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
-        <v>45223</v>
+        <v>45229</v>
       </c>
       <c r="B119">
-        <v>435.09</v>
+        <v>30390</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
-        <v>45224</v>
+        <v>45230</v>
       </c>
       <c r="B120">
-        <v>435.27</v>
+        <v>30540</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
-        <v>45225</v>
+        <v>45231</v>
       </c>
       <c r="B121">
-        <v>433.2</v>
+        <v>31290</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
-        <v>45226</v>
+        <v>45232</v>
       </c>
       <c r="B122">
-        <v>429.58</v>
+        <v>31570</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
-        <v>45229</v>
+        <v>45236</v>
       </c>
       <c r="B123">
-        <v>431.12</v>
+        <v>32360</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
-        <v>45230</v>
+        <v>45237</v>
       </c>
       <c r="B124">
-        <v>433.66</v>
+        <v>31960</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
-        <v>45231</v>
+        <v>45238</v>
       </c>
       <c r="B125">
-        <v>436.57</v>
+        <v>31820</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
-        <v>45232</v>
+        <v>45239</v>
       </c>
       <c r="B126">
-        <v>443.47</v>
+        <v>32280</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
-        <v>45233</v>
+        <v>45240</v>
       </c>
       <c r="B127">
-        <v>444.24</v>
+        <v>32250</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
-        <v>45236</v>
+        <v>45243</v>
       </c>
       <c r="B128">
-        <v>443.52</v>
+        <v>32230</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
-        <v>45237</v>
+        <v>45244</v>
       </c>
       <c r="B129">
-        <v>442.81</v>
+        <v>32360</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
-        <v>45238</v>
+        <v>45245</v>
       </c>
       <c r="B130">
-        <v>444.07</v>
+        <v>33100</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
-        <v>45239</v>
+        <v>45246</v>
       </c>
       <c r="B131">
-        <v>447.8</v>
+        <v>33100</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
-        <v>45240</v>
+        <v>45247</v>
       </c>
       <c r="B132">
-        <v>443.31</v>
+        <v>33250</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
-        <v>45243</v>
+        <v>45250</v>
       </c>
       <c r="B133">
-        <v>446.62</v>
+        <v>32970</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
-        <v>45244</v>
+        <v>45251</v>
       </c>
       <c r="B134">
-        <v>452.6</v>
+        <v>33000</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
-        <v>45245</v>
+        <v>45252</v>
       </c>
       <c r="B135">
-        <v>454.52</v>
+        <v>33090</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
-        <v>45246</v>
+        <v>45254</v>
       </c>
       <c r="B136">
-        <v>451.27</v>
+        <v>33250</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
-        <v>45247</v>
+        <v>45257</v>
       </c>
       <c r="B137">
-        <v>455.82</v>
+        <v>33090</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
-        <v>45250</v>
+        <v>45258</v>
       </c>
       <c r="B138">
-        <v>456.26</v>
+        <v>33040</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
-        <v>45251</v>
+        <v>45259</v>
       </c>
       <c r="B139">
-        <v>455.85</v>
+        <v>32930</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
-        <v>45252</v>
+        <v>45260</v>
       </c>
       <c r="B140">
-        <v>457.24</v>
+        <v>33150</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
-        <v>45253</v>
+        <v>45261</v>
       </c>
       <c r="B141">
-        <v>458.47</v>
+        <v>33080</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
-        <v>45254</v>
+        <v>45264</v>
       </c>
       <c r="B142">
-        <v>459.98</v>
+        <v>32820</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
-        <v>45257</v>
+        <v>45265</v>
       </c>
       <c r="B143">
-        <v>458.41</v>
+        <v>32440</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
-        <v>45258</v>
+        <v>45266</v>
       </c>
       <c r="B144">
-        <v>457.04</v>
+        <v>33110</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
-        <v>45259</v>
+        <v>45267</v>
       </c>
       <c r="B145">
-        <v>459.1</v>
+        <v>32670</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
-        <v>45260</v>
+        <v>45268</v>
       </c>
       <c r="B146">
-        <v>461.61</v>
+        <v>31910</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
-        <v>45261</v>
+        <v>45271</v>
       </c>
       <c r="B147">
-        <v>466.2</v>
+        <v>32510</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
-        <v>45264</v>
+        <v>45272</v>
       </c>
       <c r="B148">
-        <v>465.78</v>
+        <v>32470</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
-        <v>45265</v>
+        <v>45273</v>
       </c>
       <c r="B149">
-        <v>467.62</v>
+        <v>32570</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
-        <v>45266</v>
+        <v>45274</v>
       </c>
       <c r="B150">
-        <v>470.06</v>
+        <v>32280</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
-        <v>45267</v>
+        <v>45275</v>
       </c>
       <c r="B151">
-        <v>468.78</v>
+        <v>32630</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
-        <v>45268</v>
+        <v>45278</v>
       </c>
       <c r="B152">
-        <v>472.26</v>
+        <v>32400</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
-        <v>45271</v>
+        <v>45279</v>
       </c>
       <c r="B153">
-        <v>473.7</v>
+        <v>32880</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
-        <v>45272</v>
+        <v>45280</v>
       </c>
       <c r="B154">
-        <v>472.72</v>
+        <v>33370</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
-        <v>45273</v>
+        <v>45281</v>
       </c>
       <c r="B155">
-        <v>472.46</v>
+        <v>32850</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
-        <v>45274</v>
+        <v>45282</v>
       </c>
       <c r="B156">
-        <v>476.57</v>
+        <v>32810</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
-        <v>45275</v>
+        <v>45285</v>
       </c>
       <c r="B157">
-        <v>476.61</v>
+        <v>32900</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
-        <v>45278</v>
+        <v>45286</v>
       </c>
       <c r="B158">
-        <v>475.32</v>
+        <v>32960</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
-        <v>45279</v>
+        <v>45287</v>
       </c>
       <c r="B159">
-        <v>477.04</v>
+        <v>33350</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
-        <v>45280</v>
+        <v>45288</v>
       </c>
       <c r="B160">
-        <v>477.94</v>
+        <v>33220</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
-        <v>45281</v>
+        <v>45289</v>
       </c>
       <c r="B161">
-        <v>476.94</v>
+        <v>33190</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
-        <v>45282</v>
+        <v>45295</v>
       </c>
       <c r="B162">
-        <v>477.6</v>
+        <v>32980</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
-        <v>45287</v>
+        <v>45296</v>
       </c>
       <c r="B163">
-        <v>478.62</v>
+        <v>33060</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
-        <v>45288</v>
+        <v>45300</v>
       </c>
       <c r="B164">
-        <v>478.08</v>
+        <v>33520</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
-        <v>45289</v>
+        <v>45301</v>
       </c>
       <c r="B165">
-        <v>478.99</v>
+        <v>34200</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
-        <v>45293</v>
+        <v>45302</v>
       </c>
       <c r="B166">
-        <v>478.51</v>
+        <v>34980</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
-        <v>45294</v>
+        <v>45303</v>
       </c>
       <c r="B167">
-        <v>474.4</v>
+        <v>35340</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
-        <v>45295</v>
+        <v>45306</v>
       </c>
       <c r="B168">
-        <v>477.68</v>
+        <v>35720</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
-        <v>45296</v>
+        <v>45307</v>
       </c>
       <c r="B169">
-        <v>476.38</v>
+        <v>35390</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
-        <v>45299</v>
+        <v>45308</v>
       </c>
       <c r="B170">
-        <v>478.18</v>
+        <v>35280</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
-        <v>45300</v>
+        <v>45309</v>
       </c>
       <c r="B171">
-        <v>477.26</v>
+        <v>35320</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
-        <v>45301</v>
+        <v>45310</v>
       </c>
       <c r="B172">
-        <v>476.42</v>
+        <v>35740</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
-        <v>45302</v>
+        <v>45313</v>
       </c>
       <c r="B173">
-        <v>472.77</v>
+        <v>36330</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
-        <v>45303</v>
+        <v>45314</v>
       </c>
       <c r="B174">
-        <v>476.76</v>
+        <v>36280</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
-        <v>45306</v>
+        <v>45315</v>
       </c>
       <c r="B175">
-        <v>474.19</v>
+        <v>35990</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
-        <v>45307</v>
+        <v>45316</v>
       </c>
       <c r="B176">
-        <v>473.06</v>
+        <v>35950</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
-        <v>45308</v>
+        <v>45317</v>
       </c>
       <c r="B177">
-        <v>467.71</v>
+        <v>35420</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
-        <v>45309</v>
+        <v>45320</v>
       </c>
       <c r="B178">
-        <v>470.45</v>
+        <v>35770</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
-        <v>45310</v>
+        <v>45321</v>
       </c>
       <c r="B179">
-        <v>469.24</v>
+        <v>35740</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
-        <v>45313</v>
+        <v>45322</v>
       </c>
       <c r="B180">
-        <v>472.86</v>
+        <v>36110</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
-        <v>45314</v>
+        <v>45323</v>
       </c>
       <c r="B181">
-        <v>471.53</v>
+        <v>35660</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
-        <v>45315</v>
+        <v>45324</v>
       </c>
       <c r="B182">
-        <v>477.09</v>
+        <v>35840</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
-        <v>45316</v>
+        <v>45327</v>
       </c>
       <c r="B183">
-        <v>478.53</v>
+        <v>36140</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
-        <v>45317</v>
+        <v>45328</v>
       </c>
       <c r="B184">
-        <v>483.84</v>
+        <v>35810</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
-        <v>45320</v>
+        <v>45329</v>
       </c>
       <c r="B185">
-        <v>484.84</v>
+        <v>35870</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
-        <v>45321</v>
+        <v>45330</v>
       </c>
       <c r="B186">
-        <v>485.63</v>
+        <v>36600</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
-        <v>45322</v>
+        <v>45331</v>
       </c>
       <c r="B187">
-        <v>485.67</v>
+        <v>36630</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
-        <v>45323</v>
+        <v>45335</v>
       </c>
       <c r="B188">
-        <v>483.86</v>
+        <v>37830</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
-        <v>45324</v>
+        <v>45336</v>
       </c>
       <c r="B189">
-        <v>483.93</v>
+        <v>37500</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
-        <v>45327</v>
+        <v>45337</v>
       </c>
       <c r="B190">
-        <v>483.69</v>
+        <v>37870</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
-        <v>45328</v>
+        <v>45338</v>
       </c>
       <c r="B191">
-        <v>486.76</v>
+        <v>38340</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
-        <v>45329</v>
+        <v>45341</v>
       </c>
       <c r="B192">
-        <v>485.63</v>
+        <v>38250</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
-        <v>45330</v>
+        <v>45342</v>
       </c>
       <c r="B193">
-        <v>485.27</v>
+        <v>38240</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
-        <v>45331</v>
+        <v>45343</v>
       </c>
       <c r="B194">
-        <v>484.83</v>
+        <v>38050</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
-        <v>45334</v>
+        <v>45344</v>
       </c>
       <c r="B195">
-        <v>487.46</v>
+        <v>38860</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
-        <v>45335</v>
+        <v>45348</v>
       </c>
       <c r="B196">
-        <v>482.83</v>
+        <v>38970</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
-        <v>45336</v>
+        <v>45349</v>
       </c>
       <c r="B197">
-        <v>485.24</v>
+        <v>39010</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
-        <v>45337</v>
+        <v>45350</v>
       </c>
       <c r="B198">
-        <v>488.54</v>
+        <v>38910</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
-        <v>45338</v>
+        <v>45351</v>
       </c>
       <c r="B199">
-        <v>491.59</v>
+        <v>39000</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
-        <v>45341</v>
+        <v>45352</v>
       </c>
       <c r="B200">
-        <v>492.39</v>
+        <v>39740</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
-        <v>45342</v>
+        <v>45355</v>
       </c>
       <c r="B201">
-        <v>491.9</v>
+        <v>39900</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
-        <v>45343</v>
+        <v>45356</v>
       </c>
       <c r="B202">
-        <v>491.05</v>
+        <v>39910</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
-        <v>45344</v>
+        <v>45357</v>
       </c>
       <c r="B203">
-        <v>495.1</v>
+        <v>39860</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
-        <v>45345</v>
+        <v>45358</v>
       </c>
       <c r="B204">
-        <v>497.25</v>
+        <v>39360</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
-        <v>45348</v>
+        <v>45359</v>
       </c>
       <c r="B205">
-        <v>495.43</v>
+        <v>39510</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
-        <v>45349</v>
+        <v>45362</v>
       </c>
       <c r="B206">
-        <v>496.33</v>
+        <v>38530</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
-        <v>45350</v>
+        <v>45363</v>
       </c>
       <c r="B207">
-        <v>494.59</v>
+        <v>38490</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
-        <v>45351</v>
+        <v>45364</v>
       </c>
       <c r="B208">
-        <v>494.61</v>
+        <v>38350</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
-        <v>45352</v>
+        <v>45365</v>
       </c>
       <c r="B209">
-        <v>497.58</v>
+        <v>38590</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
-        <v>45355</v>
+        <v>45366</v>
       </c>
       <c r="B210">
-        <v>497.41</v>
+        <v>38390</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
-        <v>45356</v>
+        <v>45369</v>
       </c>
       <c r="B211">
-        <v>496.27</v>
+        <v>39520</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
-        <v>45357</v>
+        <v>45370</v>
       </c>
       <c r="B212">
-        <v>498.21</v>
+        <v>39600</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
-        <v>45358</v>
+        <v>45372</v>
       </c>
       <c r="B213">
-        <v>503.16</v>
+        <v>40580</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
-        <v>45359</v>
+        <v>45373</v>
       </c>
       <c r="B214">
-        <v>503.26</v>
+        <v>40710</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
-        <v>45362</v>
+        <v>45376</v>
       </c>
       <c r="B215">
-        <v>501.49</v>
+        <v>40110</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
-        <v>45363</v>
+        <v>45377</v>
       </c>
       <c r="B216">
-        <v>506.52</v>
+        <v>40190</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
-        <v>45364</v>
+        <v>45378</v>
       </c>
       <c r="B217">
-        <v>507.33</v>
+        <v>40430</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
-        <v>45365</v>
+        <v>45379</v>
       </c>
       <c r="B218">
-        <v>506.4</v>
+        <v>40230</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
-        <v>45366</v>
+        <v>45380</v>
       </c>
       <c r="B219">
-        <v>504.8</v>
+        <v>40390</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
-        <v>45369</v>
+        <v>45383</v>
       </c>
       <c r="B220">
-        <v>503.94</v>
+        <v>39870</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
-        <v>45370</v>
+        <v>45384</v>
       </c>
       <c r="B221">
-        <v>505.23</v>
+        <v>39920</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
-        <v>45371</v>
+        <v>45385</v>
       </c>
       <c r="B222">
-        <v>505.21</v>
+        <v>39530</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
-        <v>45372</v>
+        <v>45386</v>
       </c>
       <c r="B223">
-        <v>509.77</v>
+        <v>39820</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
-        <v>45373</v>
+        <v>45387</v>
       </c>
       <c r="B224">
-        <v>509.64</v>
+        <v>38980</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
-        <v>45376</v>
+        <v>45390</v>
       </c>
       <c r="B225">
-        <v>509.86</v>
+        <v>39390</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
-        <v>45377</v>
+        <v>45391</v>
       </c>
       <c r="B226">
-        <v>511.09</v>
+        <v>39790</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
-        <v>45378</v>
+        <v>45392</v>
       </c>
       <c r="B227">
-        <v>511.75</v>
+        <v>39550</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
-        <v>45379</v>
+        <v>45393</v>
       </c>
       <c r="B228">
-        <v>512.66999999999996</v>
+        <v>39410</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
-        <v>45384</v>
+        <v>45394</v>
       </c>
       <c r="B229">
-        <v>508.57</v>
+        <v>39550</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
-        <v>45385</v>
+        <v>45397</v>
       </c>
       <c r="B230">
-        <v>510.02</v>
+        <v>39230</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
-        <v>45386</v>
+        <v>45398</v>
       </c>
       <c r="B231">
-        <v>510.84</v>
+        <v>38390</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
-        <v>45387</v>
+        <v>45399</v>
       </c>
       <c r="B232">
-        <v>506.55</v>
+        <v>37840</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
-        <v>45390</v>
+        <v>45400</v>
       </c>
       <c r="B233">
-        <v>508.93</v>
+        <v>38170</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
-        <v>45391</v>
+        <v>45401</v>
       </c>
       <c r="B234">
-        <v>505.82</v>
+        <v>37100</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
-        <v>45392</v>
+        <v>45404</v>
       </c>
       <c r="B235">
-        <v>506.59</v>
+        <v>37430</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
-        <v>45393</v>
+        <v>45405</v>
       </c>
       <c r="B236">
-        <v>504.55</v>
+        <v>37550</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
-        <v>45394</v>
+        <v>45406</v>
       </c>
       <c r="B237">
-        <v>505.25</v>
+        <v>38440</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
-        <v>45397</v>
+        <v>45407</v>
       </c>
       <c r="B238">
-        <v>505.93</v>
+        <v>37610</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
-        <v>45398</v>
+        <v>45408</v>
       </c>
       <c r="B239">
-        <v>498.21</v>
+        <v>37900</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
-        <v>45399</v>
+        <v>45412</v>
       </c>
       <c r="B240">
-        <v>498.52</v>
+        <v>38470</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
-        <v>45400</v>
+        <v>45413</v>
       </c>
       <c r="B241">
-        <v>499.7</v>
+        <v>38210</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
-        <v>45401</v>
+        <v>45414</v>
       </c>
       <c r="B242">
-        <v>499.29</v>
+        <v>38190</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
-        <v>45404</v>
+        <v>45419</v>
       </c>
       <c r="B243">
-        <v>502.31</v>
+        <v>38880</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
-        <v>45405</v>
+        <v>45420</v>
       </c>
       <c r="B244">
-        <v>507.79</v>
+        <v>38210</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
-        <v>45406</v>
+        <v>45421</v>
       </c>
       <c r="B245">
-        <v>505.61</v>
+        <v>38040</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
-        <v>45407</v>
+        <v>45422</v>
       </c>
       <c r="B246">
-        <v>502.38</v>
+        <v>38240</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
-        <v>45408</v>
+        <v>45425</v>
       </c>
       <c r="B247">
-        <v>507.98</v>
+        <v>38120</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
-        <v>45411</v>
+        <v>45426</v>
       </c>
       <c r="B248">
-        <v>508.34</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A249" s="1">
-        <v>45412</v>
-      </c>
-      <c r="B249">
-        <v>504.89</v>
-      </c>
-    </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A250" s="1">
-        <v>45413</v>
-      </c>
-      <c r="B250">
-        <v>504.31</v>
-      </c>
-    </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A251" s="1">
-        <v>45414</v>
-      </c>
-      <c r="B251">
-        <v>503.21</v>
-      </c>
-    </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A252" s="1">
-        <v>45415</v>
-      </c>
-      <c r="B252">
-        <v>505.53</v>
-      </c>
-    </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A253" s="1">
-        <v>45418</v>
-      </c>
-      <c r="B253">
-        <v>508.22</v>
-      </c>
-    </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A254" s="1">
-        <v>45419</v>
-      </c>
-      <c r="B254">
-        <v>514.02</v>
-      </c>
-    </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A255" s="1">
-        <v>45420</v>
-      </c>
-      <c r="B255">
-        <v>515.77</v>
-      </c>
-    </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A256" s="1">
-        <v>45421</v>
-      </c>
-      <c r="B256">
-        <v>516.77</v>
-      </c>
-    </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A257" s="1">
-        <v>45422</v>
-      </c>
-      <c r="B257">
-        <v>520.76</v>
-      </c>
-    </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A258" s="1">
-        <v>45425</v>
-      </c>
-      <c r="B258">
-        <v>520.86</v>
-      </c>
-    </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A259" s="1">
-        <v>45426</v>
-      </c>
-      <c r="B259">
-        <v>520.89</v>
+        <v>38310</v>
       </c>
     </row>
   </sheetData>

--- a/futures.xlsx
+++ b/futures.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssymhoven\Projekte\drawdown-risk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78ED9227-1BC4-48C9-BD87-F39C60608481}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC183628-1BDA-4029-ACE4-815551585656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-57720" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="5" xr2:uid="{6B127A01-C975-41DD-8874-C1A98A2D19D1}"/>
   </bookViews>
@@ -133,33 +133,31 @@
   <volType type="realTimeData">
     <main first="bofaddin.rtdserver">
       <tp t="s">
-        <v>#N/A Requesting Data...4128672523</v>
+        <v>#N/A Requesting Data...3908383825</v>
         <stp/>
         <stp>BQL|18230993787104937031</stp>
         <tr r="A1" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3855045354</v>
+        <v>#N/A Requesting Data...3531600587</v>
         <stp/>
         <stp>BQL|15879889351003714675</stp>
         <tr r="A1" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3935365374</v>
+        <v>#N/A Requesting Data...4077530564</v>
         <stp/>
         <stp>BQL|17550905372697251438</stp>
         <tr r="A1" s="9"/>
       </tp>
-    </main>
-    <main first="bofaddin.rtdserver">
       <tp t="s">
-        <v>#N/A Requesting Data...3876302382</v>
+        <v>#N/A Requesting Data...3081082418</v>
         <stp/>
         <stp>BQL|10757217855212528176</stp>
         <tr r="A1" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3481914160</v>
+        <v>#N/A Requesting Data...3338682958</v>
         <stp/>
         <stp>BQL|11581064237170874360</stp>
         <tr r="A1" s="11"/>
@@ -167,19 +165,19 @@
     </main>
     <main first="bofaddin.rtdserver">
       <tp t="s">
-        <v>#N/A Requesting Data...3762097199</v>
+        <v>#N/A Requesting Data...2915109826</v>
         <stp/>
         <stp>BQL|9085533483929508075</stp>
         <tr r="A1" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3713368807</v>
+        <v>#N/A Requesting Data...2242611390</v>
         <stp/>
         <stp>BQL|2565913161270338371</stp>
         <tr r="A1" s="10"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3976693957</v>
+        <v>#N/A Requesting Data...2371571339</v>
         <stp/>
         <stp>BQL|1909323721705548586</stp>
         <tr r="A1" s="7"/>
@@ -520,7 +518,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'ESA Index'", "dropna(px_last(start='-1Y')) as #PX_LAST","cols=2;rows=254")</f>
+        <f>_xll.BQL("'ESA Index'", "dropna(px_last(start='-1Y')) as #PX_LAST","cols=2;rows=255")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -2548,11 +2546,16 @@
         <v>45426</v>
       </c>
       <c r="B254">
-        <v>5252.25</v>
+        <v>5269.5</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A255" s="1"/>
+      <c r="A255" s="1">
+        <v>45427</v>
+      </c>
+      <c r="B255">
+        <v>5271</v>
+      </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" s="1"/>
@@ -2580,7 +2583,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7250E47-F44F-4514-9D25-2C8A861C3398}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:B254"/>
+  <dimension ref="A1:B255"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2591,7 +2594,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'NQA Index'", "dropna(px_last(start='-1Y')) as #PX_LAST","cols=2;rows=254")</f>
+        <f>_xll.BQL("'NQA Index'", "dropna(px_last(start='-1Y')) as #PX_LAST","cols=2;rows=255")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -4619,7 +4622,15 @@
         <v>45426</v>
       </c>
       <c r="B254">
-        <v>18333.25</v>
+        <v>18415</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A255" s="1">
+        <v>45427</v>
+      </c>
+      <c r="B255">
+        <v>18408.5</v>
       </c>
     </row>
   </sheetData>
@@ -4630,7 +4641,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FC0687F-93AF-484B-8169-E739CB044184}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:B258"/>
+  <dimension ref="A1:B259"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I35" sqref="I35"/>
@@ -4644,7 +4655,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'GXA Index'", "dropna(px_last(start='-1Y')) as #PX_LAST","cols=2;rows=258")</f>
+        <f>_xll.BQL("'GXA Index'", "dropna(px_last(start='-1Y')) as #PX_LAST","cols=2;rows=259")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -6704,7 +6715,15 @@
         <v>45426</v>
       </c>
       <c r="B258">
-        <v>18843</v>
+        <v>18842</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A259" s="1">
+        <v>45427</v>
+      </c>
+      <c r="B259">
+        <v>18922</v>
       </c>
     </row>
   </sheetData>
@@ -6727,7 +6746,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'VGA Index'", "dropna(px_last(start='-1Y')) as #PX_LAST","cols=2;rows=258")</f>
+        <f>_xll.BQL("'VGA Index'", "dropna(px_last(start='-1Y')) as #PX_LAST","cols=2;rows=259")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -8791,7 +8810,12 @@
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A259" s="1"/>
+      <c r="A259" s="1">
+        <v>45427</v>
+      </c>
+      <c r="B259">
+        <v>5084</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8801,7 +8825,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E691C535-15F0-4F41-B3D1-3E34BE8CB308}">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:B236"/>
+  <dimension ref="A1:B237"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8813,7 +8837,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'Z A Index'", "dropna(px_last(start=-1Y)) as #PX_LAST","cols=2;rows=236")</f>
+        <f>_xll.BQL("'Z A Index'", "dropna(px_last(start=-1Y)) as #PX_LAST","cols=2;rows=237")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -10697,7 +10721,15 @@
         <v>45426</v>
       </c>
       <c r="B236">
-        <v>8439.5</v>
+        <v>8442</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A237" s="1">
+        <v>45427</v>
+      </c>
+      <c r="B237">
+        <v>8477.5</v>
       </c>
     </row>
   </sheetData>
@@ -10708,9 +10740,9 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CEFCEF2-7336-4888-99EC-BFDE6073945C}">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:B232"/>
+  <dimension ref="A1:B233"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -10722,7 +10754,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'STA Index'", "dropna(px_last(start=-1Y)) as #PX_LAST","cols=2;rows=232")</f>
+        <f>_xll.BQL("'STA Index'", "dropna(px_last(start=-1Y)) as #PX_LAST","cols=2;rows=233")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -12574,7 +12606,15 @@
         <v>45426</v>
       </c>
       <c r="B232">
-        <v>34865</v>
+        <v>34859</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A233" s="1">
+        <v>45427</v>
+      </c>
+      <c r="B233">
+        <v>35020</v>
       </c>
     </row>
   </sheetData>
@@ -12585,7 +12625,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{865AFC4B-4865-4F34-BFC1-ED0A125E483D}">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:B261"/>
+  <dimension ref="A1:B262"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -12597,7 +12637,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'MESA Index'", "dropna(px_last(start='-1Y')) as #PX_LAST","cols=2;rows=261")</f>
+        <f>_xll.BQL("'MESA Index'", "dropna(px_last(start='-1Y')) as #PX_LAST","cols=2;rows=262")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -14681,7 +14721,15 @@
         <v>45426</v>
       </c>
       <c r="B261">
-        <v>1089.199951171875</v>
+        <v>1091.5</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A262" s="1">
+        <v>45427</v>
+      </c>
+      <c r="B262">
+        <v>1093.699951171875</v>
       </c>
     </row>
   </sheetData>
@@ -14692,7 +14740,7 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FAF0632-F253-48AB-9AF2-9A1F91C0B40F}">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:B248"/>
+  <dimension ref="A1:B249"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="P21" sqref="P21"/>
@@ -14706,7 +14754,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'NKA Index'", "dropna(px_last(start='-1Y')) as #PX_LAST","cols=2;rows=248")</f>
+        <f>_xll.BQL("'NKA Index'", "dropna(px_last(start='-1Y')) as #PX_LAST","cols=2;rows=249")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -16687,6 +16735,14 @@
       </c>
       <c r="B248">
         <v>38310</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A249" s="1">
+        <v>45427</v>
+      </c>
+      <c r="B249">
+        <v>38380</v>
       </c>
     </row>
   </sheetData>

--- a/futures.xlsx
+++ b/futures.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssymhoven\Projekte\drawdown-risk\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssymhoven\Projekte\drawdown\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC183628-1BDA-4029-ACE4-815551585656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A4AB7AB-58F2-488F-8A2E-F59156E4ABAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-57720" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="5" xr2:uid="{6B127A01-C975-41DD-8874-C1A98A2D19D1}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="5" xr2:uid="{6B127A01-C975-41DD-8874-C1A98A2D19D1}"/>
   </bookViews>
   <sheets>
     <sheet name="S&amp;P 500 INDEX" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="MSCI Emerging Markets Index" sheetId="10" r:id="rId7"/>
     <sheet name="Nikkei 225" sheetId="11" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="191029" calcMode="manual"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -133,31 +133,31 @@
   <volType type="realTimeData">
     <main first="bofaddin.rtdserver">
       <tp t="s">
-        <v>#N/A Requesting Data...3908383825</v>
+        <v>#N/A Requesting Data...4216440653</v>
         <stp/>
         <stp>BQL|18230993787104937031</stp>
         <tr r="A1" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3531600587</v>
+        <v>#N/A Requesting Data...4150505548</v>
         <stp/>
         <stp>BQL|15879889351003714675</stp>
         <tr r="A1" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4077530564</v>
+        <v>#N/A Requesting Data...4139640902</v>
         <stp/>
         <stp>BQL|17550905372697251438</stp>
         <tr r="A1" s="9"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3081082418</v>
+        <v>#N/A Requesting Data...4208966251</v>
         <stp/>
         <stp>BQL|10757217855212528176</stp>
         <tr r="A1" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3338682958</v>
+        <v>#N/A Requesting Data...4014975362</v>
         <stp/>
         <stp>BQL|11581064237170874360</stp>
         <tr r="A1" s="11"/>
@@ -165,19 +165,19 @@
     </main>
     <main first="bofaddin.rtdserver">
       <tp t="s">
-        <v>#N/A Requesting Data...2915109826</v>
+        <v>#N/A Requesting Data...4018224940</v>
         <stp/>
         <stp>BQL|9085533483929508075</stp>
         <tr r="A1" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2242611390</v>
+        <v>#N/A Requesting Data...4202856103</v>
         <stp/>
         <stp>BQL|2565913161270338371</stp>
         <tr r="A1" s="10"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2371571339</v>
+        <v>#N/A Requesting Data...4277696788</v>
         <stp/>
         <stp>BQL|1909323721705548586</stp>
         <tr r="A1" s="7"/>
@@ -2554,7 +2554,7 @@
         <v>45427</v>
       </c>
       <c r="B255">
-        <v>5271</v>
+        <v>5293</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
@@ -4630,7 +4630,7 @@
         <v>45427</v>
       </c>
       <c r="B255">
-        <v>18408.5</v>
+        <v>18501.25</v>
       </c>
     </row>
   </sheetData>
@@ -6723,7 +6723,7 @@
         <v>45427</v>
       </c>
       <c r="B259">
-        <v>18922</v>
+        <v>18944</v>
       </c>
     </row>
   </sheetData>
@@ -8814,7 +8814,7 @@
         <v>45427</v>
       </c>
       <c r="B259">
-        <v>5084</v>
+        <v>5087</v>
       </c>
     </row>
   </sheetData>
@@ -10729,7 +10729,7 @@
         <v>45427</v>
       </c>
       <c r="B237">
-        <v>8477.5</v>
+        <v>8451</v>
       </c>
     </row>
   </sheetData>
@@ -10742,8 +10742,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:B233"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12614,7 +12614,7 @@
         <v>45427</v>
       </c>
       <c r="B233">
-        <v>35020</v>
+        <v>35000</v>
       </c>
     </row>
   </sheetData>
@@ -14729,7 +14729,7 @@
         <v>45427</v>
       </c>
       <c r="B262">
-        <v>1093.699951171875</v>
+        <v>1098.4000244140625</v>
       </c>
     </row>
   </sheetData>

--- a/futures.xlsx
+++ b/futures.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssymhoven\Projekte\drawdown\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8FF0B7F-0CCF-4127-8C72-35D418574307}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CEC3654-2A98-45DD-B2A0-F095EDBDF1AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2040" yWindow="2775" windowWidth="34050" windowHeight="17040" activeTab="2" xr2:uid="{6B127A01-C975-41DD-8874-C1A98A2D19D1}"/>
   </bookViews>
@@ -133,31 +133,31 @@
   <volType type="realTimeData">
     <main first="bofaddin.rtdserver">
       <tp t="s">
-        <v>#N/A Requesting Data...3356519326</v>
+        <v>#N/A Requesting Data...2152738426</v>
         <stp/>
         <stp>BQL|18230993787104937031</stp>
         <tr r="A1" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3334946294</v>
+        <v>#N/A Requesting Data...2305559240</v>
         <stp/>
         <stp>BQL|15879889351003714675</stp>
         <tr r="A1" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3566879170</v>
+        <v>#N/A Requesting Data...3992064737</v>
         <stp/>
         <stp>BQL|17550905372697251438</stp>
         <tr r="A1" s="9"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3459780521</v>
+        <v>#N/A Requesting Data...1550577893</v>
         <stp/>
         <stp>BQL|10757217855212528176</stp>
         <tr r="A1" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3905312299</v>
+        <v>#N/A Requesting Data...3756195031</v>
         <stp/>
         <stp>BQL|11581064237170874360</stp>
         <tr r="A1" s="11"/>
@@ -165,19 +165,19 @@
     </main>
     <main first="bofaddin.rtdserver">
       <tp t="s">
-        <v>#N/A Requesting Data...4256731309</v>
+        <v>#N/A Requesting Data...3143188508</v>
         <stp/>
         <stp>BQL|9085533483929508075</stp>
         <tr r="A1" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3751046648</v>
+        <v>#N/A Requesting Data...3359210676</v>
         <stp/>
         <stp>BQL|2565913161270338371</stp>
         <tr r="A1" s="10"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3320994229</v>
+        <v>#N/A Requesting Data...3463423751</v>
         <stp/>
         <stp>BQL|1909323721705548586</stp>
         <tr r="A1" s="7"/>
@@ -2556,7 +2556,7 @@
         <v>45428</v>
       </c>
       <c r="B255">
-        <v>5336.75</v>
+        <v>5337.25</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
@@ -4632,7 +4632,7 @@
         <v>45428</v>
       </c>
       <c r="B255">
-        <v>18723.25</v>
+        <v>18717.5</v>
       </c>
     </row>
   </sheetData>
@@ -4646,7 +4646,7 @@
   <dimension ref="A1:B259"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6725,7 +6725,7 @@
         <v>45428</v>
       </c>
       <c r="B259">
-        <v>18924</v>
+        <v>18910</v>
       </c>
     </row>
   </sheetData>
@@ -8816,7 +8816,7 @@
         <v>45428</v>
       </c>
       <c r="B259">
-        <v>5083</v>
+        <v>5086</v>
       </c>
     </row>
   </sheetData>
@@ -10739,7 +10739,7 @@
         <v>45428</v>
       </c>
       <c r="B238">
-        <v>8436</v>
+        <v>8473</v>
       </c>
     </row>
   </sheetData>
@@ -12632,7 +12632,7 @@
         <v>45428</v>
       </c>
       <c r="B234">
-        <v>35045</v>
+        <v>35150</v>
       </c>
     </row>
   </sheetData>
@@ -14747,7 +14747,7 @@
         <v>45428</v>
       </c>
       <c r="B262">
-        <v>1100.699951171875</v>
+        <v>1104.0999755859375</v>
       </c>
     </row>
   </sheetData>

--- a/futures.xlsx
+++ b/futures.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssymhoven\Projekte\drawdown\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E82FE77E-4529-413E-8613-D7A2BBE73D1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20AF593D-13D2-42BB-8DD5-CDA8C29E05AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="165" windowWidth="23145" windowHeight="20535" activeTab="2" xr2:uid="{6B127A01-C975-41DD-8874-C1A98A2D19D1}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" activeTab="2" xr2:uid="{6B127A01-C975-41DD-8874-C1A98A2D19D1}"/>
   </bookViews>
   <sheets>
     <sheet name="S&amp;P 500 INDEX" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="MSCI Emerging Markets Index" sheetId="10" r:id="rId7"/>
     <sheet name="Nikkei 225" sheetId="11" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -133,31 +133,33 @@
   <volType type="realTimeData">
     <main first="bofaddin.rtdserver">
       <tp t="s">
-        <v>#N/A Requesting Data...1946383360</v>
+        <v>#N/A Requesting Data...3216898416</v>
         <stp/>
         <stp>BQL|18230993787104937031</stp>
         <tr r="A1" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3576335257</v>
+        <v>#N/A Requesting Data...3978641126</v>
         <stp/>
         <stp>BQL|15879889351003714675</stp>
         <tr r="A1" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1744347521</v>
+        <v>#N/A Requesting Data...3994217911</v>
         <stp/>
         <stp>BQL|17550905372697251438</stp>
         <tr r="A1" s="9"/>
       </tp>
+    </main>
+    <main first="bofaddin.rtdserver">
       <tp t="s">
-        <v>#N/A Requesting Data...3132044281</v>
+        <v>#N/A Requesting Data...3806736828</v>
         <stp/>
         <stp>BQL|10757217855212528176</stp>
         <tr r="A1" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3987615487</v>
+        <v>#N/A Requesting Data...689847526</v>
         <stp/>
         <stp>BQL|11581064237170874360</stp>
         <tr r="A1" s="11"/>
@@ -165,19 +167,21 @@
     </main>
     <main first="bofaddin.rtdserver">
       <tp t="s">
-        <v>#N/A Requesting Data...2127647344</v>
+        <v>#N/A Requesting Data...3770845396</v>
         <stp/>
         <stp>BQL|9085533483929508075</stp>
         <tr r="A1" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3338638339</v>
+        <v>#N/A Requesting Data...2973376384</v>
         <stp/>
         <stp>BQL|2565913161270338371</stp>
         <tr r="A1" s="10"/>
       </tp>
+    </main>
+    <main first="bofaddin.rtdserver">
       <tp t="s">
-        <v>#N/A Requesting Data...3437531872</v>
+        <v>#N/A Requesting Data...1738067868</v>
         <stp/>
         <stp>BQL|1909323721705548586</stp>
         <tr r="A1" s="7"/>
@@ -520,7 +524,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'ESA Index'", "dropna(px_last(start='-1Y')) as #PX_LAST","cols=2;rows=254")</f>
+        <f>_xll.BQL("'ESA Index'", "dropna(px_last(start='-1Y')) as #PX_LAST","cols=2;rows=255")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -2548,11 +2552,16 @@
         <v>45433</v>
       </c>
       <c r="B254">
-        <v>5332.25</v>
+        <v>5345.25</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A255" s="1"/>
+      <c r="A255" s="1">
+        <v>45434</v>
+      </c>
+      <c r="B255">
+        <v>5341.5</v>
+      </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" s="1"/>
@@ -2591,7 +2600,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'NQA Index'", "dropna(px_last(start='-1Y')) as #PX_LAST","cols=2;rows=254")</f>
+        <f>_xll.BQL("'NQA Index'", "dropna(px_last(start='-1Y')) as #PX_LAST","cols=2;rows=255")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -4619,11 +4628,16 @@
         <v>45433</v>
       </c>
       <c r="B254">
-        <v>18748.5</v>
+        <v>18799.25</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A255" s="1"/>
+      <c r="A255" s="1">
+        <v>45434</v>
+      </c>
+      <c r="B255">
+        <v>18820.25</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4636,7 +4650,7 @@
   <dimension ref="A1:B259"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4647,7 +4661,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'GXA Index'", "dropna(px_last(start='-1Y')) as #PX_LAST","cols=2;rows=258")</f>
+        <f>_xll.BQL("'GXA Index'", "dropna(px_last(start='-1Y')) as #PX_LAST","cols=2;rows=259")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -6707,11 +6721,16 @@
         <v>45433</v>
       </c>
       <c r="B258">
-        <v>18779</v>
+        <v>18802</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A259" s="1"/>
+      <c r="A259" s="1">
+        <v>45434</v>
+      </c>
+      <c r="B259">
+        <v>18765</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6733,7 +6752,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'VGA Index'", "dropna(px_last(start='-1Y')) as #PX_LAST","cols=2;rows=258")</f>
+        <f>_xll.BQL("'VGA Index'", "dropna(px_last(start='-1Y')) as #PX_LAST","cols=2;rows=259")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -8793,11 +8812,16 @@
         <v>45433</v>
       </c>
       <c r="B258">
-        <v>5050</v>
+        <v>5055</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A259" s="1"/>
+      <c r="A259" s="1">
+        <v>45434</v>
+      </c>
+      <c r="B259">
+        <v>5033</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8807,7 +8831,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E691C535-15F0-4F41-B3D1-3E34BE8CB308}">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:B241"/>
+  <dimension ref="A1:B242"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8819,7 +8843,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'Z A Index'", "dropna(px_last(start=-1Y)) as #PX_LAST","cols=2;rows=241")</f>
+        <f>_xll.BQL("'Z A Index'", "dropna(px_last(start=-1Y)) as #PX_LAST","cols=2;rows=242")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -10743,7 +10767,15 @@
         <v>45433</v>
       </c>
       <c r="B241">
-        <v>8408.5</v>
+        <v>8437.5</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A242" s="1">
+        <v>45434</v>
+      </c>
+      <c r="B242">
+        <v>8381.5</v>
       </c>
     </row>
   </sheetData>
@@ -10754,7 +10786,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CEFCEF2-7336-4888-99EC-BFDE6073945C}">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:B237"/>
+  <dimension ref="A1:B238"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
@@ -10768,7 +10800,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'STA Index'", "dropna(px_last(start=-1Y)) as #PX_LAST","cols=2;rows=237")</f>
+        <f>_xll.BQL("'STA Index'", "dropna(px_last(start=-1Y)) as #PX_LAST","cols=2;rows=238")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -12660,7 +12692,15 @@
         <v>45433</v>
       </c>
       <c r="B237">
-        <v>34580</v>
+        <v>34729</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A238" s="1">
+        <v>45434</v>
+      </c>
+      <c r="B238">
+        <v>34645</v>
       </c>
     </row>
   </sheetData>
@@ -12683,7 +12723,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'MESA Index'", "dropna(px_last(start='-1Y')) as #PX_LAST","cols=2;rows=261")</f>
+        <f>_xll.BQL("'MESA Index'", "dropna(px_last(start='-1Y')) as #PX_LAST","cols=2;rows=262")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -14767,11 +14807,16 @@
         <v>45433</v>
       </c>
       <c r="B261">
-        <v>1098.699951171875</v>
+        <v>1098.3</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A262" s="1"/>
+      <c r="A262" s="1">
+        <v>45434</v>
+      </c>
+      <c r="B262">
+        <v>1099.699951171875</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14795,7 +14840,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'NKA Index'", "dropna(px_last(start='-1Y')) as #PX_LAST","cols=2;rows=248")</f>
+        <f>_xll.BQL("'NKA Index'", "dropna(px_last(start='-1Y')) as #PX_LAST","cols=2;rows=249")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -16779,7 +16824,12 @@
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A249" s="1"/>
+      <c r="A249" s="1">
+        <v>45434</v>
+      </c>
+      <c r="B249">
+        <v>38620</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/futures.xlsx
+++ b/futures.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssymhoven\Projekte\drawdown\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19E325C5-0991-4154-938F-821786A9D291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B475E27-2343-45D4-89AB-1F59174CA08D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3570" yWindow="45" windowWidth="24375" windowHeight="20835" activeTab="2" xr2:uid="{6B127A01-C975-41DD-8874-C1A98A2D19D1}"/>
+    <workbookView xWindow="2025" yWindow="45" windowWidth="32895" windowHeight="20835" activeTab="2" xr2:uid="{6B127A01-C975-41DD-8874-C1A98A2D19D1}"/>
   </bookViews>
   <sheets>
     <sheet name="S&amp;P 500 INDEX" sheetId="1" r:id="rId1"/>
@@ -133,31 +133,31 @@
   <volType type="realTimeData">
     <main first="bofaddin.rtdserver">
       <tp t="s">
-        <v>#N/A Requesting Data...2888525145</v>
+        <v>#N/A Requesting Data...4145066391</v>
         <stp/>
         <stp>BQL|18230993787104937031</stp>
         <tr r="A1" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3272455610</v>
+        <v>#N/A Requesting Data...4083979343</v>
         <stp/>
         <stp>BQL|15879889351003714675</stp>
         <tr r="A1" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2757471981</v>
+        <v>#N/A Requesting Data...4097732711</v>
         <stp/>
         <stp>BQL|17550905372697251438</stp>
         <tr r="A1" s="9"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1746555985</v>
+        <v>#N/A Requesting Data...4289832244</v>
         <stp/>
         <stp>BQL|10757217855212528176</stp>
         <tr r="A1" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1347457558</v>
+        <v>#N/A Requesting Data...4211310916</v>
         <stp/>
         <stp>BQL|11581064237170874360</stp>
         <tr r="A1" s="11"/>
@@ -165,19 +165,19 @@
     </main>
     <main first="bofaddin.rtdserver">
       <tp t="s">
-        <v>#N/A Requesting Data...3621972728</v>
+        <v>#N/A Requesting Data...4294956209</v>
         <stp/>
         <stp>BQL|9085533483929508075</stp>
         <tr r="A1" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2270196301</v>
+        <v>#N/A Requesting Data...4190646337</v>
         <stp/>
         <stp>BQL|2565913161270338371</stp>
         <tr r="A1" s="10"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2712975772</v>
+        <v>#N/A Requesting Data...4220701122</v>
         <stp/>
         <stp>BQL|1909323721705548586</stp>
         <tr r="A1" s="7"/>
@@ -2537,10 +2537,10 @@
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
-        <v>45439</v>
+        <v>45440</v>
       </c>
       <c r="B253">
-        <v>5321</v>
+        <v>5338.5</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
@@ -4603,10 +4603,10 @@
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
-        <v>45439</v>
+        <v>45440</v>
       </c>
       <c r="B253">
-        <v>18878.75</v>
+        <v>18975</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
@@ -4637,7 +4637,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'GXA Index'", "dropna(px_last(start='-1Y')) as #PX_LAST","cols=2;rows=257")</f>
+        <f>_xll.BQL("'GXA Index'", "dropna(px_last(start='-1Y')) as #PX_LAST","cols=2;rows=258")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -6689,11 +6689,16 @@
         <v>45439</v>
       </c>
       <c r="B257">
-        <v>18781</v>
+        <v>18826</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A258" s="1"/>
+      <c r="A258" s="1">
+        <v>45440</v>
+      </c>
+      <c r="B258">
+        <v>18877</v>
+      </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" s="1"/>
@@ -6718,7 +6723,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'VGA Index'", "dropna(px_last(start='-1Y')) as #PX_LAST","cols=2;rows=257")</f>
+        <f>_xll.BQL("'VGA Index'", "dropna(px_last(start='-1Y')) as #PX_LAST","cols=2;rows=258")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -8770,11 +8775,16 @@
         <v>45439</v>
       </c>
       <c r="B257">
-        <v>5047</v>
+        <v>5060</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A258" s="1"/>
+      <c r="A258" s="1">
+        <v>45440</v>
+      </c>
+      <c r="B258">
+        <v>5072</v>
+      </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" s="1"/>
@@ -8787,7 +8797,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E691C535-15F0-4F41-B3D1-3E34BE8CB308}">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:B245"/>
+  <dimension ref="A1:B246"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8799,7 +8809,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'Z A Index'", "dropna(px_last(start=-1Y)) as #PX_LAST","cols=2;rows=245")</f>
+        <f>_xll.BQL("'Z A Index'", "dropna(px_last(start=-1Y)) as #PX_LAST","cols=2;rows=246")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -10756,6 +10766,14 @@
       </c>
       <c r="B245">
         <v>8333.5</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A246" s="1">
+        <v>45440</v>
+      </c>
+      <c r="B246">
+        <v>8324.5</v>
       </c>
     </row>
   </sheetData>
@@ -10766,7 +10784,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CEFCEF2-7336-4888-99EC-BFDE6073945C}">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:B241"/>
+  <dimension ref="A1:B242"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
@@ -10780,7 +10798,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'STA Index'", "dropna(px_last(start=-1Y)) as #PX_LAST","cols=2;rows=241")</f>
+        <f>_xll.BQL("'STA Index'", "dropna(px_last(start=-1Y)) as #PX_LAST","cols=2;rows=242")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -12704,7 +12722,15 @@
         <v>45439</v>
       </c>
       <c r="B241">
-        <v>34665</v>
+        <v>34865</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A242" s="1">
+        <v>45440</v>
+      </c>
+      <c r="B242">
+        <v>34950</v>
       </c>
     </row>
   </sheetData>
@@ -12727,7 +12753,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'MESA Index'", "dropna(px_last(start='-1Y')) as #PX_LAST","cols=2;rows=260")</f>
+        <f>_xll.BQL("'MESA Index'", "dropna(px_last(start='-1Y')) as #PX_LAST","cols=2;rows=261")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -14803,11 +14829,16 @@
         <v>45439</v>
       </c>
       <c r="B260">
-        <v>1093.5999755859375</v>
+        <v>1093.7</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A261" s="1"/>
+      <c r="A261" s="1">
+        <v>45440</v>
+      </c>
+      <c r="B261">
+        <v>1092.4000244140625</v>
+      </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" s="1"/>
@@ -14834,7 +14865,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'NKA Index'", "dropna(px_last(start='-1Y')) as #PX_LAST","cols=2;rows=247")</f>
+        <f>_xll.BQL("'NKA Index'", "dropna(px_last(start='-1Y')) as #PX_LAST","cols=2;rows=248")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -16810,7 +16841,12 @@
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A248" s="1"/>
+      <c r="A248" s="1">
+        <v>45440</v>
+      </c>
+      <c r="B248">
+        <v>38850</v>
+      </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" s="1"/>

--- a/futures.xlsx
+++ b/futures.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssymhoven\Projekte\drawdown\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99B8F743-A99D-47F7-8889-AA3B79D592E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A7EAB56-36AA-40A0-8A38-AA53C953B117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1875" yWindow="45" windowWidth="31680" windowHeight="20835" firstSheet="2" activeTab="5" xr2:uid="{6B127A01-C975-41DD-8874-C1A98A2D19D1}"/>
+    <workbookView xWindow="5040" yWindow="45" windowWidth="31680" windowHeight="20835" firstSheet="2" activeTab="5" xr2:uid="{6B127A01-C975-41DD-8874-C1A98A2D19D1}"/>
   </bookViews>
   <sheets>
     <sheet name="S&amp;P 500 INDEX" sheetId="1" r:id="rId1"/>
@@ -133,31 +133,31 @@
   <volType type="realTimeData">
     <main first="bofaddin.rtdserver">
       <tp t="s">
-        <v>#N/A Requesting Data...1902264315</v>
+        <v>#N/A Requesting Data...3847321980</v>
         <stp/>
         <stp>BQL|18230993787104937031</stp>
         <tr r="A1" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2828407268</v>
+        <v>#N/A Requesting Data...3145792393</v>
         <stp/>
         <stp>BQL|15879889351003714675</stp>
         <tr r="A1" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2119859775</v>
+        <v>#N/A Requesting Data...3927785636</v>
         <stp/>
         <stp>BQL|17550905372697251438</stp>
         <tr r="A1" s="9"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3784240370</v>
+        <v>#N/A Requesting Data...4266629194</v>
         <stp/>
         <stp>BQL|10757217855212528176</stp>
         <tr r="A1" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2259038897</v>
+        <v>#N/A Requesting Data...4129595371</v>
         <stp/>
         <stp>BQL|11581064237170874360</stp>
         <tr r="A1" s="11"/>
@@ -165,19 +165,19 @@
     </main>
     <main first="bofaddin.rtdserver">
       <tp t="s">
-        <v>#N/A Requesting Data...3710211672</v>
+        <v>#N/A Requesting Data...3577696050</v>
         <stp/>
         <stp>BQL|9085533483929508075</stp>
         <tr r="A1" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2467788462</v>
+        <v>#N/A Requesting Data...3409262047</v>
         <stp/>
         <stp>BQL|2565913161270338371</stp>
         <tr r="A1" s="10"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3510958778</v>
+        <v>#N/A Requesting Data...3691954486</v>
         <stp/>
         <stp>BQL|1909323721705548586</stp>
         <tr r="A1" s="7"/>
@@ -520,7 +520,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'ESA Index'", "dropna(px_last(start='-1Y')) as #PX_LAST","cols=2;rows=253")</f>
+        <f>_xll.BQL("'ESA Index'", "dropna(px_last(start='-1Y')) as #PX_LAST","cols=2;rows=254")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -2540,11 +2540,16 @@
         <v>45446</v>
       </c>
       <c r="B253">
-        <v>5302</v>
+        <v>5297.25</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A254" s="1"/>
+      <c r="A254" s="1">
+        <v>45447</v>
+      </c>
+      <c r="B254">
+        <v>5283.5</v>
+      </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" s="1"/>
@@ -2586,7 +2591,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'NQA Index'", "dropna(px_last(start='-1Y')) as #PX_LAST","cols=2;rows=253")</f>
+        <f>_xll.BQL("'NQA Index'", "dropna(px_last(start='-1Y')) as #PX_LAST","cols=2;rows=254")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -4606,11 +4611,16 @@
         <v>45446</v>
       </c>
       <c r="B253">
-        <v>18666.5</v>
+        <v>18646.25</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A254" s="1"/>
+      <c r="A254" s="1">
+        <v>45447</v>
+      </c>
+      <c r="B254">
+        <v>18586</v>
+      </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" s="1"/>
@@ -4637,7 +4647,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'GXA Index'", "dropna(px_last(start='-1Y')) as #PX_LAST","cols=2;rows=257")</f>
+        <f>_xll.BQL("'GXA Index'", "dropna(px_last(start='-1Y')) as #PX_LAST","cols=2;rows=258")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -6689,11 +6699,16 @@
         <v>45446</v>
       </c>
       <c r="B257">
-        <v>18698</v>
+        <v>18655</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A258" s="1"/>
+      <c r="A258" s="1">
+        <v>45447</v>
+      </c>
+      <c r="B258">
+        <v>18562</v>
+      </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" s="1"/>
@@ -6718,7 +6733,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'VGA Index'", "dropna(px_last(start='-1Y')) as #PX_LAST","cols=2;rows=257")</f>
+        <f>_xll.BQL("'VGA Index'", "dropna(px_last(start='-1Y')) as #PX_LAST","cols=2;rows=258")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -8770,11 +8785,16 @@
         <v>45446</v>
       </c>
       <c r="B257">
-        <v>5029</v>
+        <v>5012</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A258" s="1"/>
+      <c r="A258" s="1">
+        <v>45447</v>
+      </c>
+      <c r="B258">
+        <v>4982</v>
+      </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" s="1"/>
@@ -8787,7 +8807,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E691C535-15F0-4F41-B3D1-3E34BE8CB308}">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:B250"/>
+  <dimension ref="A1:B251"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8799,7 +8819,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'Z A Index'", "dropna(px_last(start=-1Y)) as #PX_LAST","cols=2;rows=250")</f>
+        <f>_xll.BQL("'Z A Index'", "dropna(px_last(start=-1Y)) as #PX_LAST","cols=2;rows=251")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -10795,7 +10815,15 @@
         <v>45446</v>
       </c>
       <c r="B250">
-        <v>8300</v>
+        <v>8273</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A251" s="1">
+        <v>45447</v>
+      </c>
+      <c r="B251">
+        <v>8231.5</v>
       </c>
     </row>
   </sheetData>
@@ -10806,7 +10834,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CEFCEF2-7336-4888-99EC-BFDE6073945C}">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:B246"/>
+  <dimension ref="A1:B247"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
@@ -10820,7 +10848,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'STA Index'", "dropna(px_last(start=-1Y)) as #PX_LAST","cols=2;rows=246")</f>
+        <f>_xll.BQL("'STA Index'", "dropna(px_last(start=-1Y)) as #PX_LAST","cols=2;rows=247")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -12784,7 +12812,15 @@
         <v>45446</v>
       </c>
       <c r="B246">
-        <v>34840</v>
+        <v>34751</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A247" s="1">
+        <v>45447</v>
+      </c>
+      <c r="B247">
+        <v>34445</v>
       </c>
     </row>
   </sheetData>
@@ -12807,7 +12843,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'MESA Index'", "dropna(px_last(start='-1Y')) as #PX_LAST","cols=2;rows=260")</f>
+        <f>_xll.BQL("'MESA Index'", "dropna(px_last(start='-1Y')) as #PX_LAST","cols=2;rows=261")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -14883,11 +14919,16 @@
         <v>45446</v>
       </c>
       <c r="B260">
-        <v>1072.199951171875</v>
+        <v>1068.8</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A261" s="1"/>
+      <c r="A261" s="1">
+        <v>45447</v>
+      </c>
+      <c r="B261">
+        <v>1050.5999755859375</v>
+      </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" s="1"/>
@@ -14914,7 +14955,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'NKA Index'", "dropna(px_last(start='-1Y')) as #PX_LAST","cols=2;rows=247")</f>
+        <f>_xll.BQL("'NKA Index'", "dropna(px_last(start='-1Y')) as #PX_LAST","cols=2;rows=248")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -16890,7 +16931,12 @@
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A248" s="1"/>
+      <c r="A248" s="1">
+        <v>45447</v>
+      </c>
+      <c r="B248">
+        <v>38750</v>
+      </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" s="1"/>

--- a/futures.xlsx
+++ b/futures.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssymhoven\Projekte\drawdown\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{415E8EF4-82E3-463E-A7CC-9113EFEF3174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A78B673-F552-4359-A664-9AF8003A1E38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-57720" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="4" xr2:uid="{6B127A01-C975-41DD-8874-C1A98A2D19D1}"/>
   </bookViews>
@@ -137,31 +137,31 @@
   <volType type="realTimeData">
     <main first="bofaddin.rtdserver">
       <tp t="s">
-        <v>#N/A Requesting Data...4252165368</v>
+        <v>#N/A Requesting Data...728095825</v>
         <stp/>
         <stp>BQL|18230993787104937031</stp>
         <tr r="A1" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4293298807</v>
+        <v>#N/A Requesting Data...2450550685</v>
         <stp/>
         <stp>BQL|15879889351003714675</stp>
         <tr r="A1" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4278544550</v>
+        <v>#N/A Requesting Data...1520031230</v>
         <stp/>
         <stp>BQL|17550905372697251438</stp>
         <tr r="A1" s="9"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4226668382</v>
+        <v>#N/A Requesting Data...1452271097</v>
         <stp/>
         <stp>BQL|10757217855212528176</stp>
         <tr r="A1" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4271986366</v>
+        <v>#N/A Requesting Data...1975719189</v>
         <stp/>
         <stp>BQL|11581064237170874360</stp>
         <tr r="A1" s="11"/>
@@ -169,25 +169,25 @@
     </main>
     <main first="bofaddin.rtdserver">
       <tp t="s">
-        <v>#N/A Requesting Data...4242128408</v>
+        <v>#N/A Requesting Data...1040533000</v>
         <stp/>
         <stp>BQL|9085533483929508075</stp>
         <tr r="A1" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4291187456</v>
+        <v>#N/A Requesting Data...726599318</v>
         <stp/>
         <stp>BQL|2565913161270338371</stp>
         <tr r="A1" s="10"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4276545550</v>
+        <v>#N/A Requesting Data...3329517546</v>
         <stp/>
         <stp>BQL|9390962473574612437</stp>
         <tr r="A1" s="12"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4255736513</v>
+        <v>#N/A Requesting Data...3652475639</v>
         <stp/>
         <stp>BQL|1909323721705548586</stp>
         <tr r="A1" s="7"/>
@@ -530,7 +530,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'ESA Index'", "dropna(px_last(start='-1Y')) as #PX_LAST","cols=2;rows=253")</f>
+        <f>_xll.BQL("'ESA Index'", "dropna(px_last(start='-1Y')) as #PX_LAST","cols=2;rows=254")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -2550,11 +2550,16 @@
         <v>45453</v>
       </c>
       <c r="B253">
-        <v>5353</v>
+        <v>5371.25</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A254" s="1"/>
+      <c r="A254" s="1">
+        <v>45454</v>
+      </c>
+      <c r="B254">
+        <v>5355.5</v>
+      </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" s="1"/>
@@ -2596,7 +2601,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'NQA Index'", "dropna(px_last(start='-1Y')) as #PX_LAST","cols=2;rows=253")</f>
+        <f>_xll.BQL("'NQA Index'", "dropna(px_last(start='-1Y')) as #PX_LAST","cols=2;rows=254")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -4616,11 +4621,16 @@
         <v>45453</v>
       </c>
       <c r="B253">
-        <v>19025.75</v>
+        <v>19109.75</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A254" s="1"/>
+      <c r="A254" s="1">
+        <v>45454</v>
+      </c>
+      <c r="B254">
+        <v>19052.5</v>
+      </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" s="1"/>
@@ -4632,7 +4642,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1296092-E3D4-4C0B-B7D0-4B368C6B4CA0}">
-  <dimension ref="A1:B187"/>
+  <dimension ref="A1:B188"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M14" sqref="M14"/>
@@ -4645,7 +4655,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'GPA Index'", "dropna(px_last(start='-1Y')) as #PX_LAST","cols=2;rows=187")</f>
+        <f>_xll.BQL("'GPA Index'", "dropna(px_last(start='-1Y')) as #PX_LAST","cols=2;rows=188")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -6137,7 +6147,15 @@
         <v>45453</v>
       </c>
       <c r="B187">
-        <v>379</v>
+        <v>379.9</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188" s="1">
+        <v>45454</v>
+      </c>
+      <c r="B188">
+        <v>375.5</v>
       </c>
     </row>
   </sheetData>
@@ -6162,7 +6180,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'GXA Index'", "dropna(px_last(start='-1Y')) as #PX_LAST","cols=2;rows=257")</f>
+        <f>_xll.BQL("'GXA Index'", "dropna(px_last(start='-1Y')) as #PX_LAST","cols=2;rows=258")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -8214,11 +8232,16 @@
         <v>45453</v>
       </c>
       <c r="B257">
-        <v>18487</v>
+        <v>18514</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A258" s="1"/>
+      <c r="A258" s="1">
+        <v>45454</v>
+      </c>
+      <c r="B258">
+        <v>18354</v>
+      </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" s="1"/>
@@ -8234,7 +8257,7 @@
   <dimension ref="A1:B259"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q25" sqref="Q25"/>
+      <selection activeCell="S34" sqref="S34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8245,7 +8268,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'VGA Index'", "dropna(px_last(start='-1Y')) as #PX_LAST","cols=2;rows=257")</f>
+        <f>_xll.BQL("'VGA Index'", "dropna(px_last(start='-1Y')) as #PX_LAST","cols=2;rows=258")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -10297,11 +10320,16 @@
         <v>45453</v>
       </c>
       <c r="B257">
-        <v>5007</v>
+        <v>5014</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A258" s="1"/>
+      <c r="A258" s="1">
+        <v>45454</v>
+      </c>
+      <c r="B258">
+        <v>4962</v>
+      </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" s="1"/>
@@ -10314,7 +10342,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E691C535-15F0-4F41-B3D1-3E34BE8CB308}">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:B255"/>
+  <dimension ref="A1:B256"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -10326,7 +10354,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'Z A Index'", "dropna(px_last(start=-1Y)) as #PX_LAST","cols=2;rows=255")</f>
+        <f>_xll.BQL("'Z A Index'", "dropna(px_last(start=-1Y)) as #PX_LAST","cols=2;rows=256")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -12362,7 +12390,15 @@
         <v>45453</v>
       </c>
       <c r="B255">
-        <v>8234</v>
+        <v>8234.5</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A256" s="1">
+        <v>45454</v>
+      </c>
+      <c r="B256">
+        <v>8158</v>
       </c>
     </row>
   </sheetData>
@@ -12373,7 +12409,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CEFCEF2-7336-4888-99EC-BFDE6073945C}">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:B251"/>
+  <dimension ref="A1:B252"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
@@ -12387,7 +12423,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'STA Index'", "dropna(px_last(start=-1Y)) as #PX_LAST","cols=2;rows=251")</f>
+        <f>_xll.BQL("'STA Index'", "dropna(px_last(start=-1Y)) as #PX_LAST","cols=2;rows=252")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -14391,7 +14427,15 @@
         <v>45453</v>
       </c>
       <c r="B251">
-        <v>34570</v>
+        <v>34584</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A252" s="1">
+        <v>45454</v>
+      </c>
+      <c r="B252">
+        <v>34055</v>
       </c>
     </row>
   </sheetData>
@@ -14414,7 +14458,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'MESA Index'", "dropna(px_last(start='-1Y')) as #PX_LAST","cols=2;rows=260")</f>
+        <f>_xll.BQL("'MESA Index'", "dropna(px_last(start='-1Y')) as #PX_LAST","cols=2;rows=261")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -16490,11 +16534,16 @@
         <v>45453</v>
       </c>
       <c r="B260">
-        <v>1067.4000244140625</v>
+        <v>1070.5</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A261" s="1"/>
+      <c r="A261" s="1">
+        <v>45454</v>
+      </c>
+      <c r="B261">
+        <v>1063.300048828125</v>
+      </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" s="1"/>
@@ -16521,7 +16570,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'NKA Index'", "dropna(px_last(start='-1Y')) as #PX_LAST","cols=2;rows=247")</f>
+        <f>_xll.BQL("'NKA Index'", "dropna(px_last(start='-1Y')) as #PX_LAST","cols=2;rows=248")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -18497,7 +18546,12 @@
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A248" s="1"/>
+      <c r="A248" s="1">
+        <v>45454</v>
+      </c>
+      <c r="B248">
+        <v>39180</v>
+      </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" s="1"/>

--- a/futures.xlsx
+++ b/futures.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssymhoven\Projekte\drawdown\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A78B673-F552-4359-A664-9AF8003A1E38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AB2FF29-795D-4FE3-857E-CEC987809617}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-57720" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="4" xr2:uid="{6B127A01-C975-41DD-8874-C1A98A2D19D1}"/>
   </bookViews>
@@ -137,31 +137,31 @@
   <volType type="realTimeData">
     <main first="bofaddin.rtdserver">
       <tp t="s">
-        <v>#N/A Requesting Data...728095825</v>
+        <v>#N/A Requesting Data...4290219342</v>
         <stp/>
         <stp>BQL|18230993787104937031</stp>
         <tr r="A1" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2450550685</v>
+        <v>#N/A Requesting Data...4180370834</v>
         <stp/>
         <stp>BQL|15879889351003714675</stp>
         <tr r="A1" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1520031230</v>
+        <v>#N/A Requesting Data...4245437139</v>
         <stp/>
         <stp>BQL|17550905372697251438</stp>
         <tr r="A1" s="9"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1452271097</v>
+        <v>#N/A Requesting Data...4065661117</v>
         <stp/>
         <stp>BQL|10757217855212528176</stp>
         <tr r="A1" s="5"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1975719189</v>
+        <v>#N/A Requesting Data...3972763635</v>
         <stp/>
         <stp>BQL|11581064237170874360</stp>
         <tr r="A1" s="11"/>
@@ -169,25 +169,25 @@
     </main>
     <main first="bofaddin.rtdserver">
       <tp t="s">
-        <v>#N/A Requesting Data...1040533000</v>
+        <v>#N/A Requesting Data...4011636615</v>
         <stp/>
         <stp>BQL|9085533483929508075</stp>
         <tr r="A1" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...726599318</v>
+        <v>#N/A Requesting Data...4077836812</v>
         <stp/>
         <stp>BQL|2565913161270338371</stp>
         <tr r="A1" s="10"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3329517546</v>
+        <v>#N/A Requesting Data...4161953517</v>
         <stp/>
         <stp>BQL|9390962473574612437</stp>
         <tr r="A1" s="12"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3652475639</v>
+        <v>#N/A Requesting Data...4187313974</v>
         <stp/>
         <stp>BQL|1909323721705548586</stp>
         <tr r="A1" s="7"/>
@@ -530,7 +530,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'ESA Index'", "dropna(px_last(start='-1Y')) as #PX_LAST","cols=2;rows=254")</f>
+        <f>_xll.BQL("'ESA Index'", "dropna(px_last(start='-1Y')) as #PX_LAST","cols=2;rows=255")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -2558,11 +2558,16 @@
         <v>45454</v>
       </c>
       <c r="B254">
-        <v>5355.5</v>
+        <v>5384</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A255" s="1"/>
+      <c r="A255" s="1">
+        <v>45455</v>
+      </c>
+      <c r="B255">
+        <v>5389.25</v>
+      </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" s="1"/>
@@ -2601,7 +2606,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'NQA Index'", "dropna(px_last(start='-1Y')) as #PX_LAST","cols=2;rows=254")</f>
+        <f>_xll.BQL("'NQA Index'", "dropna(px_last(start='-1Y')) as #PX_LAST","cols=2;rows=255")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -4629,11 +4634,16 @@
         <v>45454</v>
       </c>
       <c r="B254">
-        <v>19052.5</v>
+        <v>19242.25</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A255" s="1"/>
+      <c r="A255" s="1">
+        <v>45455</v>
+      </c>
+      <c r="B255">
+        <v>19260</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4642,7 +4652,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1296092-E3D4-4C0B-B7D0-4B368C6B4CA0}">
-  <dimension ref="A1:B188"/>
+  <dimension ref="A1:B189"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M14" sqref="M14"/>
@@ -4655,7 +4665,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'GPA Index'", "dropna(px_last(start='-1Y')) as #PX_LAST","cols=2;rows=188")</f>
+        <f>_xll.BQL("'GPA Index'", "dropna(px_last(start='-1Y')) as #PX_LAST","cols=2;rows=189")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -6155,7 +6165,15 @@
         <v>45454</v>
       </c>
       <c r="B188">
-        <v>375.5</v>
+        <v>376.2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189" s="1">
+        <v>45455</v>
+      </c>
+      <c r="B189">
+        <v>377</v>
       </c>
     </row>
   </sheetData>
@@ -6180,7 +6198,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'GXA Index'", "dropna(px_last(start='-1Y')) as #PX_LAST","cols=2;rows=258")</f>
+        <f>_xll.BQL("'GXA Index'", "dropna(px_last(start='-1Y')) as #PX_LAST","cols=2;rows=259")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -8240,11 +8258,16 @@
         <v>45454</v>
       </c>
       <c r="B258">
-        <v>18354</v>
+        <v>18396</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A259" s="1"/>
+      <c r="A259" s="1">
+        <v>45455</v>
+      </c>
+      <c r="B259">
+        <v>18469</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8257,7 +8280,7 @@
   <dimension ref="A1:B259"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S34" sqref="S34"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8268,7 +8291,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'VGA Index'", "dropna(px_last(start='-1Y')) as #PX_LAST","cols=2;rows=258")</f>
+        <f>_xll.BQL("'VGA Index'", "dropna(px_last(start='-1Y')) as #PX_LAST","cols=2;rows=259")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -10328,11 +10351,16 @@
         <v>45454</v>
       </c>
       <c r="B258">
-        <v>4962</v>
+        <v>4969</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A259" s="1"/>
+      <c r="A259" s="1">
+        <v>45455</v>
+      </c>
+      <c r="B259">
+        <v>4986</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10342,7 +10370,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E691C535-15F0-4F41-B3D1-3E34BE8CB308}">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:B256"/>
+  <dimension ref="A1:B257"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -10354,7 +10382,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'Z A Index'", "dropna(px_last(start=-1Y)) as #PX_LAST","cols=2;rows=256")</f>
+        <f>_xll.BQL("'Z A Index'", "dropna(px_last(start=-1Y)) as #PX_LAST","cols=2;rows=257")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -12398,7 +12426,15 @@
         <v>45454</v>
       </c>
       <c r="B256">
-        <v>8158</v>
+        <v>8149</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A257" s="1">
+        <v>45455</v>
+      </c>
+      <c r="B257">
+        <v>8221.5</v>
       </c>
     </row>
   </sheetData>
@@ -12409,7 +12445,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CEFCEF2-7336-4888-99EC-BFDE6073945C}">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:B252"/>
+  <dimension ref="A1:B253"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
@@ -12423,7 +12459,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'STA Index'", "dropna(px_last(start=-1Y)) as #PX_LAST","cols=2;rows=252")</f>
+        <f>_xll.BQL("'STA Index'", "dropna(px_last(start=-1Y)) as #PX_LAST","cols=2;rows=253")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -14435,7 +14471,15 @@
         <v>45454</v>
       </c>
       <c r="B252">
-        <v>34055</v>
+        <v>33916</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A253" s="1">
+        <v>45455</v>
+      </c>
+      <c r="B253">
+        <v>34145</v>
       </c>
     </row>
   </sheetData>
@@ -14458,7 +14502,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'MESA Index'", "dropna(px_last(start='-1Y')) as #PX_LAST","cols=2;rows=261")</f>
+        <f>_xll.BQL("'MESA Index'", "dropna(px_last(start='-1Y')) as #PX_LAST","cols=2;rows=262")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -16542,11 +16586,16 @@
         <v>45454</v>
       </c>
       <c r="B261">
-        <v>1063.300048828125</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A262" s="1"/>
+      <c r="A262" s="1">
+        <v>45455</v>
+      </c>
+      <c r="B262">
+        <v>1069.4000244140625</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16570,7 +16619,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'NKA Index'", "dropna(px_last(start='-1Y')) as #PX_LAST","cols=2;rows=248")</f>
+        <f>_xll.BQL("'NKA Index'", "dropna(px_last(start='-1Y')) as #PX_LAST","cols=2;rows=249")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -18554,7 +18603,12 @@
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A249" s="1"/>
+      <c r="A249" s="1">
+        <v>45455</v>
+      </c>
+      <c r="B249">
+        <v>38950</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/futures.xlsx
+++ b/futures.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssymhoven\Projekte\drawdown\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{725BAD25-97B8-4B18-9D2D-7BF82D6B016C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDDD0D34-55E9-4277-A897-73698E099BF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="4" xr2:uid="{6B127A01-C975-41DD-8874-C1A98A2D19D1}"/>
   </bookViews>
@@ -138,25 +138,25 @@
   <volType type="realTimeData">
     <main first="bofaddin.rtdserver">
       <tp t="s">
-        <v>#N/A Requesting Data...988252643</v>
+        <v>#N/A Requesting Data...3740846035</v>
         <stp/>
         <stp>BQL|10979204741361998002</stp>
         <tr r="A1" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1910800961</v>
+        <v>#N/A Requesting Data...2621144488</v>
         <stp/>
         <stp>BQL|11089668446101062744</stp>
         <tr r="A1" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3633321610</v>
+        <v>#N/A Requesting Data...3351645585</v>
         <stp/>
         <stp>BQL|13806401711674025669</stp>
         <tr r="A1" s="7"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2096456991</v>
+        <v>#N/A Requesting Data...4020933466</v>
         <stp/>
         <stp>BQL|17286913404469340473</stp>
         <tr r="A1" s="12"/>
@@ -164,31 +164,31 @@
     </main>
     <main first="bofaddin.rtdserver">
       <tp t="s">
-        <v>#N/A Requesting Data...4277163122</v>
+        <v>#N/A Requesting Data...3614835045</v>
         <stp/>
         <stp>BQL|4061673230346776974</stp>
         <tr r="A1" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3206515795</v>
+        <v>#N/A Requesting Data...3280428213</v>
         <stp/>
         <stp>BQL|9748752228194856605</stp>
         <tr r="A1" s="9"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1339091133</v>
+        <v>#N/A Requesting Data...3362146459</v>
         <stp/>
         <stp>BQL|3296962516285955434</stp>
         <tr r="A1" s="13"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3587575464</v>
+        <v>#N/A Requesting Data...3467371224</v>
         <stp/>
         <stp>BQL|9143016819158358673</stp>
         <tr r="A1" s="10"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1321051895</v>
+        <v>#N/A Requesting Data...2834285377</v>
         <stp/>
         <stp>BQL|8937919304301651786</stp>
         <tr r="A1" s="11"/>
@@ -531,7 +531,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'ESA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=253")</f>
+        <f>_xll.BQL("'ESA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=254")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -2551,11 +2551,16 @@
         <v>45460</v>
       </c>
       <c r="B253">
-        <v>5499.75</v>
+        <v>5546.25</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A254" s="1"/>
+      <c r="A254" s="1">
+        <v>45461</v>
+      </c>
+      <c r="B254">
+        <v>5552.75</v>
+      </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" s="1"/>
@@ -2599,7 +2604,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'NQA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=253")</f>
+        <f>_xll.BQL("'NQA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=254")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -4619,11 +4624,16 @@
         <v>45460</v>
       </c>
       <c r="B253">
-        <v>19979.5</v>
+        <v>20192.75</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A254" s="1"/>
+      <c r="A254" s="1">
+        <v>45461</v>
+      </c>
+      <c r="B254">
+        <v>20187.75</v>
+      </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" s="1"/>
@@ -4635,7 +4645,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1296092-E3D4-4C0B-B7D0-4B368C6B4CA0}">
-  <dimension ref="A1:B192"/>
+  <dimension ref="A1:B193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -4648,7 +4658,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'GPA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=192")</f>
+        <f>_xll.BQL("'GPA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=193")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -6180,7 +6190,15 @@
         <v>45460</v>
       </c>
       <c r="B192">
-        <v>369.10000610351563</v>
+        <v>368.6</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193" s="1">
+        <v>45461</v>
+      </c>
+      <c r="B193">
+        <v>373</v>
       </c>
     </row>
   </sheetData>
@@ -6205,7 +6223,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'GXA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=257")</f>
+        <f>_xll.BQL("'GXA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=258")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -8257,11 +8275,16 @@
         <v>45460</v>
       </c>
       <c r="B257">
-        <v>18041</v>
+        <v>18085</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A258" s="1"/>
+      <c r="A258" s="1">
+        <v>45461</v>
+      </c>
+      <c r="B258">
+        <v>18144</v>
+      </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" s="1"/>
@@ -8274,10 +8297,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E691C535-15F0-4F41-B3D1-3E34BE8CB308}">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:B260"/>
+  <dimension ref="A1:B261"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8288,7 +8311,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'Z A Index'", "dropna(px_last(start=-1Y, mode=CACHED)) as #PX_LAST","cols=2;rows=260")</f>
+        <f>_xll.BQL("'Z A Index'", "dropna(px_last(start=-1Y, mode=CACHED)) as #PX_LAST","cols=2;rows=261")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -10364,7 +10387,15 @@
         <v>45460</v>
       </c>
       <c r="B260">
-        <v>8149</v>
+        <v>8147</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A261" s="1">
+        <v>45461</v>
+      </c>
+      <c r="B261">
+        <v>8193</v>
       </c>
     </row>
   </sheetData>
@@ -10388,7 +10419,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'VGA Index'", "dropna(px_last(start=-1Y, mode=CACHED)) as #PX_LAST","cols=2;rows=257")</f>
+        <f>_xll.BQL("'VGA Index'", "dropna(px_last(start=-1Y, mode=CACHED)) as #PX_LAST","cols=2;rows=258")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -12440,12 +12471,16 @@
         <v>45460</v>
       </c>
       <c r="B257" s="2">
-        <v>4861</v>
+        <v>4881</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A258" s="1"/>
-      <c r="B258" s="2"/>
+      <c r="A258" s="1">
+        <v>45461</v>
+      </c>
+      <c r="B258" s="2">
+        <v>4915</v>
+      </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" s="1"/>
@@ -12459,7 +12494,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CEFCEF2-7336-4888-99EC-BFDE6073945C}">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:B256"/>
+  <dimension ref="A1:B257"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -12471,7 +12506,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'STA Index'", "dropna(px_last(start=-1Y, mode=CACHED)) as #PX_LAST","cols=2;rows=256")</f>
+        <f>_xll.BQL("'STA Index'", "dropna(px_last(start=-1Y, mode=CACHED)) as #PX_LAST","cols=2;rows=257")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -14515,7 +14550,15 @@
         <v>45460</v>
       </c>
       <c r="B256">
-        <v>32835</v>
+        <v>32923</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A257" s="1">
+        <v>45461</v>
+      </c>
+      <c r="B257">
+        <v>33305</v>
       </c>
     </row>
   </sheetData>
@@ -14540,7 +14583,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'MESA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=260")</f>
+        <f>_xll.BQL("'MESA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=261")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -16616,11 +16659,16 @@
         <v>45460</v>
       </c>
       <c r="B260">
-        <v>1084.0999755859375</v>
+        <v>1088.8</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A261" s="1"/>
+      <c r="A261" s="1">
+        <v>45461</v>
+      </c>
+      <c r="B261">
+        <v>1098.699951171875</v>
+      </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" s="1"/>
@@ -16647,7 +16695,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'NKA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=247")</f>
+        <f>_xll.BQL("'NKA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=248")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -18623,7 +18671,12 @@
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A248" s="1"/>
+      <c r="A248" s="1">
+        <v>45461</v>
+      </c>
+      <c r="B248">
+        <v>38400</v>
+      </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" s="1"/>

--- a/futures.xlsx
+++ b/futures.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssymhoven\Projekte\drawdown\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDDD0D34-55E9-4277-A897-73698E099BF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1ED9495-DBDC-4DD3-A3BA-F9F65075D1D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="4" xr2:uid="{6B127A01-C975-41DD-8874-C1A98A2D19D1}"/>
+    <workbookView xWindow="75" yWindow="45" windowWidth="19470" windowHeight="20835" firstSheet="2" activeTab="4" xr2:uid="{6B127A01-C975-41DD-8874-C1A98A2D19D1}"/>
   </bookViews>
   <sheets>
     <sheet name="S&amp;P 500 INDEX" sheetId="1" r:id="rId1"/>
@@ -138,25 +138,25 @@
   <volType type="realTimeData">
     <main first="bofaddin.rtdserver">
       <tp t="s">
-        <v>#N/A Requesting Data...3740846035</v>
+        <v>#N/A Requesting Data...3911037496</v>
         <stp/>
         <stp>BQL|10979204741361998002</stp>
         <tr r="A1" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2621144488</v>
+        <v>#N/A Requesting Data...3670191424</v>
         <stp/>
         <stp>BQL|11089668446101062744</stp>
         <tr r="A1" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3351645585</v>
+        <v>#N/A Requesting Data...4034326623</v>
         <stp/>
         <stp>BQL|13806401711674025669</stp>
         <tr r="A1" s="7"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4020933466</v>
+        <v>#N/A Requesting Data...3290051447</v>
         <stp/>
         <stp>BQL|17286913404469340473</stp>
         <tr r="A1" s="12"/>
@@ -164,31 +164,31 @@
     </main>
     <main first="bofaddin.rtdserver">
       <tp t="s">
-        <v>#N/A Requesting Data...3614835045</v>
+        <v>#N/A Requesting Data...3002281578</v>
         <stp/>
         <stp>BQL|4061673230346776974</stp>
         <tr r="A1" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3280428213</v>
+        <v>#N/A Requesting Data...2768008150</v>
         <stp/>
         <stp>BQL|9748752228194856605</stp>
         <tr r="A1" s="9"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3362146459</v>
+        <v>#N/A Requesting Data...3013361459</v>
         <stp/>
         <stp>BQL|3296962516285955434</stp>
         <tr r="A1" s="13"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3467371224</v>
+        <v>#N/A Requesting Data...3195993789</v>
         <stp/>
         <stp>BQL|9143016819158358673</stp>
         <tr r="A1" s="10"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2834285377</v>
+        <v>#N/A Requesting Data...4257440160</v>
         <stp/>
         <stp>BQL|8937919304301651786</stp>
         <tr r="A1" s="11"/>
@@ -531,7 +531,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'ESA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=254")</f>
+        <f>_xll.BQL("'ESA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=255")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -2559,11 +2559,16 @@
         <v>45461</v>
       </c>
       <c r="B254">
-        <v>5552.75</v>
+        <v>5559.75</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A255" s="1"/>
+      <c r="A255" s="1">
+        <v>45462</v>
+      </c>
+      <c r="B255">
+        <v>5564</v>
+      </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" s="1"/>
@@ -2604,7 +2609,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'NQA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=254")</f>
+        <f>_xll.BQL("'NQA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=255")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -4632,11 +4637,16 @@
         <v>45461</v>
       </c>
       <c r="B254">
-        <v>20187.75</v>
+        <v>20196.25</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A255" s="1"/>
+      <c r="A255" s="1">
+        <v>45462</v>
+      </c>
+      <c r="B255">
+        <v>20239</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4645,7 +4655,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1296092-E3D4-4C0B-B7D0-4B368C6B4CA0}">
-  <dimension ref="A1:B193"/>
+  <dimension ref="A1:B194"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -4658,7 +4668,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'GPA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=193")</f>
+        <f>_xll.BQL("'GPA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=194")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -6198,7 +6208,15 @@
         <v>45461</v>
       </c>
       <c r="B193">
-        <v>373</v>
+        <v>374</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194" s="1">
+        <v>45462</v>
+      </c>
+      <c r="B194">
+        <v>373.10000610351563</v>
       </c>
     </row>
   </sheetData>
@@ -6223,7 +6241,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'GXA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=258")</f>
+        <f>_xll.BQL("'GXA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=259")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -8283,11 +8301,16 @@
         <v>45461</v>
       </c>
       <c r="B258">
-        <v>18144</v>
+        <v>18133</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A259" s="1"/>
+      <c r="A259" s="1">
+        <v>45462</v>
+      </c>
+      <c r="B259">
+        <v>18088</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8297,10 +8320,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E691C535-15F0-4F41-B3D1-3E34BE8CB308}">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:B261"/>
+  <dimension ref="A1:B262"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8311,7 +8334,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'Z A Index'", "dropna(px_last(start=-1Y, mode=CACHED)) as #PX_LAST","cols=2;rows=261")</f>
+        <f>_xll.BQL("'Z A Index'", "dropna(px_last(start=-1Y, mode=CACHED)) as #PX_LAST","cols=2;rows=262")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -10395,7 +10418,15 @@
         <v>45461</v>
       </c>
       <c r="B261">
-        <v>8193</v>
+        <v>8194.5</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A262" s="1">
+        <v>45462</v>
+      </c>
+      <c r="B262">
+        <v>8209.5</v>
       </c>
     </row>
   </sheetData>
@@ -10419,7 +10450,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'VGA Index'", "dropna(px_last(start=-1Y, mode=CACHED)) as #PX_LAST","cols=2;rows=258")</f>
+        <f>_xll.BQL("'VGA Index'", "dropna(px_last(start=-1Y, mode=CACHED)) as #PX_LAST","cols=2;rows=259")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -12479,12 +12510,16 @@
         <v>45461</v>
       </c>
       <c r="B258" s="2">
-        <v>4915</v>
+        <v>4911</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A259" s="1"/>
-      <c r="B259" s="2"/>
+      <c r="A259" s="1">
+        <v>45462</v>
+      </c>
+      <c r="B259" s="2">
+        <v>4893</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12494,7 +12529,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CEFCEF2-7336-4888-99EC-BFDE6073945C}">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:B257"/>
+  <dimension ref="A1:B258"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -12506,7 +12541,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'STA Index'", "dropna(px_last(start=-1Y, mode=CACHED)) as #PX_LAST","cols=2;rows=257")</f>
+        <f>_xll.BQL("'STA Index'", "dropna(px_last(start=-1Y, mode=CACHED)) as #PX_LAST","cols=2;rows=258")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -14558,7 +14593,15 @@
         <v>45461</v>
       </c>
       <c r="B257">
-        <v>33305</v>
+        <v>33326</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A258" s="1">
+        <v>45462</v>
+      </c>
+      <c r="B258">
+        <v>33290</v>
       </c>
     </row>
   </sheetData>
@@ -14583,7 +14626,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'MESA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=261")</f>
+        <f>_xll.BQL("'MESA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=262")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -16667,11 +16710,16 @@
         <v>45461</v>
       </c>
       <c r="B261">
-        <v>1098.699951171875</v>
+        <v>1098.7</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A262" s="1"/>
+      <c r="A262" s="1">
+        <v>45462</v>
+      </c>
+      <c r="B262">
+        <v>1105.199951171875</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16695,7 +16743,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'NKA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=248")</f>
+        <f>_xll.BQL("'NKA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=249")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -18679,7 +18727,12 @@
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A249" s="1"/>
+      <c r="A249" s="1">
+        <v>45462</v>
+      </c>
+      <c r="B249">
+        <v>38490</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/futures.xlsx
+++ b/futures.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssymhoven\Projekte\drawdown\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC2E8211-B165-4888-A1DA-DC1392C8B3C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41EDC6DC-EFE7-473F-848D-401B144E7C36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2085" yWindow="1260" windowWidth="31620" windowHeight="15885" firstSheet="2" activeTab="3" xr2:uid="{6B127A01-C975-41DD-8874-C1A98A2D19D1}"/>
+    <workbookView xWindow="-57720" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="3" xr2:uid="{6B127A01-C975-41DD-8874-C1A98A2D19D1}"/>
   </bookViews>
   <sheets>
     <sheet name="S&amp;P 500 INDEX" sheetId="1" r:id="rId1"/>
@@ -142,25 +142,25 @@
   <volType type="realTimeData">
     <main first="bofaddin.rtdserver">
       <tp t="s">
-        <v>#N/A Requesting Data...4012096887</v>
+        <v>#N/A Requesting Data...4287482685</v>
         <stp/>
         <stp>BQL|10979204741361998002</stp>
         <tr r="A1" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4204489478</v>
+        <v>#N/A Requesting Data...2643510265</v>
         <stp/>
         <stp>BQL|11089668446101062744</stp>
         <tr r="A1" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3565479172</v>
+        <v>#N/A Requesting Data...3192613345</v>
         <stp/>
         <stp>BQL|13806401711674025669</stp>
         <tr r="A1" s="7"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3951281498</v>
+        <v>#N/A Requesting Data...3433226657</v>
         <stp/>
         <stp>BQL|17286913404469340473</stp>
         <tr r="A1" s="12"/>
@@ -168,31 +168,31 @@
     </main>
     <main first="bofaddin.rtdserver">
       <tp t="s">
-        <v>#N/A Requesting Data...4065438593</v>
+        <v>#N/A Requesting Data...3991077330</v>
         <stp/>
         <stp>BQL|4061673230346776974</stp>
         <tr r="A1" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3875245726</v>
+        <v>#N/A Requesting Data...2578894122</v>
         <stp/>
         <stp>BQL|9748752228194856605</stp>
         <tr r="A1" s="9"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3802635557</v>
+        <v>#N/A Requesting Data...1428621482</v>
         <stp/>
         <stp>BQL|3296962516285955434</stp>
         <tr r="A1" s="13"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4005961475</v>
+        <v>#N/A Requesting Data...2668471002</v>
         <stp/>
         <stp>BQL|9143016819158358673</stp>
         <tr r="A1" s="10"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3898567541</v>
+        <v>#N/A Requesting Data...3200993125</v>
         <stp/>
         <stp>BQL|8937919304301651786</stp>
         <tr r="A1" s="11"/>
@@ -535,7 +535,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'ESA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=253")</f>
+        <f>_xll.BQL("'ESA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=254")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -2555,11 +2555,16 @@
         <v>45467</v>
       </c>
       <c r="B253">
-        <v>5531.75</v>
+        <v>5517</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A254" s="1"/>
+      <c r="A254" s="1">
+        <v>45468</v>
+      </c>
+      <c r="B254">
+        <v>5525.75</v>
+      </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" s="1"/>
@@ -2603,7 +2608,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'NQA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=253")</f>
+        <f>_xll.BQL("'NQA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=254")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -4623,11 +4628,16 @@
         <v>45467</v>
       </c>
       <c r="B253">
-        <v>19934.25</v>
+        <v>19750.75</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A254" s="1"/>
+      <c r="A254" s="1">
+        <v>45468</v>
+      </c>
+      <c r="B254">
+        <v>19864</v>
+      </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" s="1"/>
@@ -4652,7 +4662,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'GPA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=132")</f>
+        <f>_xll.BQL("'GPA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=133")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -5704,11 +5714,16 @@
         <v>45467</v>
       </c>
       <c r="B132">
-        <v>376.39999389648438</v>
+        <v>378.5</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133" s="3"/>
+      <c r="A133" s="3">
+        <v>45468</v>
+      </c>
+      <c r="B133">
+        <v>378.29998779296875</v>
+      </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="3"/>
@@ -5907,7 +5922,7 @@
   <dimension ref="A1:B259"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A247" workbookViewId="0">
-      <selection activeCell="B257" sqref="B257"/>
+      <selection activeCell="D258" sqref="D258"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5918,7 +5933,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'GXA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=257")</f>
+        <f>_xll.BQL("'GXA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=258")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -7970,11 +7985,16 @@
         <v>45467</v>
       </c>
       <c r="B257">
-        <v>18452</v>
+        <v>18526</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A258" s="1"/>
+      <c r="A258" s="1">
+        <v>45468</v>
+      </c>
+      <c r="B258">
+        <v>18349</v>
+      </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" s="1"/>
@@ -8001,7 +8021,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'Z A Index'", "dropna(px_last(start=-1Y, mode=CACHED)) as #PX_LAST","cols=2;rows=200")</f>
+        <f>_xll.BQL("'Z A Index'", "dropna(px_last(start=-1Y, mode=CACHED)) as #PX_LAST","cols=2;rows=201")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -9597,11 +9617,16 @@
         <v>45467</v>
       </c>
       <c r="B200">
-        <v>8318</v>
+        <v>8345.5</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A201" s="1"/>
+      <c r="A201" s="1">
+        <v>45468</v>
+      </c>
+      <c r="B201">
+        <v>8294.5</v>
+      </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="1"/>
@@ -9807,7 +9832,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'VGA Index'", "dropna(px_last(start=-1Y, mode=CACHED)) as #PX_LAST","cols=2;rows=257")</f>
+        <f>_xll.BQL("'VGA Index'", "dropna(px_last(start=-1Y, mode=CACHED)) as #PX_LAST","cols=2;rows=258")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -11859,12 +11884,16 @@
         <v>45467</v>
       </c>
       <c r="B257" s="2">
-        <v>4984</v>
+        <v>4997</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A258" s="1"/>
-      <c r="B258" s="2"/>
+      <c r="A258" s="1">
+        <v>45468</v>
+      </c>
+      <c r="B258" s="2">
+        <v>4973</v>
+      </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" s="1"/>
@@ -11890,7 +11919,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'STA Index'", "dropna(px_last(start=-1Y, mode=CACHED)) as #PX_LAST","cols=2;rows=197")</f>
+        <f>_xll.BQL("'STA Index'", "dropna(px_last(start=-1Y, mode=CACHED)) as #PX_LAST","cols=2;rows=198")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -13462,11 +13491,16 @@
         <v>45467</v>
       </c>
       <c r="B197">
-        <v>33870</v>
+        <v>34076</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A198" s="1"/>
+      <c r="A198" s="1">
+        <v>45468</v>
+      </c>
+      <c r="B198">
+        <v>33920</v>
+      </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="1"/>
@@ -13670,7 +13704,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'MESA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=260")</f>
+        <f>_xll.BQL("'MESA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=261")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -15746,11 +15780,16 @@
         <v>45467</v>
       </c>
       <c r="B260">
-        <v>1091.9000244140625</v>
+        <v>1091.7</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A261" s="1"/>
+      <c r="A261" s="1">
+        <v>45468</v>
+      </c>
+      <c r="B261">
+        <v>1086.9000244140625</v>
+      </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" s="1"/>
@@ -15777,7 +15816,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'NKA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=247")</f>
+        <f>_xll.BQL("'NKA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=248")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -17753,7 +17792,12 @@
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A248" s="1"/>
+      <c r="A248" s="1">
+        <v>45468</v>
+      </c>
+      <c r="B248">
+        <v>39150</v>
+      </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" s="1"/>

--- a/futures.xlsx
+++ b/futures.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssymhoven\Projekte\drawdown\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41EDC6DC-EFE7-473F-848D-401B144E7C36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FE50232-9FD2-471A-8662-59858393AA0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-57720" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="3" xr2:uid="{6B127A01-C975-41DD-8874-C1A98A2D19D1}"/>
   </bookViews>
@@ -142,25 +142,25 @@
   <volType type="realTimeData">
     <main first="bofaddin.rtdserver">
       <tp t="s">
-        <v>#N/A Requesting Data...4287482685</v>
+        <v>#N/A Requesting Data...1327268866</v>
         <stp/>
         <stp>BQL|10979204741361998002</stp>
         <tr r="A1" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2643510265</v>
+        <v>#N/A Requesting Data...4208861354</v>
         <stp/>
         <stp>BQL|11089668446101062744</stp>
         <tr r="A1" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3192613345</v>
+        <v>#N/A Requesting Data...1761701836</v>
         <stp/>
         <stp>BQL|13806401711674025669</stp>
         <tr r="A1" s="7"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3433226657</v>
+        <v>#N/A Requesting Data...2164303368</v>
         <stp/>
         <stp>BQL|17286913404469340473</stp>
         <tr r="A1" s="12"/>
@@ -168,31 +168,31 @@
     </main>
     <main first="bofaddin.rtdserver">
       <tp t="s">
-        <v>#N/A Requesting Data...3991077330</v>
+        <v>#N/A Requesting Data...3799962461</v>
         <stp/>
         <stp>BQL|4061673230346776974</stp>
         <tr r="A1" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2578894122</v>
+        <v>#N/A Requesting Data...2052595863</v>
         <stp/>
         <stp>BQL|9748752228194856605</stp>
         <tr r="A1" s="9"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1428621482</v>
+        <v>#N/A Requesting Data...2203022935</v>
         <stp/>
         <stp>BQL|3296962516285955434</stp>
         <tr r="A1" s="13"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2668471002</v>
+        <v>#N/A Requesting Data...3029641388</v>
         <stp/>
         <stp>BQL|9143016819158358673</stp>
         <tr r="A1" s="10"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3200993125</v>
+        <v>#N/A Requesting Data...2962897211</v>
         <stp/>
         <stp>BQL|8937919304301651786</stp>
         <tr r="A1" s="11"/>
@@ -535,7 +535,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'ESA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=254")</f>
+        <f>_xll.BQL("'ESA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=255")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -2563,11 +2563,16 @@
         <v>45468</v>
       </c>
       <c r="B254">
-        <v>5525.75</v>
+        <v>5537</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A255" s="1"/>
+      <c r="A255" s="1">
+        <v>45469</v>
+      </c>
+      <c r="B255">
+        <v>5521.75</v>
+      </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" s="1"/>
@@ -2608,7 +2613,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'NQA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=254")</f>
+        <f>_xll.BQL("'NQA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=255")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -4636,11 +4641,16 @@
         <v>45468</v>
       </c>
       <c r="B254">
-        <v>19864</v>
+        <v>19972.25</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A255" s="1"/>
+      <c r="A255" s="1">
+        <v>45469</v>
+      </c>
+      <c r="B255">
+        <v>19922.5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4662,7 +4672,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'GPA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=133")</f>
+        <f>_xll.BQL("'GPA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=134")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -5722,11 +5732,16 @@
         <v>45468</v>
       </c>
       <c r="B133">
-        <v>378.29998779296875</v>
+        <v>378.4</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134" s="3"/>
+      <c r="A134" s="3">
+        <v>45469</v>
+      </c>
+      <c r="B134">
+        <v>374.20001220703125</v>
+      </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="3"/>
@@ -5921,7 +5936,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:B259"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A247" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A241" workbookViewId="0">
       <selection activeCell="D258" sqref="D258"/>
     </sheetView>
   </sheetViews>
@@ -5933,7 +5948,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'GXA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=258")</f>
+        <f>_xll.BQL("'GXA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=259")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -7993,11 +8008,16 @@
         <v>45468</v>
       </c>
       <c r="B258">
-        <v>18349</v>
+        <v>18335</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A259" s="1"/>
+      <c r="A259" s="1">
+        <v>45469</v>
+      </c>
+      <c r="B259">
+        <v>18271</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8021,7 +8041,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'Z A Index'", "dropna(px_last(start=-1Y, mode=CACHED)) as #PX_LAST","cols=2;rows=201")</f>
+        <f>_xll.BQL("'Z A Index'", "dropna(px_last(start=-1Y, mode=CACHED)) as #PX_LAST","cols=2;rows=202")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -9625,11 +9645,16 @@
         <v>45468</v>
       </c>
       <c r="B201">
-        <v>8294.5</v>
+        <v>8288.5</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A202" s="1"/>
+      <c r="A202" s="1">
+        <v>45469</v>
+      </c>
+      <c r="B202">
+        <v>8251</v>
+      </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" s="1"/>
@@ -9832,7 +9857,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'VGA Index'", "dropna(px_last(start=-1Y, mode=CACHED)) as #PX_LAST","cols=2;rows=258")</f>
+        <f>_xll.BQL("'VGA Index'", "dropna(px_last(start=-1Y, mode=CACHED)) as #PX_LAST","cols=2;rows=259")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -11892,12 +11917,16 @@
         <v>45468</v>
       </c>
       <c r="B258" s="2">
-        <v>4973</v>
+        <v>4971</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A259" s="1"/>
-      <c r="B259" s="2"/>
+      <c r="A259" s="1">
+        <v>45469</v>
+      </c>
+      <c r="B259" s="2">
+        <v>4943</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11919,7 +11948,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'STA Index'", "dropna(px_last(start=-1Y, mode=CACHED)) as #PX_LAST","cols=2;rows=198")</f>
+        <f>_xll.BQL("'STA Index'", "dropna(px_last(start=-1Y, mode=CACHED)) as #PX_LAST","cols=2;rows=199")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -13499,11 +13528,16 @@
         <v>45468</v>
       </c>
       <c r="B198">
-        <v>33920</v>
+        <v>33948</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A199" s="1"/>
+      <c r="A199" s="1">
+        <v>45469</v>
+      </c>
+      <c r="B199">
+        <v>33685</v>
+      </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="1"/>
@@ -13704,7 +13738,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'MESA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=261")</f>
+        <f>_xll.BQL("'MESA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=262")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -15788,11 +15822,16 @@
         <v>45468</v>
       </c>
       <c r="B261">
-        <v>1086.9000244140625</v>
+        <v>1087.9000000000001</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A262" s="1"/>
+      <c r="A262" s="1">
+        <v>45469</v>
+      </c>
+      <c r="B262">
+        <v>1085.699951171875</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15816,7 +15855,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'NKA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=248")</f>
+        <f>_xll.BQL("'NKA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=249")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -17800,7 +17839,12 @@
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A249" s="1"/>
+      <c r="A249" s="1">
+        <v>45469</v>
+      </c>
+      <c r="B249">
+        <v>39620</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/futures.xlsx
+++ b/futures.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssymhoven\Projekte\drawdown\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37D0D108-A2D4-4A64-AC96-85C29AA25501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C6E79A8-DC95-47D7-B7DC-7EF0D7F4B138}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="6" xr2:uid="{6B127A01-C975-41DD-8874-C1A98A2D19D1}"/>
+    <workbookView xWindow="-57720" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="6" xr2:uid="{6B127A01-C975-41DD-8874-C1A98A2D19D1}"/>
   </bookViews>
   <sheets>
     <sheet name="S&amp;P 500 INDEX" sheetId="1" r:id="rId1"/>
@@ -142,25 +142,25 @@
   <volType type="realTimeData">
     <main first="bofaddin.rtdserver">
       <tp t="s">
-        <v>#N/A Requesting Data...4237369051</v>
+        <v>#N/A Requesting Data...4128945951</v>
         <stp/>
         <stp>BQL|10979204741361998002</stp>
         <tr r="A1" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4240134530</v>
+        <v>#N/A Requesting Data...3838756355</v>
         <stp/>
         <stp>BQL|11089668446101062744</stp>
         <tr r="A1" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3676167013</v>
+        <v>#N/A Requesting Data...3984154740</v>
         <stp/>
         <stp>BQL|13806401711674025669</stp>
         <tr r="A1" s="7"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3818908507</v>
+        <v>#N/A Requesting Data...3862948814</v>
         <stp/>
         <stp>BQL|17286913404469340473</stp>
         <tr r="A1" s="12"/>
@@ -168,31 +168,31 @@
     </main>
     <main first="bofaddin.rtdserver">
       <tp t="s">
-        <v>#N/A Requesting Data...3620674115</v>
+        <v>#N/A Requesting Data...4170224743</v>
         <stp/>
         <stp>BQL|4061673230346776974</stp>
         <tr r="A1" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4218735217</v>
+        <v>#N/A Requesting Data...4266455825</v>
         <stp/>
         <stp>BQL|9748752228194856605</stp>
         <tr r="A1" s="9"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3823697065</v>
+        <v>#N/A Requesting Data...4022313334</v>
         <stp/>
         <stp>BQL|3296962516285955434</stp>
         <tr r="A1" s="13"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4069787463</v>
+        <v>#N/A Requesting Data...3848325656</v>
         <stp/>
         <stp>BQL|9143016819158358673</stp>
         <tr r="A1" s="10"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3807710934</v>
+        <v>#N/A Requesting Data...3973960612</v>
         <stp/>
         <stp>BQL|8937919304301651786</stp>
         <tr r="A1" s="11"/>
@@ -535,7 +535,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'ESA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=253")</f>
+        <f>_xll.BQL("'ESA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=254")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -2555,11 +2555,16 @@
         <v>45474</v>
       </c>
       <c r="B253">
-        <v>5513.5</v>
+        <v>5533.75</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A254" s="1"/>
+      <c r="A254" s="1">
+        <v>45475</v>
+      </c>
+      <c r="B254">
+        <v>5508.25</v>
+      </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" s="1"/>
@@ -2603,7 +2608,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'NQA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=253")</f>
+        <f>_xll.BQL("'NQA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=254")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -4623,11 +4628,16 @@
         <v>45474</v>
       </c>
       <c r="B253">
-        <v>19899</v>
+        <v>20052</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A254" s="1"/>
+      <c r="A254" s="1">
+        <v>45475</v>
+      </c>
+      <c r="B254">
+        <v>19931.75</v>
+      </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" s="1"/>
@@ -4652,7 +4662,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'GPA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=137")</f>
+        <f>_xll.BQL("'GPA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=138")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -5744,11 +5754,16 @@
         <v>45474</v>
       </c>
       <c r="B137">
-        <v>374.60000610351563</v>
+        <v>373.8</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138" s="3"/>
+      <c r="A138" s="3">
+        <v>45475</v>
+      </c>
+      <c r="B138">
+        <v>371.70001220703125</v>
+      </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="3"/>
@@ -5943,7 +5958,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'GXA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=257")</f>
+        <f>_xll.BQL("'GXA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=258")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -7995,11 +8010,16 @@
         <v>45474</v>
       </c>
       <c r="B257">
-        <v>18491</v>
+        <v>18490</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A258" s="1"/>
+      <c r="A258" s="1">
+        <v>45475</v>
+      </c>
+      <c r="B258">
+        <v>18237</v>
+      </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" s="1"/>
@@ -8026,7 +8046,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'Z A Index'", "dropna(px_last(start=-1Y, mode=CACHED)) as #PX_LAST","cols=2;rows=205")</f>
+        <f>_xll.BQL("'Z A Index'", "dropna(px_last(start=-1Y, mode=CACHED)) as #PX_LAST","cols=2;rows=206")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -9662,11 +9682,16 @@
         <v>45474</v>
       </c>
       <c r="B205">
-        <v>8221</v>
+        <v>8213</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A206" s="1"/>
+      <c r="A206" s="1">
+        <v>45475</v>
+      </c>
+      <c r="B206">
+        <v>8164</v>
+      </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" s="1"/>
@@ -9857,7 +9882,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'VGA Index'", "dropna(px_last(start=-1Y, mode=CACHED)) as #PX_LAST","cols=2;rows=257")</f>
+        <f>_xll.BQL("'VGA Index'", "dropna(px_last(start=-1Y, mode=CACHED)) as #PX_LAST","cols=2;rows=258")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -11909,12 +11934,16 @@
         <v>45474</v>
       </c>
       <c r="B257" s="2">
-        <v>4974</v>
+        <v>4972</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A258" s="1"/>
-      <c r="B258" s="2"/>
+      <c r="A258" s="1">
+        <v>45475</v>
+      </c>
+      <c r="B258" s="2">
+        <v>4911</v>
+      </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" s="1"/>
@@ -11942,7 +11971,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'STA Index'", "dropna(px_last(start=-1Y, mode=CACHED)) as #PX_LAST","cols=2;rows=202")</f>
+        <f>_xll.BQL("'STA Index'", "dropna(px_last(start=-1Y, mode=CACHED)) as #PX_LAST","cols=2;rows=203")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -13554,11 +13583,16 @@
         <v>45474</v>
       </c>
       <c r="B202">
-        <v>33945</v>
+        <v>33927</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A203" s="1"/>
+      <c r="A203" s="1">
+        <v>45475</v>
+      </c>
+      <c r="B203">
+        <v>33495</v>
+      </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" s="1"/>
@@ -13747,7 +13781,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'MESA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=260")</f>
+        <f>_xll.BQL("'MESA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=261")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -15823,11 +15857,16 @@
         <v>45474</v>
       </c>
       <c r="B260">
-        <v>1090.300048828125</v>
+        <v>1090.4000000000001</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A261" s="1"/>
+      <c r="A261" s="1">
+        <v>45475</v>
+      </c>
+      <c r="B261">
+        <v>1085.5</v>
+      </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" s="1"/>
@@ -15854,7 +15893,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'NKA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=247")</f>
+        <f>_xll.BQL("'NKA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=248")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -17830,7 +17869,12 @@
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A248" s="1"/>
+      <c r="A248" s="1">
+        <v>45475</v>
+      </c>
+      <c r="B248">
+        <v>40110</v>
+      </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" s="1"/>

--- a/futures.xlsx
+++ b/futures.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssymhoven\Projekte\drawdown\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C6E79A8-DC95-47D7-B7DC-7EF0D7F4B138}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{758AA859-8380-4414-8294-8D71837B6B47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-57720" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="6" xr2:uid="{6B127A01-C975-41DD-8874-C1A98A2D19D1}"/>
+    <workbookView xWindow="-53775" yWindow="1725" windowWidth="20085" windowHeight="10905" firstSheet="2" activeTab="6" xr2:uid="{6B127A01-C975-41DD-8874-C1A98A2D19D1}"/>
   </bookViews>
   <sheets>
     <sheet name="S&amp;P 500 INDEX" sheetId="1" r:id="rId1"/>
@@ -142,25 +142,25 @@
   <volType type="realTimeData">
     <main first="bofaddin.rtdserver">
       <tp t="s">
-        <v>#N/A Requesting Data...4128945951</v>
+        <v>#N/A Requesting Data...4171655460</v>
         <stp/>
         <stp>BQL|10979204741361998002</stp>
         <tr r="A1" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3838756355</v>
+        <v>#N/A Requesting Data...4230826231</v>
         <stp/>
         <stp>BQL|11089668446101062744</stp>
         <tr r="A1" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3984154740</v>
+        <v>#N/A Requesting Data...4136487781</v>
         <stp/>
         <stp>BQL|13806401711674025669</stp>
         <tr r="A1" s="7"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3862948814</v>
+        <v>#N/A Requesting Data...4101802651</v>
         <stp/>
         <stp>BQL|17286913404469340473</stp>
         <tr r="A1" s="12"/>
@@ -168,31 +168,31 @@
     </main>
     <main first="bofaddin.rtdserver">
       <tp t="s">
-        <v>#N/A Requesting Data...4170224743</v>
+        <v>#N/A Requesting Data...4127098769</v>
         <stp/>
         <stp>BQL|4061673230346776974</stp>
         <tr r="A1" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4266455825</v>
+        <v>#N/A Requesting Data...4019664757</v>
         <stp/>
         <stp>BQL|9748752228194856605</stp>
         <tr r="A1" s="9"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4022313334</v>
+        <v>#N/A Requesting Data...4281588548</v>
         <stp/>
         <stp>BQL|3296962516285955434</stp>
         <tr r="A1" s="13"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3848325656</v>
+        <v>#N/A Requesting Data...4015753309</v>
         <stp/>
         <stp>BQL|9143016819158358673</stp>
         <tr r="A1" s="10"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3973960612</v>
+        <v>#N/A Requesting Data...4212748819</v>
         <stp/>
         <stp>BQL|8937919304301651786</stp>
         <tr r="A1" s="11"/>
@@ -535,7 +535,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'ESA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=254")</f>
+        <f>_xll.BQL("'ESA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=255")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -2563,11 +2563,16 @@
         <v>45475</v>
       </c>
       <c r="B254">
-        <v>5508.25</v>
+        <v>5568.75</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A255" s="1"/>
+      <c r="A255" s="1">
+        <v>45476</v>
+      </c>
+      <c r="B255">
+        <v>5565.75</v>
+      </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" s="1"/>
@@ -2608,7 +2613,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'NQA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=254")</f>
+        <f>_xll.BQL("'NQA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=255")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -4636,11 +4641,16 @@
         <v>45475</v>
       </c>
       <c r="B254">
-        <v>19931.75</v>
+        <v>20255.25</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A255" s="1"/>
+      <c r="A255" s="1">
+        <v>45476</v>
+      </c>
+      <c r="B255">
+        <v>20242</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4662,7 +4672,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'GPA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=138")</f>
+        <f>_xll.BQL("'GPA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=139")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -5762,11 +5772,16 @@
         <v>45475</v>
       </c>
       <c r="B138">
-        <v>371.70001220703125</v>
+        <v>371.1</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139" s="3"/>
+      <c r="A139" s="3">
+        <v>45476</v>
+      </c>
+      <c r="B139">
+        <v>374.39999389648438</v>
+      </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="3"/>
@@ -5958,7 +5973,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'GXA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=258")</f>
+        <f>_xll.BQL("'GXA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=259")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -8018,11 +8033,16 @@
         <v>45475</v>
       </c>
       <c r="B258">
-        <v>18237</v>
+        <v>18315</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A259" s="1"/>
+      <c r="A259" s="1">
+        <v>45476</v>
+      </c>
+      <c r="B259">
+        <v>18485</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8046,7 +8066,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'Z A Index'", "dropna(px_last(start=-1Y, mode=CACHED)) as #PX_LAST","cols=2;rows=206")</f>
+        <f>_xll.BQL("'Z A Index'", "dropna(px_last(start=-1Y, mode=CACHED)) as #PX_LAST","cols=2;rows=207")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -9690,11 +9710,16 @@
         <v>45475</v>
       </c>
       <c r="B206">
-        <v>8164</v>
+        <v>8151</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A207" s="1"/>
+      <c r="A207" s="1">
+        <v>45476</v>
+      </c>
+      <c r="B207">
+        <v>8195</v>
+      </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" s="1"/>
@@ -9882,7 +9907,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'VGA Index'", "dropna(px_last(start=-1Y, mode=CACHED)) as #PX_LAST","cols=2;rows=258")</f>
+        <f>_xll.BQL("'VGA Index'", "dropna(px_last(start=-1Y, mode=CACHED)) as #PX_LAST","cols=2;rows=259")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -11942,12 +11967,16 @@
         <v>45475</v>
       </c>
       <c r="B258" s="2">
-        <v>4911</v>
+        <v>4940</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A259" s="1"/>
-      <c r="B259" s="2"/>
+      <c r="A259" s="1">
+        <v>45476</v>
+      </c>
+      <c r="B259" s="2">
+        <v>5001</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11959,8 +11988,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:B258"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A180" workbookViewId="0">
-      <selection activeCell="L201" sqref="L201"/>
+    <sheetView tabSelected="1" topLeftCell="A198" workbookViewId="0">
+      <selection activeCell="F186" sqref="F186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11971,7 +12000,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'STA Index'", "dropna(px_last(start=-1Y, mode=CACHED)) as #PX_LAST","cols=2;rows=203")</f>
+        <f>_xll.BQL("'STA Index'", "dropna(px_last(start=-1Y, mode=CACHED)) as #PX_LAST","cols=2;rows=204")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -13591,11 +13620,16 @@
         <v>45475</v>
       </c>
       <c r="B203">
-        <v>33495</v>
+        <v>33679</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A204" s="1"/>
+      <c r="A204" s="1">
+        <v>45476</v>
+      </c>
+      <c r="B204">
+        <v>34130</v>
+      </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" s="1"/>
@@ -13781,7 +13815,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'MESA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=261")</f>
+        <f>_xll.BQL("'MESA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=262")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -15865,11 +15899,16 @@
         <v>45475</v>
       </c>
       <c r="B261">
-        <v>1085.5</v>
+        <v>1094.3</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A262" s="1"/>
+      <c r="A262" s="1">
+        <v>45476</v>
+      </c>
+      <c r="B262">
+        <v>1099.9000244140625</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15893,7 +15932,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'NKA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=248")</f>
+        <f>_xll.BQL("'NKA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=249")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -17877,7 +17916,12 @@
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A249" s="1"/>
+      <c r="A249" s="1">
+        <v>45476</v>
+      </c>
+      <c r="B249">
+        <v>40600</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/futures.xlsx
+++ b/futures.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssymhoven\Projekte\drawdown\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A78DCF3D-1714-4DBE-A565-E69CF04CE897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{104F4B2B-19A7-4AE5-BF32-CEBD6126F9D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-52545" yWindow="300" windowWidth="23400" windowHeight="14340" firstSheet="2" activeTab="6" xr2:uid="{6B127A01-C975-41DD-8874-C1A98A2D19D1}"/>
+    <workbookView xWindow="-27495" yWindow="435" windowWidth="23400" windowHeight="14340" firstSheet="2" activeTab="6" xr2:uid="{6B127A01-C975-41DD-8874-C1A98A2D19D1}"/>
   </bookViews>
   <sheets>
     <sheet name="S&amp;P 500 INDEX" sheetId="1" r:id="rId1"/>
@@ -142,25 +142,25 @@
   <volType type="realTimeData">
     <main first="bofaddin.rtdserver">
       <tp t="s">
-        <v>#N/A Requesting Data...2508255561</v>
+        <v>#N/A Requesting Data...3634504224</v>
         <stp/>
         <stp>BQL|10979204741361998002</stp>
         <tr r="A1" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3268793929</v>
+        <v>#N/A Requesting Data...2886607400</v>
         <stp/>
         <stp>BQL|11089668446101062744</stp>
         <tr r="A1" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2356513152</v>
+        <v>#N/A Requesting Data...3028173137</v>
         <stp/>
         <stp>BQL|13806401711674025669</stp>
         <tr r="A1" s="7"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2324684642</v>
+        <v>#N/A Requesting Data...4133728847</v>
         <stp/>
         <stp>BQL|17286913404469340473</stp>
         <tr r="A1" s="12"/>
@@ -168,31 +168,31 @@
     </main>
     <main first="bofaddin.rtdserver">
       <tp t="s">
-        <v>#N/A Requesting Data...4198509898</v>
+        <v>#N/A Requesting Data...3840562681</v>
         <stp/>
         <stp>BQL|4061673230346776974</stp>
         <tr r="A1" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2398771369</v>
+        <v>#N/A Requesting Data...4031194407</v>
         <stp/>
         <stp>BQL|9748752228194856605</stp>
         <tr r="A1" s="9"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2455476112</v>
+        <v>#N/A Requesting Data...4048398070</v>
         <stp/>
         <stp>BQL|3296962516285955434</stp>
         <tr r="A1" s="13"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2773342284</v>
+        <v>#N/A Requesting Data...3819772868</v>
         <stp/>
         <stp>BQL|9143016819158358673</stp>
         <tr r="A1" s="10"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3771890240</v>
+        <v>#N/A Requesting Data...3546031589</v>
         <stp/>
         <stp>BQL|8937919304301651786</stp>
         <tr r="A1" s="11"/>
@@ -535,7 +535,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'ESA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=253")</f>
+        <f>_xll.BQL("'ESA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=255")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -2555,14 +2555,24 @@
         <v>45481</v>
       </c>
       <c r="B253">
-        <v>5618.5</v>
+        <v>5625.25</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A254" s="1"/>
+      <c r="A254" s="1">
+        <v>45482</v>
+      </c>
+      <c r="B254">
+        <v>5631.25</v>
+      </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A255" s="1"/>
+      <c r="A255" s="1">
+        <v>45483</v>
+      </c>
+      <c r="B255">
+        <v>5642.75</v>
+      </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" s="1"/>
@@ -2603,7 +2613,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'NQA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=253")</f>
+        <f>_xll.BQL("'NQA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=255")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -4623,14 +4633,24 @@
         <v>45481</v>
       </c>
       <c r="B253">
-        <v>20608.25</v>
+        <v>20659.75</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A254" s="1"/>
+      <c r="A254" s="1">
+        <v>45482</v>
+      </c>
+      <c r="B254">
+        <v>20678.5</v>
+      </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A255" s="1"/>
+      <c r="A255" s="1">
+        <v>45483</v>
+      </c>
+      <c r="B255">
+        <v>20728.5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4652,7 +4672,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'GPA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=142")</f>
+        <f>_xll.BQL("'GPA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=144")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -5784,14 +5804,24 @@
         <v>45481</v>
       </c>
       <c r="B142">
+        <v>379.3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" s="3">
+        <v>45482</v>
+      </c>
+      <c r="B143">
+        <v>376.1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" s="3">
+        <v>45483</v>
+      </c>
+      <c r="B144">
         <v>381.10000610351563</v>
       </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143" s="3"/>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144" s="3"/>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" s="3"/>
@@ -5968,7 +5998,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'GXA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=257")</f>
+        <f>_xll.BQL("'GXA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=259")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -8020,14 +8050,24 @@
         <v>45481</v>
       </c>
       <c r="B257">
-        <v>18696</v>
+        <v>18645</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A258" s="1"/>
+      <c r="A258" s="1">
+        <v>45482</v>
+      </c>
+      <c r="B258">
+        <v>18369</v>
+      </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A259" s="1"/>
+      <c r="A259" s="1">
+        <v>45483</v>
+      </c>
+      <c r="B259">
+        <v>18554</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8051,7 +8091,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'Z A Index'", "dropna(px_last(start=-1Y, mode=CACHED)) as #PX_LAST","cols=2;rows=210")</f>
+        <f>_xll.BQL("'Z A Index'", "dropna(px_last(start=-1Y, mode=CACHED)) as #PX_LAST","cols=2;rows=212")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -9727,14 +9767,24 @@
         <v>45481</v>
       </c>
       <c r="B210">
-        <v>8244.5</v>
+        <v>8224</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A211" s="1"/>
+      <c r="A211" s="1">
+        <v>45482</v>
+      </c>
+      <c r="B211">
+        <v>8160.5</v>
+      </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A212" s="1"/>
+      <c r="A212" s="1">
+        <v>45483</v>
+      </c>
+      <c r="B212">
+        <v>8207</v>
+      </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" s="1"/>
@@ -9907,7 +9957,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'VGA Index'", "dropna(px_last(start=-1Y, mode=CACHED)) as #PX_LAST","cols=2;rows=257")</f>
+        <f>_xll.BQL("'VGA Index'", "dropna(px_last(start=-1Y, mode=CACHED)) as #PX_LAST","cols=2;rows=259")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -11959,16 +12009,24 @@
         <v>45481</v>
       </c>
       <c r="B257" s="2">
-        <v>5033</v>
+        <v>5012</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A258" s="1"/>
-      <c r="B258" s="2"/>
+      <c r="A258" s="1">
+        <v>45482</v>
+      </c>
+      <c r="B258" s="2">
+        <v>4931</v>
+      </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A259" s="1"/>
-      <c r="B259" s="2"/>
+      <c r="A259" s="1">
+        <v>45483</v>
+      </c>
+      <c r="B259" s="2">
+        <v>4990</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11981,7 +12039,7 @@
   <dimension ref="A1:B258"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A198" workbookViewId="0">
-      <selection activeCell="E204" sqref="E204"/>
+      <selection activeCell="G207" sqref="G207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11992,7 +12050,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'STA Index'", "dropna(px_last(start=-1Y, mode=CACHED)) as #PX_LAST","cols=2;rows=207")</f>
+        <f>_xll.BQL("'STA Index'", "dropna(px_last(start=-1Y, mode=CACHED)) as #PX_LAST","cols=2;rows=209")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -13644,58 +13702,68 @@
         <v>45481</v>
       </c>
       <c r="B207">
-        <v>34360</v>
+        <v>34229</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A208" s="1"/>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A209" s="1"/>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A208" s="1">
+        <v>45482</v>
+      </c>
+      <c r="B208">
+        <v>34042</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209" s="1">
+        <v>45483</v>
+      </c>
+      <c r="B209">
+        <v>34410</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" s="1"/>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" s="1"/>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" s="1"/>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" s="1"/>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" s="1"/>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" s="1"/>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" s="1"/>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" s="1"/>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" s="1"/>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" s="1"/>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" s="1"/>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" s="1"/>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" s="1"/>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" s="1"/>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" s="1"/>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
@@ -13822,7 +13890,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'MESA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=260")</f>
+        <f>_xll.BQL("'MESA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=262")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -15898,14 +15966,24 @@
         <v>45481</v>
       </c>
       <c r="B260">
-        <v>1116.4000244140625</v>
+        <v>1114.9000000000001</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A261" s="1"/>
+      <c r="A261" s="1">
+        <v>45482</v>
+      </c>
+      <c r="B261">
+        <v>1119.0999999999999</v>
+      </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A262" s="1"/>
+      <c r="A262" s="1">
+        <v>45483</v>
+      </c>
+      <c r="B262">
+        <v>1121</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15929,7 +16007,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'NKA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=247")</f>
+        <f>_xll.BQL("'NKA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=249")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -17905,10 +17983,20 @@
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A248" s="1"/>
+      <c r="A248" s="1">
+        <v>45482</v>
+      </c>
+      <c r="B248">
+        <v>41620</v>
+      </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A249" s="1"/>
+      <c r="A249" s="1">
+        <v>45483</v>
+      </c>
+      <c r="B249">
+        <v>41940</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/futures.xlsx
+++ b/futures.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssymhoven\Projekte\drawdown\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2849FCB6-B64E-47DC-88E8-E4E294898DF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C70F107-C4E9-4541-8565-BD741329E388}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3435" yWindow="1965" windowWidth="27990" windowHeight="18450" firstSheet="2" activeTab="2" xr2:uid="{6B127A01-C975-41DD-8874-C1A98A2D19D1}"/>
+    <workbookView xWindow="5670" yWindow="1425" windowWidth="27990" windowHeight="18450" firstSheet="2" activeTab="2" xr2:uid="{6B127A01-C975-41DD-8874-C1A98A2D19D1}"/>
   </bookViews>
   <sheets>
     <sheet name="S&amp;P 500 INDEX" sheetId="1" r:id="rId1"/>
@@ -142,25 +142,25 @@
   <volType type="realTimeData">
     <main first="bofaddin.rtdserver">
       <tp t="s">
-        <v>#N/A Requesting Data...3823724811</v>
+        <v>#N/A Requesting Data...3982736123</v>
         <stp/>
         <stp>BQL|10979204741361998002</stp>
         <tr r="A1" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3051139462</v>
+        <v>#N/A Requesting Data...3163624419</v>
         <stp/>
         <stp>BQL|11089668446101062744</stp>
         <tr r="A1" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3197529073</v>
+        <v>#N/A Requesting Data...4280587485</v>
         <stp/>
         <stp>BQL|13806401711674025669</stp>
         <tr r="A1" s="7"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2684971022</v>
+        <v>#N/A Requesting Data...3424260882</v>
         <stp/>
         <stp>BQL|17286913404469340473</stp>
         <tr r="A1" s="12"/>
@@ -168,31 +168,31 @@
     </main>
     <main first="bofaddin.rtdserver">
       <tp t="s">
-        <v>#N/A Requesting Data...2106606500</v>
+        <v>#N/A Requesting Data...3596782515</v>
         <stp/>
         <stp>BQL|4061673230346776974</stp>
         <tr r="A1" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1929019912</v>
+        <v>#N/A Requesting Data...4146497327</v>
         <stp/>
         <stp>BQL|9748752228194856605</stp>
         <tr r="A1" s="9"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2376284877</v>
+        <v>#N/A Requesting Data...3477126129</v>
         <stp/>
         <stp>BQL|3296962516285955434</stp>
         <tr r="A1" s="13"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4219844312</v>
+        <v>#N/A Requesting Data...3991052428</v>
         <stp/>
         <stp>BQL|9143016819158358673</stp>
         <tr r="A1" s="10"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1970851563</v>
+        <v>#N/A Requesting Data...3819337802</v>
         <stp/>
         <stp>BQL|8937919304301651786</stp>
         <tr r="A1" s="11"/>
@@ -535,7 +535,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'ESA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=253")</f>
+        <f>_xll.BQL("'ESA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=254")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -2555,11 +2555,16 @@
         <v>45488</v>
       </c>
       <c r="B253">
-        <v>5696</v>
+        <v>5683</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A254" s="1"/>
+      <c r="A254" s="1">
+        <v>45489</v>
+      </c>
+      <c r="B254">
+        <v>5692.75</v>
+      </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" s="1"/>
@@ -2603,7 +2608,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'NQA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=253")</f>
+        <f>_xll.BQL("'NQA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=254")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -4623,11 +4628,16 @@
         <v>45488</v>
       </c>
       <c r="B253">
-        <v>20673</v>
+        <v>20583.75</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A254" s="1"/>
+      <c r="A254" s="1">
+        <v>45489</v>
+      </c>
+      <c r="B254">
+        <v>20509</v>
+      </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" s="1"/>
@@ -4652,7 +4662,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'GPA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=147")</f>
+        <f>_xll.BQL("'GPA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=148")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -5824,11 +5834,16 @@
         <v>45488</v>
       </c>
       <c r="B147">
-        <v>380</v>
+        <v>379.7</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A148" s="3"/>
+      <c r="A148" s="3">
+        <v>45489</v>
+      </c>
+      <c r="B148">
+        <v>377.70001220703125</v>
+      </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="3"/>
@@ -5993,7 +6008,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'GXA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=257")</f>
+        <f>_xll.BQL("'GXA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=258")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -8045,11 +8060,16 @@
         <v>45488</v>
       </c>
       <c r="B257">
-        <v>18750</v>
+        <v>18744</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A258" s="1"/>
+      <c r="A258" s="1">
+        <v>45489</v>
+      </c>
+      <c r="B258">
+        <v>18660</v>
+      </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" s="1"/>
@@ -8076,7 +8096,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'Z A Index'", "dropna(px_last(start=-1Y, mode=CACHED)) as #PX_LAST","cols=2;rows=215")</f>
+        <f>_xll.BQL("'Z A Index'", "dropna(px_last(start=-1Y, mode=CACHED)) as #PX_LAST","cols=2;rows=216")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -9792,11 +9812,16 @@
         <v>45488</v>
       </c>
       <c r="B215">
-        <v>8202.5</v>
+        <v>8200.5</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A216" s="1"/>
+      <c r="A216" s="1">
+        <v>45489</v>
+      </c>
+      <c r="B216">
+        <v>8167</v>
+      </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" s="1"/>
@@ -9957,7 +9982,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'VGA Index'", "dropna(px_last(start=-1Y, mode=CACHED)) as #PX_LAST","cols=2;rows=257")</f>
+        <f>_xll.BQL("'VGA Index'", "dropna(px_last(start=-1Y, mode=CACHED)) as #PX_LAST","cols=2;rows=258")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -12009,12 +12034,16 @@
         <v>45488</v>
       </c>
       <c r="B257" s="2">
-        <v>5024</v>
+        <v>5020</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A258" s="1"/>
-      <c r="B258" s="2"/>
+      <c r="A258" s="1">
+        <v>45489</v>
+      </c>
+      <c r="B258" s="2">
+        <v>4983</v>
+      </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" s="1"/>
@@ -12042,7 +12071,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'STA Index'", "dropna(px_last(start=-1Y, mode=CACHED)) as #PX_LAST","cols=2;rows=212")</f>
+        <f>_xll.BQL("'STA Index'", "dropna(px_last(start=-1Y, mode=CACHED)) as #PX_LAST","cols=2;rows=213")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -13734,11 +13763,16 @@
         <v>45488</v>
       </c>
       <c r="B212">
-        <v>34555</v>
+        <v>34537</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A213" s="1"/>
+      <c r="A213" s="1">
+        <v>45489</v>
+      </c>
+      <c r="B213">
+        <v>34525</v>
+      </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" s="1"/>
@@ -13897,7 +13931,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'MESA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=260")</f>
+        <f>_xll.BQL("'MESA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=261")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -15973,11 +16007,16 @@
         <v>45488</v>
       </c>
       <c r="B260">
-        <v>1128.699951171875</v>
+        <v>1123.8</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A261" s="1"/>
+      <c r="A261" s="1">
+        <v>45489</v>
+      </c>
+      <c r="B261">
+        <v>1125.5</v>
+      </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" s="1"/>
@@ -16004,7 +16043,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'NKA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=246")</f>
+        <f>_xll.BQL("'NKA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=247")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -17972,7 +18011,12 @@
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A247" s="1"/>
+      <c r="A247" s="1">
+        <v>45489</v>
+      </c>
+      <c r="B247">
+        <v>41240</v>
+      </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" s="1"/>

--- a/futures.xlsx
+++ b/futures.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssymhoven\Projekte\drawdown\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C70F107-C4E9-4541-8565-BD741329E388}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A778D400-B9E1-4A70-BEC7-53ED28D4F63C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5670" yWindow="1425" windowWidth="27990" windowHeight="18450" firstSheet="2" activeTab="2" xr2:uid="{6B127A01-C975-41DD-8874-C1A98A2D19D1}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="2" xr2:uid="{6B127A01-C975-41DD-8874-C1A98A2D19D1}"/>
   </bookViews>
   <sheets>
     <sheet name="S&amp;P 500 INDEX" sheetId="1" r:id="rId1"/>
@@ -142,25 +142,25 @@
   <volType type="realTimeData">
     <main first="bofaddin.rtdserver">
       <tp t="s">
-        <v>#N/A Requesting Data...3982736123</v>
+        <v>#N/A Requesting Data...3808724515</v>
         <stp/>
         <stp>BQL|10979204741361998002</stp>
         <tr r="A1" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3163624419</v>
+        <v>#N/A Requesting Data...4104350193</v>
         <stp/>
         <stp>BQL|11089668446101062744</stp>
         <tr r="A1" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4280587485</v>
+        <v>#N/A Requesting Data...3976890386</v>
         <stp/>
         <stp>BQL|13806401711674025669</stp>
         <tr r="A1" s="7"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3424260882</v>
+        <v>#N/A Requesting Data...4252544669</v>
         <stp/>
         <stp>BQL|17286913404469340473</stp>
         <tr r="A1" s="12"/>
@@ -168,31 +168,31 @@
     </main>
     <main first="bofaddin.rtdserver">
       <tp t="s">
-        <v>#N/A Requesting Data...3596782515</v>
+        <v>#N/A Requesting Data...4037568849</v>
         <stp/>
         <stp>BQL|4061673230346776974</stp>
         <tr r="A1" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4146497327</v>
+        <v>#N/A Requesting Data...3940664885</v>
         <stp/>
         <stp>BQL|9748752228194856605</stp>
         <tr r="A1" s="9"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3477126129</v>
+        <v>#N/A Requesting Data...3931542470</v>
         <stp/>
         <stp>BQL|3296962516285955434</stp>
         <tr r="A1" s="13"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3991052428</v>
+        <v>#N/A Requesting Data...3943705112</v>
         <stp/>
         <stp>BQL|9143016819158358673</stp>
         <tr r="A1" s="10"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3819337802</v>
+        <v>#N/A Requesting Data...4278321164</v>
         <stp/>
         <stp>BQL|8937919304301651786</stp>
         <tr r="A1" s="11"/>
@@ -535,7 +535,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'ESA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=254")</f>
+        <f>_xll.BQL("'ESA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=255")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -2563,11 +2563,16 @@
         <v>45489</v>
       </c>
       <c r="B254">
-        <v>5692.75</v>
+        <v>5717.25</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A255" s="1"/>
+      <c r="A255" s="1">
+        <v>45490</v>
+      </c>
+      <c r="B255">
+        <v>5655.5</v>
+      </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" s="1"/>
@@ -2608,7 +2613,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'NQA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=254")</f>
+        <f>_xll.BQL("'NQA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=255")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -4636,11 +4641,16 @@
         <v>45489</v>
       </c>
       <c r="B254">
-        <v>20509</v>
+        <v>20598</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A255" s="1"/>
+      <c r="A255" s="1">
+        <v>45490</v>
+      </c>
+      <c r="B255">
+        <v>20124.25</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4652,7 +4662,7 @@
   <dimension ref="A1:B195"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="H137" sqref="H137"/>
+      <selection activeCell="U138" sqref="U138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4662,7 +4672,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'GPA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=148")</f>
+        <f>_xll.BQL("'GPA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=149")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -5842,11 +5852,16 @@
         <v>45489</v>
       </c>
       <c r="B148">
-        <v>377.70001220703125</v>
+        <v>377.5</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A149" s="3"/>
+      <c r="A149" s="3">
+        <v>45490</v>
+      </c>
+      <c r="B149">
+        <v>380.89999389648438</v>
+      </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="3"/>
@@ -6008,7 +6023,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'GXA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=258")</f>
+        <f>_xll.BQL("'GXA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=259")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -8068,11 +8083,16 @@
         <v>45489</v>
       </c>
       <c r="B258">
-        <v>18660</v>
+        <v>18665</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A259" s="1"/>
+      <c r="A259" s="1">
+        <v>45490</v>
+      </c>
+      <c r="B259">
+        <v>18618</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8096,7 +8116,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'Z A Index'", "dropna(px_last(start=-1Y, mode=CACHED)) as #PX_LAST","cols=2;rows=216")</f>
+        <f>_xll.BQL("'Z A Index'", "dropna(px_last(start=-1Y, mode=CACHED)) as #PX_LAST","cols=2;rows=217")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -9820,11 +9840,16 @@
         <v>45489</v>
       </c>
       <c r="B216">
-        <v>8167</v>
+        <v>8187</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A217" s="1"/>
+      <c r="A217" s="1">
+        <v>45490</v>
+      </c>
+      <c r="B217">
+        <v>8218</v>
+      </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" s="1"/>
@@ -9982,7 +10007,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'VGA Index'", "dropna(px_last(start=-1Y, mode=CACHED)) as #PX_LAST","cols=2;rows=258")</f>
+        <f>_xll.BQL("'VGA Index'", "dropna(px_last(start=-1Y, mode=CACHED)) as #PX_LAST","cols=2;rows=259")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -12042,12 +12067,16 @@
         <v>45489</v>
       </c>
       <c r="B258" s="2">
-        <v>4983</v>
+        <v>4982</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A259" s="1"/>
-      <c r="B259" s="2"/>
+      <c r="A259" s="1">
+        <v>45490</v>
+      </c>
+      <c r="B259" s="2">
+        <v>4939</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12071,7 +12100,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'STA Index'", "dropna(px_last(start=-1Y, mode=CACHED)) as #PX_LAST","cols=2;rows=213")</f>
+        <f>_xll.BQL("'STA Index'", "dropna(px_last(start=-1Y, mode=CACHED)) as #PX_LAST","cols=2;rows=214")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -13771,11 +13800,16 @@
         <v>45489</v>
       </c>
       <c r="B213">
-        <v>34525</v>
+        <v>34522</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A214" s="1"/>
+      <c r="A214" s="1">
+        <v>45490</v>
+      </c>
+      <c r="B214">
+        <v>34595</v>
+      </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" s="1"/>
@@ -13931,7 +13965,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'MESA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=261")</f>
+        <f>_xll.BQL("'MESA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=262")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -16015,11 +16049,16 @@
         <v>45489</v>
       </c>
       <c r="B261">
-        <v>1125.5</v>
+        <v>1130.4000000000001</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A262" s="1"/>
+      <c r="A262" s="1">
+        <v>45490</v>
+      </c>
+      <c r="B262">
+        <v>1116</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16043,7 +16082,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'NKA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=247")</f>
+        <f>_xll.BQL("'NKA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=248")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -18019,7 +18058,12 @@
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A248" s="1"/>
+      <c r="A248" s="1">
+        <v>45490</v>
+      </c>
+      <c r="B248">
+        <v>41080</v>
+      </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" s="1"/>

--- a/futures.xlsx
+++ b/futures.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssymhoven\Projekte\drawdown\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63FF57F3-0E18-49E4-87DC-383A9FC08A43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18323C2C-CA58-4612-9E51-4EF352DA0FB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28395" yWindow="660" windowWidth="28335" windowHeight="14340" firstSheet="2" activeTab="2" xr2:uid="{6B127A01-C975-41DD-8874-C1A98A2D19D1}"/>
   </bookViews>
@@ -142,25 +142,25 @@
   <volType type="realTimeData">
     <main first="bofaddin.rtdserver">
       <tp t="s">
-        <v>#N/A Requesting Data...3371444687</v>
+        <v>#N/A Requesting Data...2335014811</v>
         <stp/>
         <stp>BQL|10979204741361998002</stp>
         <tr r="A1" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3954731882</v>
+        <v>#N/A Requesting Data...1272708858</v>
         <stp/>
         <stp>BQL|11089668446101062744</stp>
         <tr r="A1" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3655930364</v>
+        <v>#N/A Requesting Data...1928017713</v>
         <stp/>
         <stp>BQL|13806401711674025669</stp>
         <tr r="A1" s="7"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4123273724</v>
+        <v>#N/A Requesting Data...1527286313</v>
         <stp/>
         <stp>BQL|17286913404469340473</stp>
         <tr r="A1" s="12"/>
@@ -168,31 +168,31 @@
     </main>
     <main first="bofaddin.rtdserver">
       <tp t="s">
-        <v>#N/A Requesting Data...3417877535</v>
+        <v>#N/A Requesting Data...2149172528</v>
         <stp/>
         <stp>BQL|4061673230346776974</stp>
         <tr r="A1" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3065142221</v>
+        <v>#N/A Requesting Data...2746687188</v>
         <stp/>
         <stp>BQL|9748752228194856605</stp>
         <tr r="A1" s="9"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4252078347</v>
+        <v>#N/A Requesting Data...1855317412</v>
         <stp/>
         <stp>BQL|3296962516285955434</stp>
         <tr r="A1" s="13"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4273942680</v>
+        <v>#N/A Requesting Data...222623661</v>
         <stp/>
         <stp>BQL|9143016819158358673</stp>
         <tr r="A1" s="10"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3612601639</v>
+        <v>#N/A Requesting Data...2097879749</v>
         <stp/>
         <stp>BQL|8937919304301651786</stp>
         <tr r="A1" s="11"/>
@@ -535,7 +535,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'ESA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=253")</f>
+        <f>_xll.BQL("'ESA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=254")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -2555,11 +2555,16 @@
         <v>45502</v>
       </c>
       <c r="B253">
-        <v>5507</v>
+        <v>5503</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A254" s="1"/>
+      <c r="A254" s="1">
+        <v>45503</v>
+      </c>
+      <c r="B254">
+        <v>5501.25</v>
+      </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" s="1"/>
@@ -2603,7 +2608,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'NQA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=253")</f>
+        <f>_xll.BQL("'NQA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=254")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -4623,11 +4628,16 @@
         <v>45502</v>
       </c>
       <c r="B253">
-        <v>19298.75</v>
+        <v>19209.25</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A254" s="1"/>
+      <c r="A254" s="1">
+        <v>45503</v>
+      </c>
+      <c r="B254">
+        <v>19153</v>
+      </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" s="1"/>
@@ -4642,7 +4652,7 @@
   <dimension ref="A1:B195"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="G146" sqref="G146"/>
+      <selection activeCell="F151" sqref="F151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4652,7 +4662,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'GPA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=157")</f>
+        <f>_xll.BQL("'GPA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=158")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -5904,11 +5914,16 @@
         <v>45502</v>
       </c>
       <c r="B157">
-        <v>391.70001220703125</v>
+        <v>391</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A158" s="3"/>
+      <c r="A158" s="3">
+        <v>45503</v>
+      </c>
+      <c r="B158">
+        <v>390.60000610351563</v>
+      </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="3"/>
@@ -6043,7 +6058,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'GXA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=257")</f>
+        <f>_xll.BQL("'GXA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=258")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -8095,11 +8110,16 @@
         <v>45502</v>
       </c>
       <c r="B257">
-        <v>18514</v>
+        <v>18432</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A258" s="1"/>
+      <c r="A258" s="1">
+        <v>45503</v>
+      </c>
+      <c r="B258">
+        <v>18537</v>
+      </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" s="1"/>
@@ -8126,7 +8146,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'Z A Index'", "dropna(px_last(start=-1Y, mode=CACHED)) as #PX_LAST","cols=2;rows=225")</f>
+        <f>_xll.BQL("'Z A Index'", "dropna(px_last(start=-1Y, mode=CACHED)) as #PX_LAST","cols=2;rows=226")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -9922,11 +9942,16 @@
         <v>45502</v>
       </c>
       <c r="B225">
-        <v>8325</v>
+        <v>8300</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A226" s="1"/>
+      <c r="A226" s="1">
+        <v>45503</v>
+      </c>
+      <c r="B226">
+        <v>8297.5</v>
+      </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" s="1"/>
@@ -10057,7 +10082,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'VGA Index'", "dropna(px_last(start=-1Y, mode=CACHED)) as #PX_LAST","cols=2;rows=257")</f>
+        <f>_xll.BQL("'VGA Index'", "dropna(px_last(start=-1Y, mode=CACHED)) as #PX_LAST","cols=2;rows=258")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -12109,12 +12134,16 @@
         <v>45502</v>
       </c>
       <c r="B257" s="2">
-        <v>4864</v>
+        <v>4843</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A258" s="1"/>
-      <c r="B258" s="2"/>
+      <c r="A258" s="1">
+        <v>45503</v>
+      </c>
+      <c r="B258" s="2">
+        <v>4877</v>
+      </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" s="1"/>
@@ -12142,7 +12171,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'STA Index'", "dropna(px_last(start=-1Y, mode=CACHED)) as #PX_LAST","cols=2;rows=222")</f>
+        <f>_xll.BQL("'STA Index'", "dropna(px_last(start=-1Y, mode=CACHED)) as #PX_LAST","cols=2;rows=223")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -13914,11 +13943,16 @@
         <v>45502</v>
       </c>
       <c r="B222">
-        <v>33910</v>
+        <v>33839</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A223" s="1"/>
+      <c r="A223" s="1">
+        <v>45503</v>
+      </c>
+      <c r="B223">
+        <v>34120</v>
+      </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" s="1"/>
@@ -14047,7 +14081,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'MESA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=260")</f>
+        <f>_xll.BQL("'MESA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=261")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -16123,11 +16157,16 @@
         <v>45502</v>
       </c>
       <c r="B260">
-        <v>1078</v>
+        <v>1077.0999999999999</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A261" s="1"/>
+      <c r="A261" s="1">
+        <v>45503</v>
+      </c>
+      <c r="B261">
+        <v>1074.4000244140625</v>
+      </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" s="1"/>
@@ -16154,7 +16193,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'NKA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=247")</f>
+        <f>_xll.BQL("'NKA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=248")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -18130,7 +18169,12 @@
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A248" s="1"/>
+      <c r="A248" s="1">
+        <v>45503</v>
+      </c>
+      <c r="B248">
+        <v>38490</v>
+      </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" s="1"/>

--- a/futures.xlsx
+++ b/futures.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssymhoven\Projekte\drawdown\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18323C2C-CA58-4612-9E51-4EF352DA0FB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0D2EC85-73BB-43A0-BCC3-10E690FCCB15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28395" yWindow="660" windowWidth="28335" windowHeight="14340" firstSheet="2" activeTab="2" xr2:uid="{6B127A01-C975-41DD-8874-C1A98A2D19D1}"/>
+    <workbookView xWindow="-57720" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="2" xr2:uid="{6B127A01-C975-41DD-8874-C1A98A2D19D1}"/>
   </bookViews>
   <sheets>
     <sheet name="S&amp;P 500 INDEX" sheetId="1" r:id="rId1"/>
@@ -142,25 +142,25 @@
   <volType type="realTimeData">
     <main first="bofaddin.rtdserver">
       <tp t="s">
-        <v>#N/A Requesting Data...2335014811</v>
+        <v>#N/A Requesting Data...4153745522</v>
         <stp/>
         <stp>BQL|10979204741361998002</stp>
         <tr r="A1" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1272708858</v>
+        <v>#N/A Requesting Data...3618885414</v>
         <stp/>
         <stp>BQL|11089668446101062744</stp>
         <tr r="A1" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1928017713</v>
+        <v>#N/A Requesting Data...3501427509</v>
         <stp/>
         <stp>BQL|13806401711674025669</stp>
         <tr r="A1" s="7"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1527286313</v>
+        <v>#N/A Requesting Data...3477976036</v>
         <stp/>
         <stp>BQL|17286913404469340473</stp>
         <tr r="A1" s="12"/>
@@ -168,31 +168,31 @@
     </main>
     <main first="bofaddin.rtdserver">
       <tp t="s">
-        <v>#N/A Requesting Data...2149172528</v>
+        <v>#N/A Requesting Data...3408521056</v>
         <stp/>
         <stp>BQL|4061673230346776974</stp>
         <tr r="A1" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2746687188</v>
+        <v>#N/A Requesting Data...4107726631</v>
         <stp/>
         <stp>BQL|9748752228194856605</stp>
         <tr r="A1" s="9"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1855317412</v>
+        <v>#N/A Requesting Data...3873708057</v>
         <stp/>
         <stp>BQL|3296962516285955434</stp>
         <tr r="A1" s="13"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...222623661</v>
+        <v>#N/A Requesting Data...2632426709</v>
         <stp/>
         <stp>BQL|9143016819158358673</stp>
         <tr r="A1" s="10"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2097879749</v>
+        <v>#N/A Requesting Data...3896355734</v>
         <stp/>
         <stp>BQL|8937919304301651786</stp>
         <tr r="A1" s="11"/>
@@ -535,7 +535,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'ESA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=254")</f>
+        <f>_xll.BQL("'ESA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=255")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -2563,11 +2563,16 @@
         <v>45503</v>
       </c>
       <c r="B254">
-        <v>5501.25</v>
+        <v>5472.5</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A255" s="1"/>
+      <c r="A255" s="1">
+        <v>45504</v>
+      </c>
+      <c r="B255">
+        <v>5544</v>
+      </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" s="1"/>
@@ -2608,7 +2613,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'NQA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=254")</f>
+        <f>_xll.BQL("'NQA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=255")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -4636,11 +4641,16 @@
         <v>45503</v>
       </c>
       <c r="B254">
-        <v>19153</v>
+        <v>18936.25</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A255" s="1"/>
+      <c r="A255" s="1">
+        <v>45504</v>
+      </c>
+      <c r="B255">
+        <v>19362</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4652,7 +4662,7 @@
   <dimension ref="A1:B195"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="F151" sqref="F151"/>
+      <selection activeCell="J142" sqref="J142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4662,7 +4672,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'GPA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=158")</f>
+        <f>_xll.BQL("'GPA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=159")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -5922,11 +5932,16 @@
         <v>45503</v>
       </c>
       <c r="B158">
-        <v>390.60000610351563</v>
+        <v>390.9</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A159" s="3"/>
+      <c r="A159" s="3">
+        <v>45504</v>
+      </c>
+      <c r="B159">
+        <v>392</v>
+      </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="3"/>
@@ -6058,7 +6073,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'GXA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=258")</f>
+        <f>_xll.BQL("'GXA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=259")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -8118,11 +8133,16 @@
         <v>45503</v>
       </c>
       <c r="B258">
-        <v>18537</v>
+        <v>18535</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A259" s="1"/>
+      <c r="A259" s="1">
+        <v>45504</v>
+      </c>
+      <c r="B259">
+        <v>18598</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8146,7 +8166,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'Z A Index'", "dropna(px_last(start=-1Y, mode=CACHED)) as #PX_LAST","cols=2;rows=226")</f>
+        <f>_xll.BQL("'Z A Index'", "dropna(px_last(start=-1Y, mode=CACHED)) as #PX_LAST","cols=2;rows=227")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -9950,11 +9970,16 @@
         <v>45503</v>
       </c>
       <c r="B226">
-        <v>8297.5</v>
+        <v>8286.5</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A227" s="1"/>
+      <c r="A227" s="1">
+        <v>45504</v>
+      </c>
+      <c r="B227">
+        <v>8368</v>
+      </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" s="1"/>
@@ -10082,7 +10107,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'VGA Index'", "dropna(px_last(start=-1Y, mode=CACHED)) as #PX_LAST","cols=2;rows=258")</f>
+        <f>_xll.BQL("'VGA Index'", "dropna(px_last(start=-1Y, mode=CACHED)) as #PX_LAST","cols=2;rows=259")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -12142,12 +12167,16 @@
         <v>45503</v>
       </c>
       <c r="B258" s="2">
-        <v>4877</v>
+        <v>4872</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A259" s="1"/>
-      <c r="B259" s="2"/>
+      <c r="A259" s="1">
+        <v>45504</v>
+      </c>
+      <c r="B259" s="2">
+        <v>4899</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12171,7 +12200,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'STA Index'", "dropna(px_last(start=-1Y, mode=CACHED)) as #PX_LAST","cols=2;rows=223")</f>
+        <f>_xll.BQL("'STA Index'", "dropna(px_last(start=-1Y, mode=CACHED)) as #PX_LAST","cols=2;rows=224")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -13951,11 +13980,16 @@
         <v>45503</v>
       </c>
       <c r="B223">
-        <v>34120</v>
+        <v>34109</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A224" s="1"/>
+      <c r="A224" s="1">
+        <v>45504</v>
+      </c>
+      <c r="B224">
+        <v>34045</v>
+      </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225" s="1"/>
@@ -14081,7 +14115,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'MESA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=261")</f>
+        <f>_xll.BQL("'MESA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=262")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -16165,11 +16199,16 @@
         <v>45503</v>
       </c>
       <c r="B261">
-        <v>1074.4000244140625</v>
+        <v>1072.3</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A262" s="1"/>
+      <c r="A262" s="1">
+        <v>45504</v>
+      </c>
+      <c r="B262">
+        <v>1095.5999755859375</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16193,7 +16232,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'NKA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=248")</f>
+        <f>_xll.BQL("'NKA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=249")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -18177,7 +18216,12 @@
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A249" s="1"/>
+      <c r="A249" s="1">
+        <v>45504</v>
+      </c>
+      <c r="B249">
+        <v>39230</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/futures.xlsx
+++ b/futures.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssymhoven\Projekte\drawdown\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EDE0B37-6105-4982-B286-B81A176E5477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{875E60FD-73E4-485B-900C-6657009541DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-86175" yWindow="945" windowWidth="28335" windowHeight="14340" firstSheet="2" activeTab="4" xr2:uid="{6B127A01-C975-41DD-8874-C1A98A2D19D1}"/>
+    <workbookView xWindow="-86520" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="4" xr2:uid="{6B127A01-C975-41DD-8874-C1A98A2D19D1}"/>
   </bookViews>
   <sheets>
     <sheet name="S&amp;P 500 INDEX" sheetId="1" r:id="rId1"/>
@@ -142,25 +142,25 @@
   <volType type="realTimeData">
     <main first="bofaddin.rtdserver">
       <tp t="s">
-        <v>#N/A Requesting Data...1128895270</v>
+        <v>#N/A Requesting Data...4287412172</v>
         <stp/>
         <stp>BQL|10979204741361998002</stp>
         <tr r="A1" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4252927152</v>
+        <v>#N/A Requesting Data...4174005849</v>
         <stp/>
         <stp>BQL|11089668446101062744</stp>
         <tr r="A1" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3078956437</v>
+        <v>#N/A Requesting Data...3922449406</v>
         <stp/>
         <stp>BQL|13806401711674025669</stp>
         <tr r="A1" s="7"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3371653367</v>
+        <v>#N/A Requesting Data...3803510426</v>
         <stp/>
         <stp>BQL|17286913404469340473</stp>
         <tr r="A1" s="12"/>
@@ -168,31 +168,31 @@
     </main>
     <main first="bofaddin.rtdserver">
       <tp t="s">
-        <v>#N/A Requesting Data...1009787302</v>
+        <v>#N/A Requesting Data...4021379069</v>
         <stp/>
         <stp>BQL|4061673230346776974</stp>
         <tr r="A1" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1761830378</v>
+        <v>#N/A Requesting Data...4205651293</v>
         <stp/>
         <stp>BQL|9748752228194856605</stp>
         <tr r="A1" s="9"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2436547896</v>
+        <v>#N/A Requesting Data...3977178242</v>
         <stp/>
         <stp>BQL|3296962516285955434</stp>
         <tr r="A1" s="13"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2512502562</v>
+        <v>#N/A Requesting Data...4104284817</v>
         <stp/>
         <stp>BQL|9143016819158358673</stp>
         <tr r="A1" s="10"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...1306780265</v>
+        <v>#N/A Requesting Data...3805745464</v>
         <stp/>
         <stp>BQL|8937919304301651786</stp>
         <tr r="A1" s="11"/>
@@ -535,7 +535,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'ESA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=254")</f>
+        <f>_xll.BQL("'ESA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=255")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -2563,11 +2563,16 @@
         <v>45510</v>
       </c>
       <c r="B254">
-        <v>5253.75</v>
+        <v>5266.25</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A255" s="1"/>
+      <c r="A255" s="1">
+        <v>45511</v>
+      </c>
+      <c r="B255">
+        <v>5322.75</v>
+      </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" s="1"/>
@@ -2608,7 +2613,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'NQA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=254")</f>
+        <f>_xll.BQL("'NQA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=255")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -4636,11 +4641,16 @@
         <v>45510</v>
       </c>
       <c r="B254">
-        <v>18164.75</v>
+        <v>18179</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A255" s="1"/>
+      <c r="A255" s="1">
+        <v>45511</v>
+      </c>
+      <c r="B255">
+        <v>18418.75</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4662,7 +4672,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'GPA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=163")</f>
+        <f>_xll.BQL("'GPA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=164")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -5962,11 +5972,16 @@
         <v>45510</v>
       </c>
       <c r="B163">
-        <v>374.60000610351563</v>
+        <v>375.7</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A164" s="3"/>
+      <c r="A164" s="3">
+        <v>45511</v>
+      </c>
+      <c r="B164">
+        <v>383</v>
+      </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="3"/>
@@ -6083,7 +6098,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'GXA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=258")</f>
+        <f>_xll.BQL("'GXA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=259")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -8143,11 +8158,16 @@
         <v>45510</v>
       </c>
       <c r="B258">
-        <v>17418</v>
+        <v>17408</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A259" s="1"/>
+      <c r="A259" s="1">
+        <v>45511</v>
+      </c>
+      <c r="B259">
+        <v>17685</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8160,7 +8180,7 @@
   <dimension ref="A1:B262"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A223" workbookViewId="0">
-      <selection activeCell="D230" sqref="D230"/>
+      <selection activeCell="S229" sqref="S229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8171,7 +8191,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'Z A Index'", "dropna(px_last(start=-1Y, mode=CACHED)) as #PX_LAST","cols=2;rows=231")</f>
+        <f>_xll.BQL("'Z A Index'", "dropna(px_last(start=-1Y, mode=CACHED)) as #PX_LAST","cols=2;rows=232")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -10015,11 +10035,16 @@
         <v>45510</v>
       </c>
       <c r="B231">
-        <v>7973.5</v>
+        <v>8013.5</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A232" s="1"/>
+      <c r="A232" s="1">
+        <v>45511</v>
+      </c>
+      <c r="B232">
+        <v>8145.5</v>
+      </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" s="1"/>
@@ -10132,7 +10157,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'VGA Index'", "dropna(px_last(start=-1Y, mode=CACHED)) as #PX_LAST","cols=2;rows=258")</f>
+        <f>_xll.BQL("'VGA Index'", "dropna(px_last(start=-1Y, mode=CACHED)) as #PX_LAST","cols=2;rows=259")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -12192,12 +12217,16 @@
         <v>45510</v>
       </c>
       <c r="B258" s="2">
-        <v>4587</v>
+        <v>4588</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A259" s="1"/>
-      <c r="B259" s="2"/>
+      <c r="A259" s="1">
+        <v>45511</v>
+      </c>
+      <c r="B259" s="2">
+        <v>4685</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12221,7 +12250,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'STA Index'", "dropna(px_last(start=-1Y, mode=CACHED)) as #PX_LAST","cols=2;rows=228")</f>
+        <f>_xll.BQL("'STA Index'", "dropna(px_last(start=-1Y, mode=CACHED)) as #PX_LAST","cols=2;rows=229")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -14041,11 +14070,16 @@
         <v>45510</v>
       </c>
       <c r="B228">
-        <v>31240</v>
+        <v>31256</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A229" s="1"/>
+      <c r="A229" s="1">
+        <v>45511</v>
+      </c>
+      <c r="B229">
+        <v>31950</v>
+      </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" s="1"/>
@@ -14156,7 +14190,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'MESA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=261")</f>
+        <f>_xll.BQL("'MESA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=262")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -16240,11 +16274,16 @@
         <v>45510</v>
       </c>
       <c r="B261">
-        <v>1025.4000244140625</v>
+        <v>1033.3</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A262" s="1"/>
+      <c r="A262" s="1">
+        <v>45511</v>
+      </c>
+      <c r="B262">
+        <v>1056.9000244140625</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16268,7 +16307,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'NKA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=248")</f>
+        <f>_xll.BQL("'NKA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=249")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -18252,7 +18291,12 @@
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A249" s="1"/>
+      <c r="A249" s="1">
+        <v>45511</v>
+      </c>
+      <c r="B249">
+        <v>35070</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/futures.xlsx
+++ b/futures.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssymhoven\Projekte\drawdown\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5DDE9EC-856C-4986-91AB-E65EF0A6EE8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{907E5B02-C37C-4379-8D56-9E93DA5CA00F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-57720" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="4" xr2:uid="{6B127A01-C975-41DD-8874-C1A98A2D19D1}"/>
   </bookViews>
@@ -142,25 +142,25 @@
   <volType type="realTimeData">
     <main first="bofaddin.rtdserver">
       <tp t="s">
-        <v>#N/A Requesting Data...3557708010</v>
+        <v>#N/A Requesting Data...3560119470</v>
         <stp/>
         <stp>BQL|10979204741361998002</stp>
         <tr r="A1" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2141994657</v>
+        <v>#N/A Requesting Data...4008063212</v>
         <stp/>
         <stp>BQL|11089668446101062744</stp>
         <tr r="A1" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3256192821</v>
+        <v>#N/A Requesting Data...4044209438</v>
         <stp/>
         <stp>BQL|13806401711674025669</stp>
         <tr r="A1" s="7"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2632773978</v>
+        <v>#N/A Requesting Data...3821589450</v>
         <stp/>
         <stp>BQL|17286913404469340473</stp>
         <tr r="A1" s="12"/>
@@ -168,31 +168,31 @@
     </main>
     <main first="bofaddin.rtdserver">
       <tp t="s">
-        <v>#N/A Requesting Data...1016696858</v>
+        <v>#N/A Requesting Data...3376871077</v>
         <stp/>
         <stp>BQL|4061673230346776974</stp>
         <tr r="A1" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...493660233</v>
+        <v>#N/A Requesting Data...3361343989</v>
         <stp/>
         <stp>BQL|9748752228194856605</stp>
         <tr r="A1" s="9"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4132986590</v>
+        <v>#N/A Requesting Data...3562472573</v>
         <stp/>
         <stp>BQL|3296962516285955434</stp>
         <tr r="A1" s="13"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2390600355</v>
+        <v>#N/A Requesting Data...3221107349</v>
         <stp/>
         <stp>BQL|9143016819158358673</stp>
         <tr r="A1" s="10"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3990521316</v>
+        <v>#N/A Requesting Data...3255603078</v>
         <stp/>
         <stp>BQL|8937919304301651786</stp>
         <tr r="A1" s="11"/>
@@ -535,7 +535,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'ESA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=253")</f>
+        <f>_xll.BQL("'ESA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=254")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -2555,11 +2555,16 @@
         <v>45516</v>
       </c>
       <c r="B253">
-        <v>5388.75</v>
+        <v>5369.75</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A254" s="1"/>
+      <c r="A254" s="1">
+        <v>45517</v>
+      </c>
+      <c r="B254">
+        <v>5406.5</v>
+      </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" s="1"/>
@@ -2603,7 +2608,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'NQA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=253")</f>
+        <f>_xll.BQL("'NQA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=254")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -4623,11 +4628,16 @@
         <v>45516</v>
       </c>
       <c r="B253">
-        <v>18728.5</v>
+        <v>18639.5</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A254" s="1"/>
+      <c r="A254" s="1">
+        <v>45517</v>
+      </c>
+      <c r="B254">
+        <v>18884.25</v>
+      </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" s="1"/>
@@ -4652,7 +4662,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'GPA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=167")</f>
+        <f>_xll.BQL("'GPA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=168")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -5984,11 +5994,16 @@
         <v>45516</v>
       </c>
       <c r="B167">
-        <v>384.5</v>
+        <v>384</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A168" s="3"/>
+      <c r="A168" s="3">
+        <v>45517</v>
+      </c>
+      <c r="B168">
+        <v>387.20001220703125</v>
+      </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="3"/>
@@ -6093,7 +6108,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'GXA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=257")</f>
+        <f>_xll.BQL("'GXA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=258")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -8145,11 +8160,16 @@
         <v>45516</v>
       </c>
       <c r="B257">
-        <v>17827</v>
+        <v>17782</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A258" s="1"/>
+      <c r="A258" s="1">
+        <v>45517</v>
+      </c>
+      <c r="B258">
+        <v>17834</v>
+      </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" s="1"/>
@@ -8165,7 +8185,7 @@
   <dimension ref="A1:B262"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A223" workbookViewId="0">
-      <selection activeCell="G229" sqref="G229"/>
+      <selection activeCell="E234" sqref="E234"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8176,7 +8196,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'Z A Index'", "dropna(px_last(start=-1Y, mode=CACHED)) as #PX_LAST","cols=2;rows=235")</f>
+        <f>_xll.BQL("'Z A Index'", "dropna(px_last(start=-1Y, mode=CACHED)) as #PX_LAST","cols=2;rows=236")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -10052,11 +10072,16 @@
         <v>45516</v>
       </c>
       <c r="B235">
-        <v>8217.5</v>
+        <v>8214.5</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A236" s="1"/>
+      <c r="A236" s="1">
+        <v>45517</v>
+      </c>
+      <c r="B236">
+        <v>8220.5</v>
+      </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" s="1"/>
@@ -10157,7 +10182,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'VGA Index'", "dropna(px_last(start=-1Y, mode=CACHED)) as #PX_LAST","cols=2;rows=257")</f>
+        <f>_xll.BQL("'VGA Index'", "dropna(px_last(start=-1Y, mode=CACHED)) as #PX_LAST","cols=2;rows=258")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -12209,12 +12234,16 @@
         <v>45516</v>
       </c>
       <c r="B257" s="2">
-        <v>4701</v>
+        <v>4687</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A258" s="1"/>
-      <c r="B258" s="2"/>
+      <c r="A258" s="1">
+        <v>45517</v>
+      </c>
+      <c r="B258" s="2">
+        <v>4697</v>
+      </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" s="1"/>
@@ -12242,7 +12271,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'STA Index'", "dropna(px_last(start=-1Y, mode=CACHED)) as #PX_LAST","cols=2;rows=232")</f>
+        <f>_xll.BQL("'STA Index'", "dropna(px_last(start=-1Y, mode=CACHED)) as #PX_LAST","cols=2;rows=233")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -14094,11 +14123,16 @@
         <v>45516</v>
       </c>
       <c r="B232">
-        <v>32100</v>
+        <v>32065</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A233" s="1"/>
+      <c r="A233" s="1">
+        <v>45517</v>
+      </c>
+      <c r="B233">
+        <v>32010</v>
+      </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" s="1"/>
@@ -14197,7 +14231,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'MESA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=260")</f>
+        <f>_xll.BQL("'MESA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=261")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -16273,11 +16307,16 @@
         <v>45516</v>
       </c>
       <c r="B260">
-        <v>1075.9000244140625</v>
+        <v>1073.5</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A261" s="1"/>
+      <c r="A261" s="1">
+        <v>45517</v>
+      </c>
+      <c r="B261">
+        <v>1076</v>
+      </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" s="1"/>
@@ -16304,7 +16343,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'NKA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=247")</f>
+        <f>_xll.BQL("'NKA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=248")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -18280,7 +18319,12 @@
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A248" s="1"/>
+      <c r="A248" s="1">
+        <v>45517</v>
+      </c>
+      <c r="B248">
+        <v>36220</v>
+      </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" s="1"/>

--- a/futures.xlsx
+++ b/futures.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssymhoven\Projekte\drawdown\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABE556F1-D076-4C2A-A521-68190D159DEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F9C88AF-8A01-4CCC-A82A-BE960BDB6CCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-57720" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="6" xr2:uid="{6B127A01-C975-41DD-8874-C1A98A2D19D1}"/>
+    <workbookView xWindow="-57255" yWindow="330" windowWidth="28320" windowHeight="14340" firstSheet="3" activeTab="6" xr2:uid="{6B127A01-C975-41DD-8874-C1A98A2D19D1}"/>
   </bookViews>
   <sheets>
     <sheet name="S&amp;P 500 INDEX" sheetId="1" r:id="rId1"/>
@@ -142,25 +142,25 @@
   <volType type="realTimeData">
     <main first="bofaddin.rtdserver">
       <tp t="s">
-        <v>#N/A Requesting Data...3343109579</v>
+        <v>#N/A N/A</v>
         <stp/>
         <stp>BQL|10979204741361998002</stp>
         <tr r="A1" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2428115036</v>
+        <v>#N/A N/A</v>
         <stp/>
         <stp>BQL|11089668446101062744</stp>
         <tr r="A1" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3800998344</v>
+        <v>#N/A N/A</v>
         <stp/>
         <stp>BQL|13806401711674025669</stp>
         <tr r="A1" s="7"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4188551541</v>
+        <v>#N/A N/A</v>
         <stp/>
         <stp>BQL|17286913404469340473</stp>
         <tr r="A1" s="12"/>
@@ -168,31 +168,31 @@
     </main>
     <main first="bofaddin.rtdserver">
       <tp t="s">
-        <v>#N/A Requesting Data...4285767648</v>
+        <v>#N/A N/A</v>
         <stp/>
         <stp>BQL|4061673230346776974</stp>
         <tr r="A1" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3477421550</v>
+        <v>#N/A N/A</v>
         <stp/>
         <stp>BQL|9748752228194856605</stp>
         <tr r="A1" s="9"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4215806578</v>
+        <v>#N/A N/A</v>
         <stp/>
         <stp>BQL|3296962516285955434</stp>
         <tr r="A1" s="13"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3799519920</v>
+        <v>#N/A N/A</v>
         <stp/>
         <stp>BQL|9143016819158358673</stp>
         <tr r="A1" s="10"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3981932892</v>
+        <v>#N/A N/A</v>
         <stp/>
         <stp>BQL|8937919304301651786</stp>
         <tr r="A1" s="11"/>
@@ -535,7 +535,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'ESA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=253")</f>
+        <f>_xll.BQL("'ESA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=254")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -2555,11 +2555,16 @@
         <v>45530</v>
       </c>
       <c r="B253">
-        <v>5661.5</v>
+        <v>5637</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A254" s="1"/>
+      <c r="A254" s="1">
+        <v>45531</v>
+      </c>
+      <c r="B254">
+        <v>5617</v>
+      </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" s="1"/>
@@ -2603,7 +2608,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'NQA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=253")</f>
+        <f>_xll.BQL("'NQA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=254")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -4623,11 +4628,16 @@
         <v>45530</v>
       </c>
       <c r="B253">
-        <v>19797.25</v>
+        <v>19591.25</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A254" s="1"/>
+      <c r="A254" s="1">
+        <v>45531</v>
+      </c>
+      <c r="B254">
+        <v>19489.5</v>
+      </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" s="1"/>
@@ -4652,7 +4662,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'GPA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=177")</f>
+        <f>_xll.BQL("'GPA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=178")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -6064,11 +6074,16 @@
         <v>45530</v>
       </c>
       <c r="B177">
-        <v>393.70001220703125</v>
+        <v>394.6</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A178" s="3"/>
+      <c r="A178" s="3">
+        <v>45531</v>
+      </c>
+      <c r="B178">
+        <v>394.89999389648438</v>
+      </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="3"/>
@@ -6143,7 +6158,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'GXA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=257")</f>
+        <f>_xll.BQL("'GXA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=258")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -8195,11 +8210,16 @@
         <v>45530</v>
       </c>
       <c r="B257">
-        <v>18660</v>
+        <v>18675</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A258" s="1"/>
+      <c r="A258" s="1">
+        <v>45531</v>
+      </c>
+      <c r="B258">
+        <v>18763</v>
+      </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" s="1"/>
@@ -8226,7 +8246,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'Z A Index'", "dropna(px_last(start=-1Y, mode=CACHED)) as #PX_LAST","cols=2;rows=245")</f>
+        <f>_xll.BQL("'Z A Index'", "dropna(px_last(start=-1Y, mode=CACHED)) as #PX_LAST","cols=2;rows=246")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -10186,7 +10206,12 @@
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A246" s="1"/>
+      <c r="A246" s="1">
+        <v>45531</v>
+      </c>
+      <c r="B246">
+        <v>8370</v>
+      </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" s="1"/>
@@ -10257,7 +10282,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'VGA Index'", "dropna(px_last(start=-1Y, mode=CACHED)) as #PX_LAST","cols=2;rows=257")</f>
+        <f>_xll.BQL("'VGA Index'", "dropna(px_last(start=-1Y, mode=CACHED)) as #PX_LAST","cols=2;rows=258")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -12309,12 +12334,16 @@
         <v>45530</v>
       </c>
       <c r="B257" s="2">
-        <v>4923</v>
+        <v>4912</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A258" s="1"/>
-      <c r="B258" s="2"/>
+      <c r="A258" s="1">
+        <v>45531</v>
+      </c>
+      <c r="B258" s="2">
+        <v>4917</v>
+      </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" s="1"/>
@@ -12330,8 +12359,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:B258"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A213" workbookViewId="0">
-      <selection activeCell="I216" sqref="I216"/>
+    <sheetView tabSelected="1" topLeftCell="A240" workbookViewId="0">
+      <selection activeCell="G259" sqref="G259"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12342,7 +12371,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'STA Index'", "dropna(px_last(start=-1Y, mode=CACHED)) as #PX_LAST","cols=2;rows=242")</f>
+        <f>_xll.BQL("'STA Index'", "dropna(px_last(start=-1Y, mode=CACHED)) as #PX_LAST","cols=2;rows=243")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -14274,11 +14303,16 @@
         <v>45530</v>
       </c>
       <c r="B242">
-        <v>33745</v>
+        <v>33704</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A243" s="1"/>
+      <c r="A243" s="1">
+        <v>45531</v>
+      </c>
+      <c r="B243">
+        <v>33845</v>
+      </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" s="1"/>
@@ -14347,7 +14381,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'MESA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=260")</f>
+        <f>_xll.BQL("'MESA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=261")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -16423,11 +16457,16 @@
         <v>45530</v>
       </c>
       <c r="B260">
-        <v>1110.199951171875</v>
+        <v>1103.5999999999999</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A261" s="1"/>
+      <c r="A261" s="1">
+        <v>45531</v>
+      </c>
+      <c r="B261">
+        <v>1103</v>
+      </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" s="1"/>
@@ -16454,7 +16493,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'NKA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=247")</f>
+        <f>_xll.BQL("'NKA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=248")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -18430,7 +18469,12 @@
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A248" s="1"/>
+      <c r="A248" s="1">
+        <v>45531</v>
+      </c>
+      <c r="B248">
+        <v>38300</v>
+      </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" s="1"/>

--- a/futures.xlsx
+++ b/futures.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssymhoven\Projekte\drawdown\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F9C88AF-8A01-4CCC-A82A-BE960BDB6CCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32D67429-3421-4A8F-B34F-555014536423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-57255" yWindow="330" windowWidth="28320" windowHeight="14340" firstSheet="3" activeTab="6" xr2:uid="{6B127A01-C975-41DD-8874-C1A98A2D19D1}"/>
+    <workbookView xWindow="-57720" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="6" xr2:uid="{6B127A01-C975-41DD-8874-C1A98A2D19D1}"/>
   </bookViews>
   <sheets>
     <sheet name="S&amp;P 500 INDEX" sheetId="1" r:id="rId1"/>
@@ -142,25 +142,25 @@
   <volType type="realTimeData">
     <main first="bofaddin.rtdserver">
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3899792674</v>
         <stp/>
         <stp>BQL|10979204741361998002</stp>
         <tr r="A1" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...2039623087</v>
         <stp/>
         <stp>BQL|11089668446101062744</stp>
         <tr r="A1" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3841364057</v>
         <stp/>
         <stp>BQL|13806401711674025669</stp>
         <tr r="A1" s="7"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...1266015079</v>
         <stp/>
         <stp>BQL|17286913404469340473</stp>
         <tr r="A1" s="12"/>
@@ -168,31 +168,31 @@
     </main>
     <main first="bofaddin.rtdserver">
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...2907657442</v>
         <stp/>
         <stp>BQL|4061673230346776974</stp>
         <tr r="A1" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...2257244374</v>
         <stp/>
         <stp>BQL|9748752228194856605</stp>
         <tr r="A1" s="9"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...2617256155</v>
         <stp/>
         <stp>BQL|3296962516285955434</stp>
         <tr r="A1" s="13"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...2824444711</v>
         <stp/>
         <stp>BQL|9143016819158358673</stp>
         <tr r="A1" s="10"/>
       </tp>
       <tp t="s">
-        <v>#N/A N/A</v>
+        <v>#N/A Requesting Data...3175885183</v>
         <stp/>
         <stp>BQL|8937919304301651786</stp>
         <tr r="A1" s="11"/>
@@ -535,7 +535,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'ESA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=254")</f>
+        <f>_xll.BQL("'ESA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=255")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -2563,11 +2563,16 @@
         <v>45531</v>
       </c>
       <c r="B254">
-        <v>5617</v>
+        <v>5644.75</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A255" s="1"/>
+      <c r="A255" s="1">
+        <v>45532</v>
+      </c>
+      <c r="B255">
+        <v>5638.5</v>
+      </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" s="1"/>
@@ -2608,7 +2613,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'NQA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=254")</f>
+        <f>_xll.BQL("'NQA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=255")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -4636,11 +4641,16 @@
         <v>45531</v>
       </c>
       <c r="B254">
-        <v>19489.5</v>
+        <v>19653.75</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A255" s="1"/>
+      <c r="A255" s="1">
+        <v>45532</v>
+      </c>
+      <c r="B255">
+        <v>19610.25</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4662,7 +4672,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'GPA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=178")</f>
+        <f>_xll.BQL("'GPA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=179")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -6082,11 +6092,16 @@
         <v>45531</v>
       </c>
       <c r="B178">
-        <v>394.89999389648438</v>
+        <v>395.2</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A179" s="3"/>
+      <c r="A179" s="3">
+        <v>45532</v>
+      </c>
+      <c r="B179">
+        <v>396.70001220703125</v>
+      </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="3"/>
@@ -6158,7 +6173,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'GXA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=258")</f>
+        <f>_xll.BQL("'GXA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=259")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -8218,11 +8233,16 @@
         <v>45531</v>
       </c>
       <c r="B258">
-        <v>18763</v>
+        <v>18753</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A259" s="1"/>
+      <c r="A259" s="1">
+        <v>45532</v>
+      </c>
+      <c r="B259">
+        <v>18872</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8246,7 +8266,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'Z A Index'", "dropna(px_last(start=-1Y, mode=CACHED)) as #PX_LAST","cols=2;rows=246")</f>
+        <f>_xll.BQL("'Z A Index'", "dropna(px_last(start=-1Y, mode=CACHED)) as #PX_LAST","cols=2;rows=247")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -10210,11 +10230,16 @@
         <v>45531</v>
       </c>
       <c r="B246">
-        <v>8370</v>
+        <v>8373.5</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A247" s="1"/>
+      <c r="A247" s="1">
+        <v>45532</v>
+      </c>
+      <c r="B247">
+        <v>8346.5</v>
+      </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" s="1"/>
@@ -10282,7 +10307,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'VGA Index'", "dropna(px_last(start=-1Y, mode=CACHED)) as #PX_LAST","cols=2;rows=258")</f>
+        <f>_xll.BQL("'VGA Index'", "dropna(px_last(start=-1Y, mode=CACHED)) as #PX_LAST","cols=2;rows=259")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -12346,8 +12371,12 @@
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A259" s="1"/>
-      <c r="B259" s="2"/>
+      <c r="A259" s="1">
+        <v>45532</v>
+      </c>
+      <c r="B259" s="2">
+        <v>4936</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12360,7 +12389,7 @@
   <dimension ref="A1:B258"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A240" workbookViewId="0">
-      <selection activeCell="G259" sqref="G259"/>
+      <selection activeCell="I251" sqref="I251"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12371,7 +12400,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'STA Index'", "dropna(px_last(start=-1Y, mode=CACHED)) as #PX_LAST","cols=2;rows=243")</f>
+        <f>_xll.BQL("'STA Index'", "dropna(px_last(start=-1Y, mode=CACHED)) as #PX_LAST","cols=2;rows=244")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -14311,11 +14340,16 @@
         <v>45531</v>
       </c>
       <c r="B243">
-        <v>33845</v>
+        <v>33874</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A244" s="1"/>
+      <c r="A244" s="1">
+        <v>45532</v>
+      </c>
+      <c r="B244">
+        <v>33975</v>
+      </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" s="1"/>
@@ -14381,7 +14415,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'MESA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=261")</f>
+        <f>_xll.BQL("'MESA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=262")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -16465,11 +16499,16 @@
         <v>45531</v>
       </c>
       <c r="B261">
-        <v>1103</v>
+        <v>1105.4000000000001</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A262" s="1"/>
+      <c r="A262" s="1">
+        <v>45532</v>
+      </c>
+      <c r="B262">
+        <v>1101.800048828125</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16493,7 +16532,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'NKA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=248")</f>
+        <f>_xll.BQL("'NKA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=249")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -18477,7 +18516,12 @@
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A249" s="1"/>
+      <c r="A249" s="1">
+        <v>45532</v>
+      </c>
+      <c r="B249">
+        <v>38370</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/futures.xlsx
+++ b/futures.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssymhoven\Projekte\drawdown\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9B8B69F-14E1-42CA-8357-A8E5529472C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAD20619-6736-4395-B4AD-FB93E97B28D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-86520" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="6" xr2:uid="{6B127A01-C975-41DD-8874-C1A98A2D19D1}"/>
+    <workbookView xWindow="780" yWindow="3660" windowWidth="28320" windowHeight="14340" firstSheet="3" activeTab="6" xr2:uid="{6B127A01-C975-41DD-8874-C1A98A2D19D1}"/>
   </bookViews>
   <sheets>
     <sheet name="S&amp;P 500 INDEX" sheetId="1" r:id="rId1"/>
@@ -142,25 +142,25 @@
   <volType type="realTimeData">
     <main first="bofaddin.rtdserver">
       <tp t="s">
-        <v>#N/A Requesting Data...3375761518</v>
+        <v>#N/A Requesting Data...3910753685</v>
         <stp/>
         <stp>BQL|10979204741361998002</stp>
         <tr r="A1" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3836196872</v>
+        <v>#N/A Requesting Data...2851682476</v>
         <stp/>
         <stp>BQL|11089668446101062744</stp>
         <tr r="A1" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4263688884</v>
+        <v>#N/A Requesting Data...2503850243</v>
         <stp/>
         <stp>BQL|13806401711674025669</stp>
         <tr r="A1" s="7"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2874342089</v>
+        <v>#N/A Requesting Data...3657605324</v>
         <stp/>
         <stp>BQL|17286913404469340473</stp>
         <tr r="A1" s="12"/>
@@ -168,31 +168,31 @@
     </main>
     <main first="bofaddin.rtdserver">
       <tp t="s">
-        <v>#N/A Requesting Data...3949149143</v>
+        <v>#N/A Requesting Data...3642605409</v>
         <stp/>
         <stp>BQL|4061673230346776974</stp>
         <tr r="A1" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3411529005</v>
+        <v>#N/A Requesting Data...2824765582</v>
         <stp/>
         <stp>BQL|9748752228194856605</stp>
         <tr r="A1" s="9"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3507018709</v>
+        <v>#N/A Requesting Data...3971763411</v>
         <stp/>
         <stp>BQL|3296962516285955434</stp>
         <tr r="A1" s="13"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...4189633725</v>
+        <v>#N/A Requesting Data...3513139027</v>
         <stp/>
         <stp>BQL|9143016819158358673</stp>
         <tr r="A1" s="10"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3487055177</v>
+        <v>#N/A Requesting Data...2592343210</v>
         <stp/>
         <stp>BQL|8937919304301651786</stp>
         <tr r="A1" s="11"/>
@@ -2552,10 +2552,10 @@
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
-        <v>45537</v>
+        <v>45538</v>
       </c>
       <c r="B253">
-        <v>5664.5</v>
+        <v>5613.75</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
@@ -4620,10 +4620,10 @@
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
-        <v>45537</v>
+        <v>45538</v>
       </c>
       <c r="B253">
-        <v>19654.75</v>
+        <v>19412.5</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
@@ -4652,7 +4652,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'GPA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=182")</f>
+        <f>_xll.BQL("'GPA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=183")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -6104,11 +6104,16 @@
         <v>45537</v>
       </c>
       <c r="B182">
-        <v>399.70001220703125</v>
+        <v>399.6</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A183" s="3"/>
+      <c r="A183" s="3">
+        <v>45538</v>
+      </c>
+      <c r="B183">
+        <v>399.39999389648438</v>
+      </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="3"/>
@@ -6168,7 +6173,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'GXA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=257")</f>
+        <f>_xll.BQL("'GXA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=258")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -8220,11 +8225,16 @@
         <v>45537</v>
       </c>
       <c r="B257">
-        <v>18977</v>
+        <v>18966</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A258" s="1"/>
+      <c r="A258" s="1">
+        <v>45538</v>
+      </c>
+      <c r="B258">
+        <v>18840</v>
+      </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" s="1"/>
@@ -8251,7 +8261,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'Z A Index'", "dropna(px_last(start=-1Y, mode=CACHED)) as #PX_LAST","cols=2;rows=250")</f>
+        <f>_xll.BQL("'Z A Index'", "dropna(px_last(start=-1Y, mode=CACHED)) as #PX_LAST","cols=2;rows=251")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -10247,11 +10257,16 @@
         <v>45537</v>
       </c>
       <c r="B250">
-        <v>8392</v>
+        <v>8379.5</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A251" s="1"/>
+      <c r="A251" s="1">
+        <v>45538</v>
+      </c>
+      <c r="B251">
+        <v>8327</v>
+      </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" s="1"/>
@@ -10307,7 +10322,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'VGA Index'", "dropna(px_last(start=-1Y, mode=CACHED)) as #PX_LAST","cols=2;rows=257")</f>
+        <f>_xll.BQL("'VGA Index'", "dropna(px_last(start=-1Y, mode=CACHED)) as #PX_LAST","cols=2;rows=258")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -12359,12 +12374,16 @@
         <v>45537</v>
       </c>
       <c r="B257" s="2">
-        <v>4984</v>
+        <v>4983</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A258" s="1"/>
-      <c r="B258" s="2"/>
+      <c r="A258" s="1">
+        <v>45538</v>
+      </c>
+      <c r="B258" s="2">
+        <v>4943</v>
+      </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" s="1"/>
@@ -12381,7 +12400,7 @@
   <dimension ref="A1:B258"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A240" workbookViewId="0">
-      <selection activeCell="N251" sqref="N251"/>
+      <selection activeCell="I245" sqref="I245"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12392,7 +12411,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'STA Index'", "dropna(px_last(start=-1Y, mode=CACHED)) as #PX_LAST","cols=2;rows=247")</f>
+        <f>_xll.BQL("'STA Index'", "dropna(px_last(start=-1Y, mode=CACHED)) as #PX_LAST","cols=2;rows=248")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -14364,11 +14383,16 @@
         <v>45537</v>
       </c>
       <c r="B247">
-        <v>34415</v>
+        <v>34397</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A248" s="1"/>
+      <c r="A248" s="1">
+        <v>45538</v>
+      </c>
+      <c r="B248">
+        <v>34080</v>
+      </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" s="1"/>
@@ -14422,7 +14446,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'MESA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=260")</f>
+        <f>_xll.BQL("'MESA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=261")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -16498,11 +16522,16 @@
         <v>45537</v>
       </c>
       <c r="B260">
-        <v>1098.0999755859375</v>
+        <v>1097.2</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A261" s="1"/>
+      <c r="A261" s="1">
+        <v>45538</v>
+      </c>
+      <c r="B261">
+        <v>1086.800048828125</v>
+      </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" s="1"/>
@@ -16529,7 +16558,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'NKA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=247")</f>
+        <f>_xll.BQL("'NKA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=248")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -18505,7 +18534,12 @@
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A248" s="1"/>
+      <c r="A248" s="1">
+        <v>45538</v>
+      </c>
+      <c r="B248">
+        <v>38790</v>
+      </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" s="1"/>

--- a/futures.xlsx
+++ b/futures.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssymhoven\Projekte\drawdown\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAD20619-6736-4395-B4AD-FB93E97B28D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FBDB035-6F61-40E9-8ECA-9778DF3AE050}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="3660" windowWidth="28320" windowHeight="14340" firstSheet="3" activeTab="6" xr2:uid="{6B127A01-C975-41DD-8874-C1A98A2D19D1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="6" xr2:uid="{6B127A01-C975-41DD-8874-C1A98A2D19D1}"/>
   </bookViews>
   <sheets>
     <sheet name="S&amp;P 500 INDEX" sheetId="1" r:id="rId1"/>
@@ -142,25 +142,25 @@
   <volType type="realTimeData">
     <main first="bofaddin.rtdserver">
       <tp t="s">
-        <v>#N/A Requesting Data...3910753685</v>
+        <v>#N/A Requesting Data...3662302172</v>
         <stp/>
         <stp>BQL|10979204741361998002</stp>
         <tr r="A1" s="3"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2851682476</v>
+        <v>#N/A Requesting Data...3799946797</v>
         <stp/>
         <stp>BQL|11089668446101062744</stp>
         <tr r="A1" s="6"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2503850243</v>
+        <v>#N/A Requesting Data...3404717570</v>
         <stp/>
         <stp>BQL|13806401711674025669</stp>
         <tr r="A1" s="7"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3657605324</v>
+        <v>#N/A Requesting Data...3161757562</v>
         <stp/>
         <stp>BQL|17286913404469340473</stp>
         <tr r="A1" s="12"/>
@@ -168,31 +168,31 @@
     </main>
     <main first="bofaddin.rtdserver">
       <tp t="s">
-        <v>#N/A Requesting Data...3642605409</v>
+        <v>#N/A Requesting Data...4155429786</v>
         <stp/>
         <stp>BQL|4061673230346776974</stp>
         <tr r="A1" s="1"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2824765582</v>
+        <v>#N/A Requesting Data...3795770623</v>
         <stp/>
         <stp>BQL|9748752228194856605</stp>
         <tr r="A1" s="9"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3971763411</v>
+        <v>#N/A Requesting Data...3251435712</v>
         <stp/>
         <stp>BQL|3296962516285955434</stp>
         <tr r="A1" s="13"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...3513139027</v>
+        <v>#N/A Requesting Data...3329283437</v>
         <stp/>
         <stp>BQL|9143016819158358673</stp>
         <tr r="A1" s="10"/>
       </tp>
       <tp t="s">
-        <v>#N/A Requesting Data...2592343210</v>
+        <v>#N/A Requesting Data...3927207637</v>
         <stp/>
         <stp>BQL|8937919304301651786</stp>
         <tr r="A1" s="11"/>
@@ -535,7 +535,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'ESA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=253")</f>
+        <f>_xll.BQL("'ESA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=254")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -2555,11 +2555,16 @@
         <v>45538</v>
       </c>
       <c r="B253">
-        <v>5613.75</v>
+        <v>5541.75</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A254" s="1"/>
+      <c r="A254" s="1">
+        <v>45539</v>
+      </c>
+      <c r="B254">
+        <v>5532.75</v>
+      </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" s="1"/>
@@ -2603,7 +2608,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'NQA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=253")</f>
+        <f>_xll.BQL("'NQA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=254")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -4623,11 +4628,16 @@
         <v>45538</v>
       </c>
       <c r="B253">
-        <v>19412.5</v>
+        <v>19006.5</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A254" s="1"/>
+      <c r="A254" s="1">
+        <v>45539</v>
+      </c>
+      <c r="B254">
+        <v>18889.75</v>
+      </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" s="1"/>
@@ -4652,7 +4662,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'GPA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=183")</f>
+        <f>_xll.BQL("'GPA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=184")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -6112,11 +6122,16 @@
         <v>45538</v>
       </c>
       <c r="B183">
-        <v>399.39999389648438</v>
+        <v>399.6</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A184" s="3"/>
+      <c r="A184" s="3">
+        <v>45539</v>
+      </c>
+      <c r="B184">
+        <v>400.10000610351563</v>
+      </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="3"/>
@@ -6173,7 +6188,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'GXA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=258")</f>
+        <f>_xll.BQL("'GXA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=259")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -8233,11 +8248,16 @@
         <v>45538</v>
       </c>
       <c r="B258">
-        <v>18840</v>
+        <v>18794</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A259" s="1"/>
+      <c r="A259" s="1">
+        <v>45539</v>
+      </c>
+      <c r="B259">
+        <v>18649</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8261,7 +8281,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'Z A Index'", "dropna(px_last(start=-1Y, mode=CACHED)) as #PX_LAST","cols=2;rows=251")</f>
+        <f>_xll.BQL("'Z A Index'", "dropna(px_last(start=-1Y, mode=CACHED)) as #PX_LAST","cols=2;rows=252")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -10265,11 +10285,16 @@
         <v>45538</v>
       </c>
       <c r="B251">
-        <v>8327</v>
+        <v>8314</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A252" s="1"/>
+      <c r="A252" s="1">
+        <v>45539</v>
+      </c>
+      <c r="B252">
+        <v>8288.5</v>
+      </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" s="1"/>
@@ -10322,7 +10347,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'VGA Index'", "dropna(px_last(start=-1Y, mode=CACHED)) as #PX_LAST","cols=2;rows=258")</f>
+        <f>_xll.BQL("'VGA Index'", "dropna(px_last(start=-1Y, mode=CACHED)) as #PX_LAST","cols=2;rows=259")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -12382,12 +12407,16 @@
         <v>45538</v>
       </c>
       <c r="B258" s="2">
-        <v>4943</v>
+        <v>4923</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A259" s="1"/>
-      <c r="B259" s="2"/>
+      <c r="A259" s="1">
+        <v>45539</v>
+      </c>
+      <c r="B259" s="2">
+        <v>4868</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12399,19 +12428,19 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:B258"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A240" workbookViewId="0">
-      <selection activeCell="I245" sqref="I245"/>
+    <sheetView tabSelected="1" topLeftCell="A232" workbookViewId="0">
+      <selection activeCell="I244" sqref="I244"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
     <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'STA Index'", "dropna(px_last(start=-1Y, mode=CACHED)) as #PX_LAST","cols=2;rows=248")</f>
+        <f>_xll.BQL("'STA Index'", "dropna(px_last(start=-1Y, mode=CACHED)) as #PX_LAST","cols=2;rows=249")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -14391,11 +14420,16 @@
         <v>45538</v>
       </c>
       <c r="B248">
-        <v>34080</v>
+        <v>33936</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A249" s="1"/>
+      <c r="A249" s="1">
+        <v>45539</v>
+      </c>
+      <c r="B249">
+        <v>33815</v>
+      </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" s="1"/>
@@ -14446,7 +14480,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'MESA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=261")</f>
+        <f>_xll.BQL("'MESA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=262")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -16530,11 +16564,16 @@
         <v>45538</v>
       </c>
       <c r="B261">
-        <v>1086.800048828125</v>
+        <v>1078.8</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A262" s="1"/>
+      <c r="A262" s="1">
+        <v>45539</v>
+      </c>
+      <c r="B262">
+        <v>1079.4000244140625</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16558,7 +16597,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>_xll.BQL("'NKA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=248")</f>
+        <f>_xll.BQL("'NKA Index'", "dropna(px_last(start='-1Y', mode=CACHED)) as #PX_LAST","cols=2;rows=249")</f>
         <v/>
       </c>
       <c r="B1" t="s">
@@ -18542,7 +18581,12 @@
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A249" s="1"/>
+      <c r="A249" s="1">
+        <v>45539</v>
+      </c>
+      <c r="B249">
+        <v>37000</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
